--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-23.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="360">
   <si>
     <t>League</t>
   </si>
@@ -229,6 +229,9 @@
     <t>Swiss Challenge League</t>
   </si>
   <si>
+    <t>South African Premier Division</t>
+  </si>
+  <si>
     <t>Belgian First Division A</t>
   </si>
   <si>
@@ -328,12 +331,15 @@
     <t>Pharco FC</t>
   </si>
   <si>
+    <t>Neuchatel Xamax</t>
+  </si>
+  <si>
+    <t>Mamelodi Sundowns</t>
+  </si>
+  <si>
     <t>Bellinzona</t>
   </si>
   <si>
-    <t>Neuchatel Xamax</t>
-  </si>
-  <si>
     <t>Fc Baden</t>
   </si>
   <si>
@@ -352,6 +358,9 @@
     <t>Resovia Rzeszow</t>
   </si>
   <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
     <t>Grenoble</t>
   </si>
   <si>
@@ -367,9 +376,6 @@
     <t>Caen</t>
   </si>
   <si>
-    <t>Bordeaux</t>
-  </si>
-  <si>
     <t>Bastia</t>
   </si>
   <si>
@@ -466,12 +472,15 @@
     <t>Al-Masry</t>
   </si>
   <si>
+    <t>FC Wil</t>
+  </si>
+  <si>
+    <t>Sekhukhune United</t>
+  </si>
+  <si>
     <t>Schaffhausen</t>
   </si>
   <si>
-    <t>FC Wil</t>
-  </si>
-  <si>
     <t>Aarau</t>
   </si>
   <si>
@@ -490,6 +499,9 @@
     <t>Wisla Krakow</t>
   </si>
   <si>
+    <t>Dunkerque</t>
+  </si>
+  <si>
     <t>St Etienne</t>
   </si>
   <si>
@@ -505,9 +517,6 @@
     <t>Annecy</t>
   </si>
   <si>
-    <t>Dunkerque</t>
-  </si>
-  <si>
     <t>Concarneau</t>
   </si>
   <si>
@@ -604,12 +613,15 @@
     <t>33205047</t>
   </si>
   <si>
+    <t>33209997</t>
+  </si>
+  <si>
+    <t>33210809</t>
+  </si>
+  <si>
     <t>33207452</t>
   </si>
   <si>
-    <t>33209997</t>
-  </si>
-  <si>
     <t>33207654</t>
   </si>
   <si>
@@ -628,6 +640,9 @@
     <t>33209552</t>
   </si>
   <si>
+    <t>33210079</t>
+  </si>
+  <si>
     <t>33210086</t>
   </si>
   <si>
@@ -643,9 +658,6 @@
     <t>33210077</t>
   </si>
   <si>
-    <t>33210079</t>
-  </si>
-  <si>
     <t>33210078</t>
   </si>
   <si>
@@ -742,12 +754,15 @@
     <t>1.227826337</t>
   </si>
   <si>
+    <t>1.227896956</t>
+  </si>
+  <si>
+    <t>1.227927001</t>
+  </si>
+  <si>
     <t>1.227855213</t>
   </si>
   <si>
-    <t>1.227896956</t>
-  </si>
-  <si>
     <t>1.227855512</t>
   </si>
   <si>
@@ -766,6 +781,9 @@
     <t>1.227884796</t>
   </si>
   <si>
+    <t>1.227897496</t>
+  </si>
+  <si>
     <t>1.227897316</t>
   </si>
   <si>
@@ -781,9 +799,6 @@
     <t>1.227897677</t>
   </si>
   <si>
-    <t>1.227897496</t>
-  </si>
-  <si>
     <t>1.227897586</t>
   </si>
   <si>
@@ -880,12 +895,15 @@
     <t>1.227826382</t>
   </si>
   <si>
+    <t>1.227897001</t>
+  </si>
+  <si>
+    <t>1.227927046</t>
+  </si>
+  <si>
     <t>1.227855258</t>
   </si>
   <si>
-    <t>1.227897001</t>
-  </si>
-  <si>
     <t>1.227855557</t>
   </si>
   <si>
@@ -904,6 +922,9 @@
     <t>1.227884841</t>
   </si>
   <si>
+    <t>1.227897541</t>
+  </si>
+  <si>
     <t>1.227897361</t>
   </si>
   <si>
@@ -919,9 +940,6 @@
     <t>1.227897722</t>
   </si>
   <si>
-    <t>1.227897541</t>
-  </si>
-  <si>
     <t>1.227897631</t>
   </si>
   <si>
@@ -988,6 +1006,12 @@
     <t>1.227670534</t>
   </si>
   <si>
+    <t>1.227846075</t>
+  </si>
+  <si>
+    <t>1.227884097</t>
+  </si>
+  <si>
     <t>1.227567635</t>
   </si>
   <si>
@@ -1025,6 +1049,12 @@
   </si>
   <si>
     <t>1.227670549</t>
+  </si>
+  <si>
+    <t>1.227846000</t>
+  </si>
+  <si>
+    <t>1.227884022</t>
   </si>
   <si>
     <t>1.227567646</t>
@@ -1421,7 +1451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM47"/>
+  <dimension ref="A1:BM48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1629,175 +1659,175 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F2">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G2">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="H2">
-        <v>2.62</v>
+        <v>2.44</v>
       </c>
       <c r="I2">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J2">
         <v>3.05</v>
       </c>
       <c r="K2">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="L2">
-        <v>1.69</v>
+        <v>1.49</v>
       </c>
       <c r="M2">
-        <v>2.06</v>
+        <v>2.38</v>
       </c>
       <c r="N2">
-        <v>1.94</v>
+        <v>1.72</v>
       </c>
       <c r="O2">
-        <v>2.46</v>
+        <v>3.05</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BG2">
         <v>8838645</v>
@@ -1809,16 +1839,16 @@
         <v>58805</v>
       </c>
       <c r="BJ2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="BK2" t="s">
-        <v>278</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
+        <v>283</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>330</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -1826,19 +1856,19 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F3">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="G3">
         <v>2.2</v>
@@ -1847,154 +1877,154 @@
         <v>4</v>
       </c>
       <c r="I3">
-        <v>10.5</v>
+        <v>6.6</v>
       </c>
       <c r="J3">
-        <v>2.24</v>
+        <v>3.1</v>
       </c>
       <c r="K3">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L3">
         <v>1.65</v>
       </c>
       <c r="M3">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="N3">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="O3">
-        <v>6</v>
+        <v>2.54</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BG3">
         <v>5170871</v>
@@ -2006,16 +2036,16 @@
         <v>58805</v>
       </c>
       <c r="BJ3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="BK3" t="s">
-        <v>279</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BM3">
-        <v>0</v>
+        <v>284</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>331</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -2023,16 +2053,16 @@
         <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F4">
         <v>1.04</v>
@@ -2191,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="BF4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="BG4">
         <v>4135278</v>
@@ -2203,10 +2233,10 @@
         <v>58805</v>
       </c>
       <c r="BJ4" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="BK4" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="BL4">
         <v>0</v>
@@ -2220,31 +2250,31 @@
         <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F5">
         <v>2.52</v>
       </c>
       <c r="G5">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="H5">
         <v>2.46</v>
       </c>
       <c r="I5">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="J5">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K5">
         <v>5.1</v>
@@ -2388,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="BF5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="BG5">
         <v>2486936</v>
@@ -2400,10 +2430,10 @@
         <v>58805</v>
       </c>
       <c r="BJ5" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="BK5" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="BL5">
         <v>0</v>
@@ -2417,22 +2447,22 @@
         <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F6">
         <v>3.75</v>
       </c>
       <c r="G6">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="H6">
         <v>1.76</v>
@@ -2585,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="BF6" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="BG6">
         <v>8522727</v>
@@ -2597,10 +2627,10 @@
         <v>58805</v>
       </c>
       <c r="BJ6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="BK6" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="BL6">
         <v>0</v>
@@ -2614,47 +2644,47 @@
         <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F7">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="G7">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="H7">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="I7">
+        <v>2.38</v>
+      </c>
+      <c r="J7">
+        <v>3.35</v>
+      </c>
+      <c r="K7">
+        <v>9</v>
+      </c>
+      <c r="L7">
+        <v>1.64</v>
+      </c>
+      <c r="M7">
+        <v>2.68</v>
+      </c>
+      <c r="N7">
+        <v>1.6</v>
+      </c>
+      <c r="O7">
         <v>2.56</v>
       </c>
-      <c r="J7">
-        <v>3.1</v>
-      </c>
-      <c r="K7">
-        <v>10</v>
-      </c>
-      <c r="L7">
-        <v>1.58</v>
-      </c>
-      <c r="M7">
-        <v>2.82</v>
-      </c>
-      <c r="N7">
-        <v>1.55</v>
-      </c>
-      <c r="O7">
-        <v>2.7</v>
-      </c>
       <c r="P7">
         <v>0</v>
       </c>
@@ -2782,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="BF7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="BG7">
         <v>3258153</v>
@@ -2794,10 +2824,10 @@
         <v>58805</v>
       </c>
       <c r="BJ7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="BK7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="BL7">
         <v>0</v>
@@ -2811,31 +2841,31 @@
         <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F8">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="G8">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="H8">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="I8">
         <v>4.7</v>
       </c>
       <c r="J8">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="K8">
         <v>3.3</v>
@@ -2979,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="BF8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="BG8">
         <v>3465177</v>
@@ -2991,10 +3021,10 @@
         <v>58805</v>
       </c>
       <c r="BJ8" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="BK8" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="BL8">
         <v>0</v>
@@ -3008,16 +3038,16 @@
         <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F9">
         <v>1.79</v>
@@ -3026,13 +3056,13 @@
         <v>1.92</v>
       </c>
       <c r="H9">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I9">
         <v>5.4</v>
       </c>
       <c r="J9">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="K9">
         <v>4.4</v>
@@ -3041,10 +3071,10 @@
         <v>1.86</v>
       </c>
       <c r="M9">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="N9">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="O9">
         <v>2.18</v>
@@ -3176,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="BF9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="BG9">
         <v>784612</v>
@@ -3188,10 +3218,10 @@
         <v>58805</v>
       </c>
       <c r="BJ9" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="BK9" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="BL9">
         <v>0</v>
@@ -3205,16 +3235,16 @@
         <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F10">
         <v>1.04</v>
@@ -3373,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="BF10" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="BG10">
         <v>4768314</v>
@@ -3385,10 +3415,10 @@
         <v>58805</v>
       </c>
       <c r="BJ10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="BK10" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="BL10">
         <v>0</v>
@@ -3402,43 +3432,43 @@
         <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F11">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="G11">
         <v>14</v>
       </c>
       <c r="H11">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="I11">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="J11">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="K11">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L11">
         <v>1.58</v>
       </c>
       <c r="M11">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="N11">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="O11">
         <v>6</v>
@@ -3570,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="BF11" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="BG11">
         <v>10539864</v>
@@ -3582,10 +3612,10 @@
         <v>58805</v>
       </c>
       <c r="BJ11" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="BK11" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="BL11">
         <v>0</v>
@@ -3599,46 +3629,46 @@
         <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F12">
-        <v>2.56</v>
+        <v>1.25</v>
       </c>
       <c r="G12">
-        <v>3.7</v>
+        <v>14</v>
       </c>
       <c r="H12">
-        <v>2.5</v>
+        <v>1.27</v>
       </c>
       <c r="I12">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="J12">
-        <v>3.05</v>
+        <v>1.27</v>
       </c>
       <c r="K12">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="L12">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="M12">
-        <v>2.2</v>
+        <v>1000</v>
       </c>
       <c r="N12">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="O12">
-        <v>2.64</v>
+        <v>6.4</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -3767,22 +3797,22 @@
         <v>0</v>
       </c>
       <c r="BF12" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="BG12">
-        <v>457840</v>
+        <v>65779</v>
       </c>
       <c r="BH12">
-        <v>328835</v>
+        <v>179085</v>
       </c>
       <c r="BI12">
         <v>58805</v>
       </c>
       <c r="BJ12" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="BK12" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="BL12">
         <v>0</v>
@@ -3793,40 +3823,40 @@
     </row>
     <row r="13" spans="1:65">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F13">
-        <v>1.19</v>
+        <v>1.04</v>
       </c>
       <c r="G13">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="H13">
-        <v>1.21</v>
+        <v>1.04</v>
       </c>
       <c r="I13">
         <v>1000</v>
       </c>
       <c r="J13">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="K13">
         <v>1000</v>
       </c>
       <c r="L13">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="M13">
         <v>1000</v>
@@ -3835,7 +3865,7 @@
         <v>1.01</v>
       </c>
       <c r="O13">
-        <v>6.4</v>
+        <v>21</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -3964,22 +3994,22 @@
         <v>0</v>
       </c>
       <c r="BF13" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="BG13">
-        <v>65779</v>
+        <v>6772440</v>
       </c>
       <c r="BH13">
-        <v>179085</v>
+        <v>38281353</v>
       </c>
       <c r="BI13">
         <v>58805</v>
       </c>
       <c r="BJ13" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="BK13" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="BL13">
         <v>0</v>
@@ -3993,46 +4023,46 @@
         <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
         <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E14" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F14">
-        <v>1.22</v>
+        <v>2.56</v>
       </c>
       <c r="G14">
-        <v>1000</v>
+        <v>3.35</v>
       </c>
       <c r="H14">
-        <v>1.19</v>
+        <v>2.52</v>
       </c>
       <c r="I14">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="J14">
-        <v>1.22</v>
+        <v>3.1</v>
       </c>
       <c r="K14">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="L14">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="M14">
-        <v>110</v>
+        <v>2.2</v>
       </c>
       <c r="N14">
-        <v>1.03</v>
+        <v>1.83</v>
       </c>
       <c r="O14">
-        <v>6.4</v>
+        <v>3</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -4161,22 +4191,22 @@
         <v>0</v>
       </c>
       <c r="BF14" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="BG14">
-        <v>17108156</v>
+        <v>457840</v>
       </c>
       <c r="BH14">
-        <v>65777</v>
+        <v>328835</v>
       </c>
       <c r="BI14">
         <v>58805</v>
       </c>
       <c r="BJ14" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="BK14" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="BL14">
         <v>0</v>
@@ -4187,49 +4217,49 @@
     </row>
     <row r="15" spans="1:65">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
         <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E15" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F15">
-        <v>2.24</v>
+        <v>1.29</v>
       </c>
       <c r="G15">
-        <v>3.85</v>
+        <v>1000</v>
       </c>
       <c r="H15">
-        <v>2.56</v>
+        <v>1.26</v>
       </c>
       <c r="I15">
-        <v>4.9</v>
+        <v>13</v>
       </c>
       <c r="J15">
-        <v>2.88</v>
+        <v>1.29</v>
       </c>
       <c r="K15">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="L15">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="M15">
-        <v>1.9</v>
+        <v>110</v>
       </c>
       <c r="N15">
-        <v>2.1</v>
+        <v>1.03</v>
       </c>
       <c r="O15">
-        <v>3.65</v>
+        <v>6.4</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -4358,22 +4388,22 @@
         <v>0</v>
       </c>
       <c r="BF15" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="BG15">
-        <v>9481404</v>
+        <v>17108156</v>
       </c>
       <c r="BH15">
-        <v>872710</v>
+        <v>65777</v>
       </c>
       <c r="BI15">
         <v>58805</v>
       </c>
       <c r="BJ15" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="BK15" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="BL15">
         <v>0</v>
@@ -4384,49 +4414,49 @@
     </row>
     <row r="16" spans="1:65">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E16" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F16">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="G16">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="H16">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="I16">
-        <v>4.9</v>
+        <v>5.9</v>
       </c>
       <c r="J16">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="K16">
-        <v>6</v>
+        <v>19.5</v>
       </c>
       <c r="L16">
-        <v>1.74</v>
+        <v>1.36</v>
       </c>
       <c r="M16">
-        <v>3.65</v>
+        <v>1.93</v>
       </c>
       <c r="N16">
-        <v>1.38</v>
+        <v>2.06</v>
       </c>
       <c r="O16">
-        <v>2.34</v>
+        <v>3.75</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -4555,22 +4585,22 @@
         <v>0</v>
       </c>
       <c r="BF16" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="BG16">
-        <v>51406</v>
+        <v>9481404</v>
       </c>
       <c r="BH16">
-        <v>1311877</v>
+        <v>872710</v>
       </c>
       <c r="BI16">
         <v>58805</v>
       </c>
       <c r="BJ16" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="BK16" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="BL16">
         <v>0</v>
@@ -4581,49 +4611,49 @@
     </row>
     <row r="17" spans="1:65">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F17">
-        <v>1.28</v>
+        <v>2.26</v>
       </c>
       <c r="G17">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="H17">
-        <v>1.41</v>
+        <v>2.62</v>
       </c>
       <c r="I17">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J17">
-        <v>1.99</v>
+        <v>2.72</v>
       </c>
       <c r="K17">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="L17">
-        <v>1.56</v>
+        <v>1.69</v>
       </c>
       <c r="M17">
-        <v>2.76</v>
+        <v>3.35</v>
       </c>
       <c r="N17">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
       <c r="O17">
-        <v>2.76</v>
+        <v>2.44</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -4752,22 +4782,22 @@
         <v>0</v>
       </c>
       <c r="BF17" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BG17">
-        <v>571279</v>
+        <v>51406</v>
       </c>
       <c r="BH17">
-        <v>13052998</v>
+        <v>1311877</v>
       </c>
       <c r="BI17">
         <v>58805</v>
       </c>
       <c r="BJ17" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="BK17" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="BL17">
         <v>0</v>
@@ -4778,49 +4808,49 @@
     </row>
     <row r="18" spans="1:65">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>1.28</v>
       </c>
       <c r="G18">
-        <v>11.5</v>
+        <v>3.1</v>
       </c>
       <c r="H18">
-        <v>1.84</v>
+        <v>1.48</v>
       </c>
       <c r="I18">
-        <v>3.35</v>
+        <v>4.7</v>
       </c>
       <c r="J18">
-        <v>2.72</v>
+        <v>3.2</v>
       </c>
       <c r="K18">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="L18">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="M18">
-        <v>2.56</v>
+        <v>2.76</v>
       </c>
       <c r="N18">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="O18">
-        <v>2.48</v>
+        <v>2.74</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -4949,22 +4979,22 @@
         <v>0</v>
       </c>
       <c r="BF18" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="BG18">
-        <v>189832</v>
+        <v>571279</v>
       </c>
       <c r="BH18">
-        <v>350594</v>
+        <v>13052998</v>
       </c>
       <c r="BI18">
         <v>58805</v>
       </c>
       <c r="BJ18" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="BK18" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="BL18">
         <v>0</v>
@@ -4975,49 +5005,49 @@
     </row>
     <row r="19" spans="1:65">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E19" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F19">
-        <v>1.04</v>
+        <v>3.05</v>
       </c>
       <c r="G19">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="H19">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="I19">
-        <v>1.95</v>
+        <v>2.88</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K19">
-        <v>5.6</v>
+        <v>7.6</v>
       </c>
       <c r="L19">
-        <v>1.2</v>
+        <v>1.66</v>
       </c>
       <c r="M19">
-        <v>990</v>
+        <v>2.74</v>
       </c>
       <c r="N19">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="O19">
-        <v>6</v>
+        <v>2.52</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -5146,22 +5176,22 @@
         <v>0</v>
       </c>
       <c r="BF19" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="BG19">
-        <v>5767794</v>
+        <v>189832</v>
       </c>
       <c r="BH19">
-        <v>10782</v>
+        <v>350594</v>
       </c>
       <c r="BI19">
         <v>58805</v>
       </c>
       <c r="BJ19" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="BK19" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="BL19">
         <v>0</v>
@@ -5172,49 +5202,49 @@
     </row>
     <row r="20" spans="1:65">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
         <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E20" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F20">
-        <v>3.85</v>
+        <v>1.04</v>
       </c>
       <c r="G20">
-        <v>4.7</v>
+        <v>6.6</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I20">
-        <v>2.16</v>
+        <v>1.95</v>
       </c>
       <c r="J20">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="K20">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="L20">
-        <v>1.87</v>
+        <v>2.12</v>
       </c>
       <c r="M20">
-        <v>2.06</v>
+        <v>990</v>
       </c>
       <c r="N20">
-        <v>1.96</v>
+        <v>1.52</v>
       </c>
       <c r="O20">
-        <v>2.16</v>
+        <v>1.89</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -5343,22 +5373,22 @@
         <v>0</v>
       </c>
       <c r="BF20" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="BG20">
-        <v>269792</v>
+        <v>5767794</v>
       </c>
       <c r="BH20">
-        <v>309689</v>
+        <v>10782</v>
       </c>
       <c r="BI20">
         <v>58805</v>
       </c>
       <c r="BJ20" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="BK20" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="BL20">
         <v>0</v>
@@ -5369,49 +5399,49 @@
     </row>
     <row r="21" spans="1:65">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F21">
-        <v>1.23</v>
+        <v>1.68</v>
       </c>
       <c r="G21">
-        <v>2.12</v>
+        <v>2.38</v>
       </c>
       <c r="H21">
-        <v>1.04</v>
+        <v>3.5</v>
       </c>
       <c r="I21">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="J21">
         <v>1.01</v>
       </c>
       <c r="K21">
-        <v>70</v>
+        <v>8.4</v>
       </c>
       <c r="L21">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="M21">
-        <v>2.06</v>
+        <v>2.94</v>
       </c>
       <c r="N21">
-        <v>1.94</v>
+        <v>1.51</v>
       </c>
       <c r="O21">
-        <v>2.68</v>
+        <v>2.82</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -5540,22 +5570,22 @@
         <v>0</v>
       </c>
       <c r="BF21" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="BG21">
-        <v>44800</v>
+        <v>10501</v>
       </c>
       <c r="BH21">
-        <v>77585</v>
+        <v>2250259</v>
       </c>
       <c r="BI21">
         <v>58805</v>
       </c>
       <c r="BJ21" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="BK21" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="BL21">
         <v>0</v>
@@ -5566,46 +5596,46 @@
     </row>
     <row r="22" spans="1:65">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E22" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F22">
-        <v>2.66</v>
+        <v>1.04</v>
       </c>
       <c r="G22">
-        <v>3.1</v>
+        <v>7.2</v>
       </c>
       <c r="H22">
-        <v>2.8</v>
+        <v>1.96</v>
       </c>
       <c r="I22">
-        <v>3.3</v>
+        <v>2.22</v>
       </c>
       <c r="J22">
-        <v>3.15</v>
+        <v>1.3</v>
       </c>
       <c r="K22">
-        <v>3.75</v>
+        <v>1000</v>
       </c>
       <c r="L22">
         <v>1.76</v>
       </c>
       <c r="M22">
-        <v>1.93</v>
+        <v>2.24</v>
       </c>
       <c r="N22">
-        <v>2.08</v>
+        <v>1.8</v>
       </c>
       <c r="O22">
         <v>2.32</v>
@@ -5737,22 +5767,22 @@
         <v>0</v>
       </c>
       <c r="BF22" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="BG22">
-        <v>1029663</v>
+        <v>269792</v>
       </c>
       <c r="BH22">
-        <v>5168454</v>
+        <v>309689</v>
       </c>
       <c r="BI22">
         <v>58805</v>
       </c>
       <c r="BJ22" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="BK22" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="BL22">
         <v>0</v>
@@ -5763,46 +5793,46 @@
     </row>
     <row r="23" spans="1:65">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E23" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F23">
-        <v>2.14</v>
+        <v>1.42</v>
       </c>
       <c r="G23">
-        <v>3.2</v>
+        <v>2.12</v>
       </c>
       <c r="H23">
-        <v>2.64</v>
+        <v>4.4</v>
       </c>
       <c r="I23">
-        <v>3.95</v>
+        <v>1000</v>
       </c>
       <c r="J23">
-        <v>3.25</v>
+        <v>1.01</v>
       </c>
       <c r="K23">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L23">
         <v>1.2</v>
       </c>
       <c r="M23">
-        <v>2.28</v>
+        <v>1000</v>
       </c>
       <c r="N23">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="O23">
         <v>6</v>
@@ -5934,22 +5964,22 @@
         <v>0</v>
       </c>
       <c r="BF23" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="BG23">
-        <v>4864974</v>
+        <v>44800</v>
       </c>
       <c r="BH23">
-        <v>4364244</v>
+        <v>77585</v>
       </c>
       <c r="BI23">
         <v>58805</v>
       </c>
       <c r="BJ23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="BK23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="BL23">
         <v>0</v>
@@ -5960,49 +5990,49 @@
     </row>
     <row r="24" spans="1:65">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E24" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F24">
-        <v>2.22</v>
+        <v>1.04</v>
       </c>
       <c r="G24">
-        <v>2.42</v>
+        <v>2.92</v>
       </c>
       <c r="H24">
-        <v>3.5</v>
+        <v>1.04</v>
       </c>
       <c r="I24">
-        <v>4.3</v>
+        <v>3.35</v>
       </c>
       <c r="J24">
-        <v>3.15</v>
+        <v>1.03</v>
       </c>
       <c r="K24">
-        <v>3.8</v>
+        <v>6.6</v>
       </c>
       <c r="L24">
-        <v>1.68</v>
+        <v>1.52</v>
       </c>
       <c r="M24">
-        <v>1.84</v>
+        <v>2.32</v>
       </c>
       <c r="N24">
-        <v>2.2</v>
+        <v>1.76</v>
       </c>
       <c r="O24">
-        <v>2.48</v>
+        <v>2.9</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -6131,22 +6161,22 @@
         <v>0</v>
       </c>
       <c r="BF24" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="BG24">
-        <v>310510</v>
+        <v>1029663</v>
       </c>
       <c r="BH24">
-        <v>10572632</v>
+        <v>5168454</v>
       </c>
       <c r="BI24">
         <v>58805</v>
       </c>
       <c r="BJ24" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="BK24" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="BL24">
         <v>0</v>
@@ -6157,49 +6187,49 @@
     </row>
     <row r="25" spans="1:65">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E25" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F25">
-        <v>1.74</v>
+        <v>2.2</v>
       </c>
       <c r="G25">
-        <v>1.94</v>
+        <v>3.15</v>
       </c>
       <c r="H25">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="I25">
-        <v>7.4</v>
+        <v>3.95</v>
       </c>
       <c r="J25">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="K25">
-        <v>4.9</v>
+        <v>5.8</v>
       </c>
       <c r="L25">
-        <v>1.93</v>
+        <v>1.54</v>
       </c>
       <c r="M25">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="N25">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="O25">
-        <v>2.08</v>
+        <v>2.86</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -6328,22 +6358,22 @@
         <v>0</v>
       </c>
       <c r="BF25" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BG25">
-        <v>10501</v>
+        <v>4864974</v>
       </c>
       <c r="BH25">
-        <v>2250259</v>
+        <v>4364244</v>
       </c>
       <c r="BI25">
         <v>58805</v>
       </c>
       <c r="BJ25" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="BK25" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="BL25">
         <v>0</v>
@@ -6354,50 +6384,50 @@
     </row>
     <row r="26" spans="1:65">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F26">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G26">
-        <v>2.3</v>
+        <v>2.54</v>
       </c>
       <c r="H26">
-        <v>3.65</v>
+        <v>1.04</v>
       </c>
       <c r="I26">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="J26">
+        <v>1.35</v>
+      </c>
+      <c r="K26">
+        <v>11</v>
+      </c>
+      <c r="L26">
+        <v>1.45</v>
+      </c>
+      <c r="M26">
+        <v>2.4</v>
+      </c>
+      <c r="N26">
+        <v>1.71</v>
+      </c>
+      <c r="O26">
         <v>3.2</v>
       </c>
-      <c r="K26">
-        <v>3.85</v>
-      </c>
-      <c r="L26">
-        <v>1.66</v>
-      </c>
-      <c r="M26">
-        <v>1.81</v>
-      </c>
-      <c r="N26">
-        <v>2.24</v>
-      </c>
-      <c r="O26">
-        <v>2.54</v>
-      </c>
       <c r="P26">
         <v>0</v>
       </c>
@@ -6525,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="BF26" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="BG26">
-        <v>44791</v>
+        <v>310510</v>
       </c>
       <c r="BH26">
-        <v>2250008</v>
+        <v>10572632</v>
       </c>
       <c r="BI26">
         <v>58805</v>
       </c>
       <c r="BJ26" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="BK26" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="BL26">
         <v>0</v>
@@ -6551,49 +6581,49 @@
     </row>
     <row r="27" spans="1:65">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E27" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F27">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>3.95</v>
+        <v>2.3</v>
       </c>
       <c r="H27">
-        <v>2.82</v>
+        <v>1.04</v>
       </c>
       <c r="I27">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="J27">
-        <v>2.56</v>
+        <v>1.03</v>
       </c>
       <c r="K27">
-        <v>9.6</v>
+        <v>55</v>
       </c>
       <c r="L27">
-        <v>1.2</v>
+        <v>1.52</v>
       </c>
       <c r="M27">
-        <v>1000</v>
+        <v>1.81</v>
       </c>
       <c r="N27">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="O27">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -6722,22 +6752,22 @@
         <v>0</v>
       </c>
       <c r="BF27" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="BG27">
-        <v>10572628</v>
+        <v>44791</v>
       </c>
       <c r="BH27">
-        <v>70467</v>
+        <v>2250008</v>
       </c>
       <c r="BI27">
         <v>58805</v>
       </c>
       <c r="BJ27" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="BK27" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="BL27">
         <v>0</v>
@@ -6748,49 +6778,49 @@
     </row>
     <row r="28" spans="1:65">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E28" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F28">
-        <v>3.8</v>
+        <v>1.92</v>
       </c>
       <c r="G28">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="H28">
-        <v>1.71</v>
+        <v>2.98</v>
       </c>
       <c r="I28">
-        <v>2.68</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J28">
-        <v>2.76</v>
+        <v>2.66</v>
       </c>
       <c r="K28">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="L28">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="M28">
-        <v>1.73</v>
+        <v>1000</v>
       </c>
       <c r="N28">
-        <v>2.38</v>
+        <v>1.01</v>
       </c>
       <c r="O28">
-        <v>3.85</v>
+        <v>6</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -6919,22 +6949,22 @@
         <v>0</v>
       </c>
       <c r="BF28" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="BG28">
-        <v>669343</v>
+        <v>10572628</v>
       </c>
       <c r="BH28">
-        <v>8720753</v>
+        <v>70467</v>
       </c>
       <c r="BI28">
         <v>58805</v>
       </c>
       <c r="BJ28" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="BK28" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="BL28">
         <v>0</v>
@@ -6948,46 +6978,46 @@
         <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E29" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F29">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="G29">
-        <v>18</v>
+        <v>8.6</v>
       </c>
       <c r="H29">
-        <v>2.12</v>
+        <v>1.77</v>
       </c>
       <c r="I29">
-        <v>1000</v>
+        <v>2.66</v>
       </c>
       <c r="J29">
-        <v>1.27</v>
+        <v>2.78</v>
       </c>
       <c r="K29">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="L29">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="M29">
-        <v>1000</v>
+        <v>1.62</v>
       </c>
       <c r="N29">
-        <v>1.01</v>
+        <v>2.62</v>
       </c>
       <c r="O29">
-        <v>6.4</v>
+        <v>3.8</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -7116,22 +7146,22 @@
         <v>0</v>
       </c>
       <c r="BF29" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="BG29">
-        <v>148734</v>
+        <v>669343</v>
       </c>
       <c r="BH29">
-        <v>49205</v>
+        <v>8720753</v>
       </c>
       <c r="BI29">
         <v>58805</v>
       </c>
       <c r="BJ29" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="BK29" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="BL29">
         <v>0</v>
@@ -7145,34 +7175,34 @@
         <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F30">
-        <v>3.15</v>
+        <v>1.2</v>
       </c>
       <c r="G30">
-        <v>3.2</v>
+        <v>18</v>
       </c>
       <c r="H30">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="I30">
-        <v>2.26</v>
+        <v>1000</v>
       </c>
       <c r="J30">
-        <v>4.1</v>
+        <v>1.33</v>
       </c>
       <c r="K30">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="L30">
         <v>1.2</v>
@@ -7313,22 +7343,22 @@
         <v>0</v>
       </c>
       <c r="BF30" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="BG30">
-        <v>18559</v>
+        <v>148734</v>
       </c>
       <c r="BH30">
-        <v>18563</v>
+        <v>49205</v>
       </c>
       <c r="BI30">
         <v>58805</v>
       </c>
       <c r="BJ30" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="BK30" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="BL30">
         <v>0</v>
@@ -7339,49 +7369,49 @@
     </row>
     <row r="31" spans="1:65">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E31" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F31">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="G31">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="H31">
-        <v>2.44</v>
+        <v>2.24</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>2.28</v>
       </c>
       <c r="J31">
-        <v>2.68</v>
+        <v>3.95</v>
       </c>
       <c r="K31">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L31">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="M31">
-        <v>2.2</v>
+        <v>1000</v>
       </c>
       <c r="N31">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="O31">
-        <v>3.85</v>
+        <v>6.4</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -7510,22 +7540,22 @@
         <v>0</v>
       </c>
       <c r="BF31" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="BG31">
-        <v>256400</v>
+        <v>18559</v>
       </c>
       <c r="BH31">
-        <v>49584</v>
+        <v>18563</v>
       </c>
       <c r="BI31">
         <v>58805</v>
       </c>
       <c r="BJ31" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="BK31" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="BL31">
         <v>0</v>
@@ -7536,49 +7566,49 @@
     </row>
     <row r="32" spans="1:65">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E32" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F32">
-        <v>2.34</v>
+        <v>2.8</v>
       </c>
       <c r="G32">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="H32">
-        <v>3.05</v>
+        <v>2.48</v>
       </c>
       <c r="I32">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="J32">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="K32">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="L32">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="M32">
-        <v>1000</v>
+        <v>2.12</v>
       </c>
       <c r="N32">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="O32">
-        <v>6.4</v>
+        <v>3.45</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -7707,22 +7737,22 @@
         <v>0</v>
       </c>
       <c r="BF32" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="BG32">
-        <v>62647</v>
+        <v>256400</v>
       </c>
       <c r="BH32">
-        <v>48444</v>
+        <v>49584</v>
       </c>
       <c r="BI32">
         <v>58805</v>
       </c>
       <c r="BJ32" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="BK32" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="BL32">
         <v>0</v>
@@ -7733,49 +7763,49 @@
     </row>
     <row r="33" spans="1:65">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E33" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>2.34</v>
       </c>
       <c r="G33">
-        <v>26</v>
+        <v>3.65</v>
       </c>
       <c r="H33">
-        <v>1.59</v>
+        <v>3.05</v>
       </c>
       <c r="I33">
-        <v>5.9</v>
+        <v>3.15</v>
       </c>
       <c r="J33">
-        <v>3.05</v>
+        <v>2.52</v>
       </c>
       <c r="K33">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="L33">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="M33">
-        <v>1.69</v>
+        <v>1000</v>
       </c>
       <c r="N33">
-        <v>2.46</v>
+        <v>1.01</v>
       </c>
       <c r="O33">
-        <v>2.82</v>
+        <v>6.4</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -7904,22 +7934,22 @@
         <v>0</v>
       </c>
       <c r="BF33" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="BG33">
-        <v>44801</v>
+        <v>62647</v>
       </c>
       <c r="BH33">
-        <v>473963</v>
+        <v>48444</v>
       </c>
       <c r="BI33">
         <v>58805</v>
       </c>
       <c r="BJ33" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="BK33" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="BL33">
         <v>0</v>
@@ -7930,49 +7960,49 @@
     </row>
     <row r="34" spans="1:65">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
         <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E34" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F34">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="G34">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="H34">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I34">
-        <v>3.6</v>
+        <v>5.6</v>
       </c>
       <c r="J34">
-        <v>3.9</v>
+        <v>2.94</v>
       </c>
       <c r="K34">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="L34">
-        <v>2.58</v>
+        <v>1.35</v>
       </c>
       <c r="M34">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="N34">
-        <v>1.59</v>
+        <v>1.9</v>
       </c>
       <c r="O34">
-        <v>1.64</v>
+        <v>3.8</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -8101,22 +8131,22 @@
         <v>0</v>
       </c>
       <c r="BF34" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="BG34">
-        <v>48461</v>
+        <v>44801</v>
       </c>
       <c r="BH34">
-        <v>58943</v>
+        <v>473963</v>
       </c>
       <c r="BI34">
         <v>58805</v>
       </c>
       <c r="BJ34" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="BK34" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="BL34">
         <v>0</v>
@@ -8130,196 +8160,196 @@
         <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E35" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F35">
-        <v>1.57</v>
+        <v>2.16</v>
       </c>
       <c r="G35">
-        <v>1.58</v>
+        <v>2.18</v>
       </c>
       <c r="H35">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="I35">
-        <v>6.2</v>
+        <v>3.6</v>
       </c>
       <c r="J35">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="K35">
-        <v>5</v>
+        <v>3.95</v>
       </c>
       <c r="L35">
-        <v>2.84</v>
+        <v>2.58</v>
       </c>
       <c r="M35">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="N35">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="O35">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="P35">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="S35">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="T35">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="U35">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="V35">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="W35">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="Y35">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AB35">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC35">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AD35">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AE35">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AF35">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AG35">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AH35">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AI35">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AJ35">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AK35">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AL35">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AM35">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AN35">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AO35">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AP35">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AQ35">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AR35">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AS35">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AT35">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AU35">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AV35">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AW35">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AX35">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AY35">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AZ35">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="BA35">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="BB35">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="BC35">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="BD35">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="BE35">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="BF35" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="BG35">
-        <v>1096</v>
+        <v>48461</v>
       </c>
       <c r="BH35">
-        <v>55190</v>
+        <v>58943</v>
       </c>
       <c r="BI35">
         <v>58805</v>
       </c>
       <c r="BJ35" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="BK35" t="s">
-        <v>311</v>
-      </c>
-      <c r="BL35" t="s">
-        <v>324</v>
-      </c>
-      <c r="BM35" t="s">
-        <v>337</v>
+        <v>316</v>
+      </c>
+      <c r="BL35">
+        <v>0</v>
+      </c>
+      <c r="BM35">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:65">
@@ -8327,196 +8357,196 @@
         <v>77</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
         <v>90</v>
       </c>
       <c r="D36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E36" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F36">
-        <v>1.28</v>
+        <v>1.59</v>
       </c>
       <c r="G36">
-        <v>240</v>
+        <v>1.6</v>
       </c>
       <c r="H36">
-        <v>1.57</v>
+        <v>5.7</v>
       </c>
       <c r="I36">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="J36">
-        <v>2.56</v>
+        <v>5</v>
       </c>
       <c r="K36">
-        <v>940</v>
+        <v>5.1</v>
       </c>
       <c r="L36">
-        <v>1.27</v>
+        <v>2.84</v>
       </c>
       <c r="M36">
+        <v>3</v>
+      </c>
+      <c r="N36">
+        <v>1.5</v>
+      </c>
+      <c r="O36">
+        <v>1.54</v>
+      </c>
+      <c r="P36">
+        <v>1.63</v>
+      </c>
+      <c r="Q36">
+        <v>1.68</v>
+      </c>
+      <c r="R36">
+        <v>2.48</v>
+      </c>
+      <c r="S36">
+        <v>2.6</v>
+      </c>
+      <c r="T36">
+        <v>25</v>
+      </c>
+      <c r="U36">
+        <v>28</v>
+      </c>
+      <c r="V36">
+        <v>28</v>
+      </c>
+      <c r="W36">
+        <v>30</v>
+      </c>
+      <c r="X36">
+        <v>46</v>
+      </c>
+      <c r="Y36">
+        <v>60</v>
+      </c>
+      <c r="Z36">
+        <v>44</v>
+      </c>
+      <c r="AA36">
+        <v>150</v>
+      </c>
+      <c r="AB36">
+        <v>12.5</v>
+      </c>
+      <c r="AC36">
+        <v>13.5</v>
+      </c>
+      <c r="AD36">
+        <v>10.5</v>
+      </c>
+      <c r="AE36">
+        <v>11.5</v>
+      </c>
+      <c r="AF36">
         <v>21</v>
       </c>
-      <c r="N36">
-        <v>1.05</v>
-      </c>
-      <c r="O36">
-        <v>4.6</v>
-      </c>
-      <c r="P36">
-        <v>1.01</v>
-      </c>
-      <c r="Q36">
-        <v>1000</v>
-      </c>
-      <c r="R36">
-        <v>1.01</v>
-      </c>
-      <c r="S36">
-        <v>1000</v>
-      </c>
-      <c r="T36">
-        <v>1.45</v>
-      </c>
-      <c r="U36">
-        <v>1000</v>
-      </c>
-      <c r="V36">
-        <v>1.01</v>
-      </c>
-      <c r="W36">
-        <v>1000</v>
-      </c>
-      <c r="X36">
-        <v>1.01</v>
-      </c>
-      <c r="Y36">
-        <v>1000</v>
-      </c>
-      <c r="Z36">
-        <v>1.01</v>
-      </c>
-      <c r="AA36">
-        <v>1000</v>
-      </c>
-      <c r="AB36">
-        <v>1.01</v>
-      </c>
-      <c r="AC36">
-        <v>1000</v>
-      </c>
-      <c r="AD36">
-        <v>1.01</v>
-      </c>
-      <c r="AE36">
-        <v>1000</v>
-      </c>
-      <c r="AF36">
-        <v>1.01</v>
-      </c>
       <c r="AG36">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AH36">
-        <v>1.01</v>
+        <v>48</v>
       </c>
       <c r="AI36">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ36">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="AK36">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AL36">
-        <v>1.01</v>
+        <v>9.6</v>
       </c>
       <c r="AM36">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AN36">
-        <v>1.01</v>
+        <v>16.5</v>
       </c>
       <c r="AO36">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AP36">
-        <v>1.01</v>
+        <v>46</v>
       </c>
       <c r="AQ36">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AR36">
-        <v>1.01</v>
+        <v>14.5</v>
       </c>
       <c r="AS36">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AT36">
-        <v>1.01</v>
+        <v>12.5</v>
       </c>
       <c r="AU36">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AV36">
-        <v>1.01</v>
+        <v>22</v>
       </c>
       <c r="AW36">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AX36">
-        <v>1.01</v>
+        <v>50</v>
       </c>
       <c r="AY36">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AZ36">
-        <v>1.01</v>
+        <v>5.1</v>
       </c>
       <c r="BA36">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="BB36">
-        <v>1.01</v>
+        <v>28</v>
       </c>
       <c r="BC36">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="BD36">
-        <v>1.01</v>
+        <v>160</v>
       </c>
       <c r="BE36">
         <v>1000</v>
       </c>
       <c r="BF36" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="BG36">
-        <v>5271439</v>
+        <v>1096</v>
       </c>
       <c r="BH36">
-        <v>10901767</v>
+        <v>55190</v>
       </c>
       <c r="BI36">
         <v>58805</v>
       </c>
       <c r="BJ36" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="BK36" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="BL36" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="BM36" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
     </row>
     <row r="37" spans="1:65">
@@ -8524,34 +8554,34 @@
         <v>78</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E37" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F37">
-        <v>3.9</v>
+        <v>1.34</v>
       </c>
       <c r="G37">
-        <v>10.5</v>
+        <v>240</v>
       </c>
       <c r="H37">
-        <v>1.83</v>
+        <v>1.59</v>
       </c>
       <c r="I37">
-        <v>1.85</v>
+        <v>1000</v>
       </c>
       <c r="J37">
-        <v>2.82</v>
+        <v>2.68</v>
       </c>
       <c r="K37">
-        <v>4.9</v>
+        <v>940</v>
       </c>
       <c r="L37">
         <v>1.27</v>
@@ -8578,7 +8608,7 @@
         <v>1000</v>
       </c>
       <c r="T37">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="U37">
         <v>1000</v>
@@ -8692,72 +8722,72 @@
         <v>1000</v>
       </c>
       <c r="BF37" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="BG37">
-        <v>3738659</v>
+        <v>5271439</v>
       </c>
       <c r="BH37">
-        <v>220949</v>
+        <v>10901767</v>
       </c>
       <c r="BI37">
         <v>58805</v>
       </c>
       <c r="BJ37" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="BK37" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="BL37" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="BM37" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38" spans="1:65">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E38" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F38">
-        <v>1.67</v>
+        <v>3.9</v>
       </c>
       <c r="G38">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="H38">
-        <v>1.61</v>
+        <v>1.83</v>
       </c>
       <c r="I38">
-        <v>240</v>
+        <v>1.85</v>
       </c>
       <c r="J38">
-        <v>1.61</v>
+        <v>2.82</v>
       </c>
       <c r="K38">
-        <v>940</v>
+        <v>4.9</v>
       </c>
       <c r="L38">
         <v>1.27</v>
       </c>
       <c r="M38">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="N38">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="O38">
         <v>4.6</v>
@@ -8775,7 +8805,7 @@
         <v>1000</v>
       </c>
       <c r="T38">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="U38">
         <v>1000</v>
@@ -8889,28 +8919,28 @@
         <v>1000</v>
       </c>
       <c r="BF38" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="BG38">
-        <v>194509</v>
+        <v>3738659</v>
       </c>
       <c r="BH38">
-        <v>198134</v>
+        <v>220949</v>
       </c>
       <c r="BI38">
         <v>58805</v>
       </c>
       <c r="BJ38" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="BK38" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="BL38" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="BM38" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39" spans="1:65">
@@ -8918,437 +8948,437 @@
         <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
         <v>91</v>
       </c>
       <c r="D39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E39" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F39">
-        <v>2.6</v>
+        <v>1.67</v>
       </c>
       <c r="G39">
-        <v>2.94</v>
+        <v>980</v>
       </c>
       <c r="H39">
-        <v>2.84</v>
+        <v>1.61</v>
       </c>
       <c r="I39">
-        <v>3.25</v>
+        <v>240</v>
       </c>
       <c r="J39">
-        <v>2.98</v>
+        <v>1.61</v>
       </c>
       <c r="K39">
-        <v>3.3</v>
+        <v>940</v>
       </c>
       <c r="L39">
-        <v>1.55</v>
+        <v>1.27</v>
       </c>
       <c r="M39">
-        <v>1.71</v>
+        <v>15.5</v>
       </c>
       <c r="N39">
-        <v>2.4</v>
+        <v>1.07</v>
       </c>
       <c r="O39">
-        <v>2.82</v>
+        <v>4.6</v>
       </c>
       <c r="P39">
-        <v>1.97</v>
+        <v>1.01</v>
       </c>
       <c r="Q39">
-        <v>2.32</v>
+        <v>1000</v>
       </c>
       <c r="R39">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="S39">
-        <v>2.04</v>
+        <v>1000</v>
       </c>
       <c r="T39">
-        <v>7.2</v>
+        <v>1.01</v>
       </c>
       <c r="U39">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="V39">
-        <v>7.8</v>
+        <v>1.01</v>
       </c>
       <c r="W39">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="X39">
-        <v>5.4</v>
+        <v>1.01</v>
       </c>
       <c r="Y39">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z39">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="AA39">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB39">
-        <v>7.2</v>
+        <v>1.01</v>
       </c>
       <c r="AC39">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD39">
-        <v>6</v>
+        <v>1.01</v>
       </c>
       <c r="AE39">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AF39">
-        <v>11.5</v>
+        <v>1.01</v>
       </c>
       <c r="AG39">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH39">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="AI39">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ39">
-        <v>13</v>
+        <v>1.01</v>
       </c>
       <c r="AK39">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL39">
-        <v>10.5</v>
+        <v>1.01</v>
       </c>
       <c r="AM39">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AN39">
-        <v>5.6</v>
+        <v>1.01</v>
       </c>
       <c r="AO39">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AP39">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="AQ39">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AR39">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="AS39">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AT39">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="AU39">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AV39">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="AW39">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AX39">
-        <v>7</v>
+        <v>1.01</v>
       </c>
       <c r="AY39">
         <v>1000</v>
       </c>
       <c r="AZ39">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="BA39">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BB39">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="BC39">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BD39">
-        <v>7.2</v>
+        <v>1.01</v>
       </c>
       <c r="BE39">
         <v>1000</v>
       </c>
       <c r="BF39" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BG39">
-        <v>6168045</v>
+        <v>194509</v>
       </c>
       <c r="BH39">
-        <v>2760854</v>
+        <v>198134</v>
       </c>
       <c r="BI39">
         <v>58805</v>
       </c>
       <c r="BJ39" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="BK39" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="BL39" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="BM39" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40" spans="1:65">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D40" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E40" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F40">
-        <v>1.3</v>
+        <v>2.58</v>
       </c>
       <c r="G40">
-        <v>2.4</v>
+        <v>2.94</v>
       </c>
       <c r="H40">
+        <v>2.84</v>
+      </c>
+      <c r="I40">
+        <v>3.25</v>
+      </c>
+      <c r="J40">
+        <v>2.88</v>
+      </c>
+      <c r="K40">
+        <v>3.3</v>
+      </c>
+      <c r="L40">
+        <v>1.55</v>
+      </c>
+      <c r="M40">
+        <v>1.73</v>
+      </c>
+      <c r="N40">
+        <v>2.38</v>
+      </c>
+      <c r="O40">
+        <v>2.82</v>
+      </c>
+      <c r="P40">
+        <v>1.97</v>
+      </c>
+      <c r="Q40">
         <v>2.32</v>
       </c>
-      <c r="I40">
+      <c r="R40">
+        <v>1.76</v>
+      </c>
+      <c r="S40">
+        <v>2.04</v>
+      </c>
+      <c r="T40">
+        <v>7.2</v>
+      </c>
+      <c r="U40">
+        <v>9.6</v>
+      </c>
+      <c r="V40">
+        <v>7.8</v>
+      </c>
+      <c r="W40">
+        <v>10.5</v>
+      </c>
+      <c r="X40">
+        <v>5.6</v>
+      </c>
+      <c r="Y40">
         <v>980</v>
       </c>
-      <c r="J40">
-        <v>2.1</v>
-      </c>
-      <c r="K40">
-        <v>940</v>
-      </c>
-      <c r="L40">
-        <v>1.27</v>
-      </c>
-      <c r="M40">
-        <v>26</v>
-      </c>
-      <c r="N40">
-        <v>1.04</v>
-      </c>
-      <c r="O40">
-        <v>4.6</v>
-      </c>
-      <c r="P40">
-        <v>1.01</v>
-      </c>
-      <c r="Q40">
-        <v>1000</v>
-      </c>
-      <c r="R40">
-        <v>1.01</v>
-      </c>
-      <c r="S40">
-        <v>1000</v>
-      </c>
-      <c r="T40">
-        <v>1.46</v>
-      </c>
-      <c r="U40">
-        <v>1000</v>
-      </c>
-      <c r="V40">
-        <v>1.01</v>
-      </c>
-      <c r="W40">
-        <v>1000</v>
-      </c>
-      <c r="X40">
-        <v>1.01</v>
-      </c>
-      <c r="Y40">
-        <v>1000</v>
-      </c>
       <c r="Z40">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="AA40">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB40">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="AC40">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD40">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="AE40">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AF40">
-        <v>1.01</v>
+        <v>11.5</v>
       </c>
       <c r="AG40">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH40">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="AI40">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ40">
-        <v>1.01</v>
+        <v>5.2</v>
       </c>
       <c r="AK40">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL40">
-        <v>1.01</v>
+        <v>5</v>
       </c>
       <c r="AM40">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN40">
-        <v>1.01</v>
+        <v>5.4</v>
       </c>
       <c r="AO40">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP40">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="AQ40">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR40">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="AS40">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT40">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="AU40">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV40">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="AW40">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX40">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="AY40">
         <v>1000</v>
       </c>
       <c r="AZ40">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="BA40">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB40">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="BC40">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD40">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="BE40">
         <v>1000</v>
       </c>
       <c r="BF40" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="BG40">
-        <v>361329</v>
+        <v>6168045</v>
       </c>
       <c r="BH40">
-        <v>328191</v>
+        <v>2760854</v>
       </c>
       <c r="BI40">
         <v>58805</v>
       </c>
       <c r="BJ40" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="BK40" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="BL40" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="BM40" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41" spans="1:65">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D41" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E41" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F41">
-        <v>2.68</v>
+        <v>1.3</v>
       </c>
       <c r="G41">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="H41">
-        <v>2.04</v>
+        <v>2.32</v>
       </c>
       <c r="I41">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="J41">
-        <v>2.74</v>
+        <v>2.1</v>
       </c>
       <c r="K41">
-        <v>7.4</v>
+        <v>940</v>
       </c>
       <c r="L41">
         <v>1.27</v>
       </c>
       <c r="M41">
-        <v>15.5</v>
+        <v>26</v>
       </c>
       <c r="N41">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="O41">
         <v>4.6</v>
@@ -9366,7 +9396,7 @@
         <v>1000</v>
       </c>
       <c r="T41">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="U41">
         <v>1000</v>
@@ -9480,72 +9510,72 @@
         <v>1000</v>
       </c>
       <c r="BF41" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="BG41">
-        <v>5789820</v>
+        <v>361329</v>
       </c>
       <c r="BH41">
-        <v>194503</v>
+        <v>328191</v>
       </c>
       <c r="BI41">
         <v>58805</v>
       </c>
       <c r="BJ41" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="BK41" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="BL41" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="BM41" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" spans="1:65">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E42" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F42">
-        <v>2.22</v>
+        <v>2.68</v>
       </c>
       <c r="G42">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="H42">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="I42">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c r="J42">
-        <v>1.81</v>
+        <v>2.74</v>
       </c>
       <c r="K42">
-        <v>3.9</v>
+        <v>7.4</v>
       </c>
       <c r="L42">
         <v>1.27</v>
       </c>
       <c r="M42">
-        <v>26</v>
+        <v>15.5</v>
       </c>
       <c r="N42">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="O42">
         <v>4.6</v>
@@ -9563,7 +9593,7 @@
         <v>1000</v>
       </c>
       <c r="T42">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="U42">
         <v>1000</v>
@@ -9677,72 +9707,72 @@
         <v>1000</v>
       </c>
       <c r="BF42" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="BG42">
-        <v>12104874</v>
+        <v>5789820</v>
       </c>
       <c r="BH42">
-        <v>5327095</v>
+        <v>194503</v>
       </c>
       <c r="BI42">
         <v>58805</v>
       </c>
       <c r="BJ42" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="BK42" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="BL42" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="BM42" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
     </row>
     <row r="43" spans="1:65">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E43" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F43">
-        <v>1.56</v>
+        <v>2.22</v>
       </c>
       <c r="G43">
-        <v>1.59</v>
+        <v>3.95</v>
       </c>
       <c r="H43">
-        <v>4.2</v>
+        <v>2.02</v>
       </c>
       <c r="I43">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="J43">
-        <v>3.4</v>
+        <v>2.04</v>
       </c>
       <c r="K43">
-        <v>9.199999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="L43">
         <v>1.27</v>
       </c>
       <c r="M43">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="N43">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="O43">
         <v>4.6</v>
@@ -9760,7 +9790,7 @@
         <v>1000</v>
       </c>
       <c r="T43">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="U43">
         <v>1000</v>
@@ -9874,28 +9904,28 @@
         <v>1000</v>
       </c>
       <c r="BF43" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="BG43">
-        <v>9610998</v>
+        <v>12104874</v>
       </c>
       <c r="BH43">
-        <v>5885611</v>
+        <v>5327095</v>
       </c>
       <c r="BI43">
         <v>58805</v>
       </c>
       <c r="BJ43" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="BK43" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="BL43" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="BM43" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
     </row>
     <row r="44" spans="1:65">
@@ -9903,43 +9933,43 @@
         <v>78</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
         <v>92</v>
       </c>
       <c r="D44" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E44" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F44">
-        <v>1.16</v>
+        <v>1.56</v>
       </c>
       <c r="G44">
-        <v>1.79</v>
+        <v>1.59</v>
       </c>
       <c r="H44">
-        <v>3.35</v>
+        <v>4.2</v>
       </c>
       <c r="I44">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="J44">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K44">
-        <v>210</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L44">
         <v>1.27</v>
       </c>
       <c r="M44">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="N44">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="O44">
         <v>4.6</v>
@@ -9957,7 +9987,7 @@
         <v>1000</v>
       </c>
       <c r="T44">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="U44">
         <v>1000</v>
@@ -10071,72 +10101,72 @@
         <v>1000</v>
       </c>
       <c r="BF44" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="BG44">
-        <v>330239</v>
+        <v>9610998</v>
       </c>
       <c r="BH44">
-        <v>219457</v>
+        <v>5885611</v>
       </c>
       <c r="BI44">
         <v>58805</v>
       </c>
       <c r="BJ44" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="BK44" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="BL44" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="BM44" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45" spans="1:65">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D45" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E45" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F45">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="G45">
+        <v>1.79</v>
+      </c>
+      <c r="H45">
+        <v>3.35</v>
+      </c>
+      <c r="I45">
         <v>980</v>
       </c>
-      <c r="H45">
-        <v>1.75</v>
-      </c>
-      <c r="I45">
-        <v>8.800000000000001</v>
-      </c>
       <c r="J45">
-        <v>2.24</v>
+        <v>3.6</v>
       </c>
       <c r="K45">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="L45">
         <v>1.27</v>
       </c>
       <c r="M45">
-        <v>15.5</v>
+        <v>36</v>
       </c>
       <c r="N45">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="O45">
         <v>4.6</v>
@@ -10154,7 +10184,7 @@
         <v>1000</v>
       </c>
       <c r="T45">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="U45">
         <v>1000</v>
@@ -10268,28 +10298,28 @@
         <v>1000</v>
       </c>
       <c r="BF45" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="BG45">
-        <v>453739</v>
+        <v>330239</v>
       </c>
       <c r="BH45">
-        <v>198136</v>
+        <v>219457</v>
       </c>
       <c r="BI45">
         <v>58805</v>
       </c>
       <c r="BJ45" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="BK45" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="BL45" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="BM45" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46" spans="1:65">
@@ -10297,43 +10327,43 @@
         <v>78</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
         <v>93</v>
       </c>
       <c r="D46" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E46" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F46">
-        <v>1.04</v>
+        <v>1.31</v>
       </c>
       <c r="G46">
         <v>980</v>
       </c>
       <c r="H46">
-        <v>1.04</v>
+        <v>1.81</v>
       </c>
       <c r="I46">
-        <v>240</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J46">
-        <v>1.7</v>
+        <v>2.36</v>
       </c>
       <c r="K46">
-        <v>940</v>
+        <v>200</v>
       </c>
       <c r="L46">
         <v>1.27</v>
       </c>
       <c r="M46">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="N46">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="O46">
         <v>4.6</v>
@@ -10351,7 +10381,7 @@
         <v>1000</v>
       </c>
       <c r="T46">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="U46">
         <v>1000</v>
@@ -10465,72 +10495,72 @@
         <v>1000</v>
       </c>
       <c r="BF46" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="BG46">
-        <v>22018255</v>
+        <v>453739</v>
       </c>
       <c r="BH46">
-        <v>474678</v>
+        <v>198136</v>
       </c>
       <c r="BI46">
         <v>58805</v>
       </c>
       <c r="BJ46" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="BK46" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="BL46" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="BM46" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="47" spans="1:65">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D47" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E47" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F47">
         <v>1.04</v>
       </c>
       <c r="G47">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="H47">
         <v>1.04</v>
       </c>
       <c r="I47">
-        <v>990</v>
+        <v>240</v>
       </c>
       <c r="J47">
-        <v>1.13</v>
+        <v>1.7</v>
       </c>
       <c r="K47">
-        <v>210</v>
+        <v>940</v>
       </c>
       <c r="L47">
         <v>1.27</v>
       </c>
       <c r="M47">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="N47">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="O47">
         <v>4.6</v>
@@ -10662,28 +10692,225 @@
         <v>1000</v>
       </c>
       <c r="BF47" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="BG47">
-        <v>5615116</v>
+        <v>22018255</v>
       </c>
       <c r="BH47">
-        <v>7005170</v>
+        <v>474678</v>
       </c>
       <c r="BI47">
         <v>58805</v>
       </c>
       <c r="BJ47" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="BK47" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="BL47" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="BM47" t="s">
-        <v>349</v>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="48" spans="1:65">
+      <c r="A48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" t="s">
+        <v>141</v>
+      </c>
+      <c r="E48" t="s">
+        <v>188</v>
+      </c>
+      <c r="F48">
+        <v>1.04</v>
+      </c>
+      <c r="G48">
+        <v>990</v>
+      </c>
+      <c r="H48">
+        <v>1.04</v>
+      </c>
+      <c r="I48">
+        <v>990</v>
+      </c>
+      <c r="J48">
+        <v>1.13</v>
+      </c>
+      <c r="K48">
+        <v>210</v>
+      </c>
+      <c r="L48">
+        <v>1.27</v>
+      </c>
+      <c r="M48">
+        <v>15.5</v>
+      </c>
+      <c r="N48">
+        <v>1.07</v>
+      </c>
+      <c r="O48">
+        <v>4.6</v>
+      </c>
+      <c r="P48">
+        <v>1.01</v>
+      </c>
+      <c r="Q48">
+        <v>1000</v>
+      </c>
+      <c r="R48">
+        <v>1.01</v>
+      </c>
+      <c r="S48">
+        <v>1000</v>
+      </c>
+      <c r="T48">
+        <v>1.01</v>
+      </c>
+      <c r="U48">
+        <v>1000</v>
+      </c>
+      <c r="V48">
+        <v>1.01</v>
+      </c>
+      <c r="W48">
+        <v>1000</v>
+      </c>
+      <c r="X48">
+        <v>1.01</v>
+      </c>
+      <c r="Y48">
+        <v>1000</v>
+      </c>
+      <c r="Z48">
+        <v>1.01</v>
+      </c>
+      <c r="AA48">
+        <v>1000</v>
+      </c>
+      <c r="AB48">
+        <v>1.01</v>
+      </c>
+      <c r="AC48">
+        <v>1000</v>
+      </c>
+      <c r="AD48">
+        <v>1.01</v>
+      </c>
+      <c r="AE48">
+        <v>1000</v>
+      </c>
+      <c r="AF48">
+        <v>1.01</v>
+      </c>
+      <c r="AG48">
+        <v>1000</v>
+      </c>
+      <c r="AH48">
+        <v>1.01</v>
+      </c>
+      <c r="AI48">
+        <v>1000</v>
+      </c>
+      <c r="AJ48">
+        <v>1.01</v>
+      </c>
+      <c r="AK48">
+        <v>1000</v>
+      </c>
+      <c r="AL48">
+        <v>1.01</v>
+      </c>
+      <c r="AM48">
+        <v>1000</v>
+      </c>
+      <c r="AN48">
+        <v>1.01</v>
+      </c>
+      <c r="AO48">
+        <v>1000</v>
+      </c>
+      <c r="AP48">
+        <v>1.01</v>
+      </c>
+      <c r="AQ48">
+        <v>1000</v>
+      </c>
+      <c r="AR48">
+        <v>1.01</v>
+      </c>
+      <c r="AS48">
+        <v>1000</v>
+      </c>
+      <c r="AT48">
+        <v>1.01</v>
+      </c>
+      <c r="AU48">
+        <v>1000</v>
+      </c>
+      <c r="AV48">
+        <v>1.01</v>
+      </c>
+      <c r="AW48">
+        <v>1000</v>
+      </c>
+      <c r="AX48">
+        <v>1.01</v>
+      </c>
+      <c r="AY48">
+        <v>1000</v>
+      </c>
+      <c r="AZ48">
+        <v>1.01</v>
+      </c>
+      <c r="BA48">
+        <v>1000</v>
+      </c>
+      <c r="BB48">
+        <v>1.01</v>
+      </c>
+      <c r="BC48">
+        <v>1000</v>
+      </c>
+      <c r="BD48">
+        <v>1.01</v>
+      </c>
+      <c r="BE48">
+        <v>1000</v>
+      </c>
+      <c r="BF48" t="s">
+        <v>235</v>
+      </c>
+      <c r="BG48">
+        <v>5615116</v>
+      </c>
+      <c r="BH48">
+        <v>7005170</v>
+      </c>
+      <c r="BI48">
+        <v>58805</v>
+      </c>
+      <c r="BJ48" t="s">
+        <v>282</v>
+      </c>
+      <c r="BK48" t="s">
+        <v>329</v>
+      </c>
+      <c r="BL48" t="s">
+        <v>344</v>
+      </c>
+      <c r="BM48" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-23.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="424">
   <si>
     <t>League</t>
   </si>
@@ -682,6 +682,9 @@
     <t>33210073</t>
   </si>
   <si>
+    <t>33199074</t>
+  </si>
+  <si>
     <t>33190616</t>
   </si>
   <si>
@@ -820,6 +823,9 @@
     <t>1.227897948</t>
   </si>
   <si>
+    <t>1.227722148</t>
+  </si>
+  <si>
     <t>1.227567636</t>
   </si>
   <si>
@@ -958,6 +964,9 @@
     <t>1.227897993</t>
   </si>
   <si>
+    <t>1.227722158</t>
+  </si>
+  <si>
     <t>1.227567575</t>
   </si>
   <si>
@@ -1096,6 +1105,9 @@
     <t>1.227898032</t>
   </si>
   <si>
+    <t>1.227722147</t>
+  </si>
+  <si>
     <t>1.227567635</t>
   </si>
   <si>
@@ -1232,6 +1244,9 @@
   </si>
   <si>
     <t>1.227897957</t>
+  </si>
+  <si>
+    <t>1.227722157</t>
   </si>
   <si>
     <t>1.227567646</t>
@@ -1866,16 +1881,16 @@
         <v>6.6</v>
       </c>
       <c r="L2">
-        <v>1.2</v>
+        <v>1.46</v>
       </c>
       <c r="M2">
-        <v>7.6</v>
+        <v>2.48</v>
       </c>
       <c r="N2">
-        <v>1.15</v>
+        <v>1.67</v>
       </c>
       <c r="O2">
-        <v>6</v>
+        <v>3.15</v>
       </c>
       <c r="P2">
         <v>1.12</v>
@@ -1896,7 +1911,7 @@
         <v>1000</v>
       </c>
       <c r="V2">
-        <v>2.62</v>
+        <v>1.01</v>
       </c>
       <c r="W2">
         <v>1000</v>
@@ -1920,13 +1935,13 @@
         <v>1000</v>
       </c>
       <c r="AD2">
+        <v>3.35</v>
+      </c>
+      <c r="AE2">
+        <v>1000</v>
+      </c>
+      <c r="AF2">
         <v>1.01</v>
-      </c>
-      <c r="AE2">
-        <v>1000</v>
-      </c>
-      <c r="AF2">
-        <v>5.4</v>
       </c>
       <c r="AG2">
         <v>1000</v>
@@ -1938,13 +1953,13 @@
         <v>1000</v>
       </c>
       <c r="AJ2">
+        <v>3</v>
+      </c>
+      <c r="AK2">
+        <v>1000</v>
+      </c>
+      <c r="AL2">
         <v>1.01</v>
-      </c>
-      <c r="AK2">
-        <v>1000</v>
-      </c>
-      <c r="AL2">
-        <v>3.15</v>
       </c>
       <c r="AM2">
         <v>1000</v>
@@ -1962,7 +1977,7 @@
         <v>1000</v>
       </c>
       <c r="AR2">
-        <v>1.01</v>
+        <v>3.5</v>
       </c>
       <c r="AS2">
         <v>1000</v>
@@ -1974,13 +1989,13 @@
         <v>1000</v>
       </c>
       <c r="AV2">
-        <v>14.5</v>
+        <v>1.01</v>
       </c>
       <c r="AW2">
         <v>1000</v>
       </c>
       <c r="AX2">
-        <v>9.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="AY2">
         <v>1000</v>
@@ -2016,16 +2031,16 @@
         <v>58805</v>
       </c>
       <c r="BJ2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BK2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="BL2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="BM2" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -2213,16 +2228,16 @@
         <v>58805</v>
       </c>
       <c r="BJ3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BK3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="BL3" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="BM3" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -2284,31 +2299,31 @@
         <v>3.2</v>
       </c>
       <c r="T4">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="U4">
         <v>980</v>
       </c>
       <c r="V4">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="W4">
         <v>980</v>
       </c>
       <c r="X4">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Y4">
         <v>1000</v>
       </c>
       <c r="Z4">
-        <v>4.1</v>
+        <v>1.59</v>
       </c>
       <c r="AA4">
         <v>1000</v>
       </c>
       <c r="AB4">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="AC4">
         <v>980</v>
@@ -2326,73 +2341,73 @@
         <v>980</v>
       </c>
       <c r="AH4">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="AI4">
         <v>1000</v>
       </c>
       <c r="AJ4">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="AK4">
         <v>21</v>
       </c>
       <c r="AL4">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="AM4">
         <v>980</v>
       </c>
       <c r="AN4">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="AO4">
         <v>980</v>
       </c>
       <c r="AP4">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AQ4">
         <v>1000</v>
       </c>
       <c r="AR4">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AS4">
         <v>1000</v>
       </c>
       <c r="AT4">
-        <v>1.3</v>
+        <v>1.53</v>
       </c>
       <c r="AU4">
         <v>36</v>
       </c>
       <c r="AV4">
-        <v>1.35</v>
+        <v>1.59</v>
       </c>
       <c r="AW4">
         <v>1000</v>
       </c>
       <c r="AX4">
-        <v>1.33</v>
+        <v>1.51</v>
       </c>
       <c r="AY4">
         <v>1000</v>
       </c>
       <c r="AZ4">
-        <v>1.35</v>
+        <v>1.59</v>
       </c>
       <c r="BA4">
         <v>1000</v>
       </c>
       <c r="BB4">
-        <v>1.35</v>
+        <v>1.59</v>
       </c>
       <c r="BC4">
         <v>26</v>
       </c>
       <c r="BD4">
-        <v>1.3</v>
+        <v>3.35</v>
       </c>
       <c r="BE4">
         <v>1000</v>
@@ -2410,16 +2425,16 @@
         <v>58805</v>
       </c>
       <c r="BJ4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="BK4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="BL4" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="BM4" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:65">
@@ -2493,13 +2508,13 @@
         <v>15</v>
       </c>
       <c r="X5">
-        <v>3.95</v>
+        <v>13</v>
       </c>
       <c r="Y5">
         <v>22</v>
       </c>
       <c r="Z5">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="AA5">
         <v>46</v>
@@ -2523,7 +2538,7 @@
         <v>15</v>
       </c>
       <c r="AH5">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="AI5">
         <v>34</v>
@@ -2565,7 +2580,7 @@
         <v>38</v>
       </c>
       <c r="AV5">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="AW5">
         <v>50</v>
@@ -2607,16 +2622,16 @@
         <v>58805</v>
       </c>
       <c r="BJ5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BK5" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="BL5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="BM5" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:65">
@@ -2684,67 +2699,67 @@
         <v>1000</v>
       </c>
       <c r="V6">
-        <v>2.32</v>
+        <v>2.9</v>
       </c>
       <c r="W6">
         <v>1000</v>
       </c>
       <c r="X6">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="Y6">
         <v>1000</v>
       </c>
       <c r="Z6">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="AA6">
         <v>1000</v>
       </c>
       <c r="AB6">
-        <v>2.54</v>
+        <v>2.34</v>
       </c>
       <c r="AC6">
         <v>1000</v>
       </c>
       <c r="AD6">
+        <v>2.98</v>
+      </c>
+      <c r="AE6">
+        <v>1000</v>
+      </c>
+      <c r="AF6">
+        <v>4.5</v>
+      </c>
+      <c r="AG6">
+        <v>1000</v>
+      </c>
+      <c r="AH6">
+        <v>8.6</v>
+      </c>
+      <c r="AI6">
+        <v>1000</v>
+      </c>
+      <c r="AJ6">
         <v>2.94</v>
       </c>
-      <c r="AE6">
-        <v>1000</v>
-      </c>
-      <c r="AF6">
-        <v>4.1</v>
-      </c>
-      <c r="AG6">
-        <v>1000</v>
-      </c>
-      <c r="AH6">
-        <v>7.4</v>
-      </c>
-      <c r="AI6">
-        <v>1000</v>
-      </c>
-      <c r="AJ6">
-        <v>3.3</v>
-      </c>
       <c r="AK6">
         <v>1000</v>
       </c>
       <c r="AL6">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AM6">
         <v>1000</v>
       </c>
       <c r="AN6">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="AO6">
         <v>1000</v>
       </c>
       <c r="AP6">
-        <v>12.5</v>
+        <v>6.8</v>
       </c>
       <c r="AQ6">
         <v>1000</v>
@@ -2756,19 +2771,19 @@
         <v>1000</v>
       </c>
       <c r="AT6">
-        <v>8.199999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="AU6">
         <v>1000</v>
       </c>
       <c r="AV6">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AW6">
         <v>1000</v>
       </c>
       <c r="AX6">
-        <v>22</v>
+        <v>7.8</v>
       </c>
       <c r="AY6">
         <v>1000</v>
@@ -2804,16 +2819,16 @@
         <v>58805</v>
       </c>
       <c r="BJ6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="BK6" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="BL6" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="BM6" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:65">
@@ -3001,16 +3016,16 @@
         <v>58805</v>
       </c>
       <c r="BJ7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="BK7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="BL7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="BM7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:65">
@@ -3048,7 +3063,7 @@
         <v>3.2</v>
       </c>
       <c r="L8">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M8">
         <v>2.18</v>
@@ -3057,7 +3072,7 @@
         <v>1.84</v>
       </c>
       <c r="O8">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="P8">
         <v>1.12</v>
@@ -3198,16 +3213,16 @@
         <v>58805</v>
       </c>
       <c r="BJ8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BK8" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="BL8" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="BM8" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:65">
@@ -3257,7 +3272,7 @@
         <v>2.12</v>
       </c>
       <c r="P9">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3266,7 +3281,7 @@
         <v>2</v>
       </c>
       <c r="S9">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="T9">
         <v>11</v>
@@ -3395,16 +3410,16 @@
         <v>58805</v>
       </c>
       <c r="BJ9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="BK9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="BL9" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="BM9" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="10" spans="1:65">
@@ -3490,13 +3505,13 @@
         <v>1000</v>
       </c>
       <c r="AB10">
-        <v>1.01</v>
+        <v>2.72</v>
       </c>
       <c r="AC10">
         <v>1000</v>
       </c>
       <c r="AD10">
-        <v>1.01</v>
+        <v>2.94</v>
       </c>
       <c r="AE10">
         <v>1000</v>
@@ -3520,7 +3535,7 @@
         <v>1000</v>
       </c>
       <c r="AL10">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="AM10">
         <v>1000</v>
@@ -3532,13 +3547,13 @@
         <v>1000</v>
       </c>
       <c r="AP10">
-        <v>1.01</v>
+        <v>8</v>
       </c>
       <c r="AQ10">
         <v>1000</v>
       </c>
       <c r="AR10">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="AS10">
         <v>1000</v>
@@ -3550,7 +3565,7 @@
         <v>1000</v>
       </c>
       <c r="AV10">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="AW10">
         <v>1000</v>
@@ -3592,16 +3607,16 @@
         <v>58805</v>
       </c>
       <c r="BJ10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="BK10" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="BL10" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="BM10" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:65">
@@ -3705,13 +3720,13 @@
         <v>12</v>
       </c>
       <c r="AH11">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AI11">
         <v>30</v>
       </c>
       <c r="AJ11">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AK11">
         <v>32</v>
@@ -3789,16 +3804,16 @@
         <v>58805</v>
       </c>
       <c r="BJ11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="BK11" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="BL11" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="BM11" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:65">
@@ -3818,22 +3833,22 @@
         <v>152</v>
       </c>
       <c r="F12">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="H12">
-        <v>3.05</v>
+        <v>2.62</v>
       </c>
       <c r="I12">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="J12">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="K12">
-        <v>5.6</v>
+        <v>12</v>
       </c>
       <c r="L12">
         <v>1.2</v>
@@ -3986,16 +4001,16 @@
         <v>58805</v>
       </c>
       <c r="BJ12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="BK12" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="BL12" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="BM12" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:65">
@@ -4033,7 +4048,7 @@
         <v>950</v>
       </c>
       <c r="L13">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M13">
         <v>110</v>
@@ -4042,7 +4057,7 @@
         <v>1.38</v>
       </c>
       <c r="O13">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="P13">
         <v>1.12</v>
@@ -4063,13 +4078,13 @@
         <v>1000</v>
       </c>
       <c r="V13">
-        <v>2.64</v>
+        <v>2.82</v>
       </c>
       <c r="W13">
         <v>1000</v>
       </c>
       <c r="X13">
-        <v>2.8</v>
+        <v>2.98</v>
       </c>
       <c r="Y13">
         <v>1000</v>
@@ -4081,73 +4096,73 @@
         <v>1000</v>
       </c>
       <c r="AB13">
-        <v>2.86</v>
+        <v>2.3</v>
       </c>
       <c r="AC13">
         <v>1000</v>
       </c>
       <c r="AD13">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="AE13">
         <v>1000</v>
       </c>
       <c r="AF13">
-        <v>3.95</v>
+        <v>4.8</v>
       </c>
       <c r="AG13">
         <v>1000</v>
       </c>
       <c r="AH13">
-        <v>6.8</v>
+        <v>4.6</v>
       </c>
       <c r="AI13">
         <v>1000</v>
       </c>
       <c r="AJ13">
-        <v>2.74</v>
+        <v>3.3</v>
       </c>
       <c r="AK13">
         <v>1000</v>
       </c>
       <c r="AL13">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="AM13">
         <v>1000</v>
       </c>
       <c r="AN13">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="AO13">
         <v>1000</v>
       </c>
       <c r="AP13">
-        <v>16.5</v>
+        <v>7</v>
       </c>
       <c r="AQ13">
         <v>1000</v>
       </c>
       <c r="AR13">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="AS13">
         <v>1000</v>
       </c>
       <c r="AT13">
-        <v>8.199999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="AU13">
         <v>1000</v>
       </c>
       <c r="AV13">
-        <v>7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AW13">
         <v>1000</v>
       </c>
       <c r="AX13">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AY13">
         <v>1000</v>
@@ -4183,16 +4198,16 @@
         <v>58805</v>
       </c>
       <c r="BJ13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="BK13" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="BL13" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="BM13" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:65">
@@ -4212,34 +4227,34 @@
         <v>154</v>
       </c>
       <c r="F14">
-        <v>2.36</v>
+        <v>2.56</v>
       </c>
       <c r="G14">
         <v>3</v>
       </c>
       <c r="H14">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="I14">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="J14">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="K14">
-        <v>4.6</v>
+        <v>5.9</v>
       </c>
       <c r="L14">
-        <v>1.6</v>
+        <v>1.34</v>
       </c>
       <c r="M14">
-        <v>2.36</v>
+        <v>15.5</v>
       </c>
       <c r="N14">
-        <v>1.74</v>
+        <v>1.07</v>
       </c>
       <c r="O14">
-        <v>2.68</v>
+        <v>3.95</v>
       </c>
       <c r="P14">
         <v>1.12</v>
@@ -4260,13 +4275,13 @@
         <v>980</v>
       </c>
       <c r="V14">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="W14">
         <v>980</v>
       </c>
       <c r="X14">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="Y14">
         <v>1000</v>
@@ -4278,19 +4293,19 @@
         <v>1000</v>
       </c>
       <c r="AB14">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="AC14">
         <v>980</v>
       </c>
       <c r="AD14">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="AE14">
         <v>980</v>
       </c>
       <c r="AF14">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="AG14">
         <v>980</v>
@@ -4302,19 +4317,19 @@
         <v>1000</v>
       </c>
       <c r="AJ14">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="AK14">
         <v>1000</v>
       </c>
       <c r="AL14">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="AM14">
         <v>980</v>
       </c>
       <c r="AN14">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="AO14">
         <v>980</v>
@@ -4380,16 +4395,16 @@
         <v>58805</v>
       </c>
       <c r="BJ14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="BK14" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="BL14" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="BM14" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:65">
@@ -4424,7 +4439,7 @@
         <v>2.16</v>
       </c>
       <c r="K15">
-        <v>950</v>
+        <v>330</v>
       </c>
       <c r="L15">
         <v>1.2</v>
@@ -4577,16 +4592,16 @@
         <v>58805</v>
       </c>
       <c r="BJ15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="BK15" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BL15" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="BM15" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="16" spans="1:65">
@@ -4774,16 +4789,16 @@
         <v>58805</v>
       </c>
       <c r="BJ16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="BK16" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BL16" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="BM16" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:65">
@@ -4971,16 +4986,16 @@
         <v>58805</v>
       </c>
       <c r="BJ17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BK17" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="BL17" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="BM17" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:65">
@@ -5168,16 +5183,16 @@
         <v>58805</v>
       </c>
       <c r="BJ18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BK18" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="BL18" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="BM18" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="19" spans="1:65">
@@ -5365,16 +5380,16 @@
         <v>58805</v>
       </c>
       <c r="BJ19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BK19" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="BL19" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="BM19" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:65">
@@ -5562,16 +5577,16 @@
         <v>58805</v>
       </c>
       <c r="BJ20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BK20" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="BL20" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="BM20" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21" spans="1:65">
@@ -5759,16 +5774,16 @@
         <v>58805</v>
       </c>
       <c r="BJ21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BK21" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="BL21" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="BM21" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:65">
@@ -5797,34 +5812,34 @@
         <v>1.97</v>
       </c>
       <c r="I22">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="J22">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="K22">
         <v>3.8</v>
       </c>
       <c r="L22">
+        <v>1.85</v>
+      </c>
+      <c r="M22">
+        <v>1.97</v>
+      </c>
+      <c r="N22">
+        <v>2.04</v>
+      </c>
+      <c r="O22">
+        <v>2.18</v>
+      </c>
+      <c r="P22">
         <v>1.88</v>
       </c>
-      <c r="M22">
-        <v>1.99</v>
-      </c>
-      <c r="N22">
+      <c r="Q22">
+        <v>1.98</v>
+      </c>
+      <c r="R22">
         <v>2.02</v>
-      </c>
-      <c r="O22">
-        <v>2.14</v>
-      </c>
-      <c r="P22">
-        <v>1.87</v>
-      </c>
-      <c r="Q22">
-        <v>1.97</v>
-      </c>
-      <c r="R22">
-        <v>2.04</v>
       </c>
       <c r="S22">
         <v>2.14</v>
@@ -5833,13 +5848,13 @@
         <v>11.5</v>
       </c>
       <c r="U22">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="V22">
         <v>8</v>
       </c>
       <c r="W22">
-        <v>980</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X22">
         <v>10.5</v>
@@ -5857,19 +5872,19 @@
         <v>11</v>
       </c>
       <c r="AC22">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AD22">
         <v>7.4</v>
       </c>
       <c r="AE22">
-        <v>980</v>
+        <v>8.4</v>
       </c>
       <c r="AF22">
         <v>9.4</v>
       </c>
       <c r="AG22">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH22">
         <v>15.5</v>
@@ -5896,49 +5911,49 @@
         <v>24</v>
       </c>
       <c r="AP22">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="AQ22">
         <v>48</v>
       </c>
       <c r="AR22">
-        <v>4.3</v>
+        <v>5.6</v>
       </c>
       <c r="AS22">
         <v>110</v>
       </c>
       <c r="AT22">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="AU22">
         <v>70</v>
       </c>
       <c r="AV22">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="AW22">
         <v>80</v>
       </c>
       <c r="AX22">
-        <v>4.3</v>
+        <v>5.6</v>
       </c>
       <c r="AY22">
         <v>140</v>
       </c>
       <c r="AZ22">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="BA22">
         <v>75</v>
       </c>
       <c r="BB22">
-        <v>3.55</v>
+        <v>4.4</v>
       </c>
       <c r="BC22">
         <v>18</v>
       </c>
       <c r="BD22">
-        <v>4.4</v>
+        <v>5.8</v>
       </c>
       <c r="BE22">
         <v>1000</v>
@@ -5956,16 +5971,16 @@
         <v>58805</v>
       </c>
       <c r="BJ22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="BK22" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="BL22" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="BM22" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:65">
@@ -6153,16 +6168,16 @@
         <v>58805</v>
       </c>
       <c r="BJ23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="BK23" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="BL23" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="BM23" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="24" spans="1:65">
@@ -6215,7 +6230,7 @@
         <v>1.83</v>
       </c>
       <c r="Q24">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R24">
         <v>2.06</v>
@@ -6350,16 +6365,16 @@
         <v>58805</v>
       </c>
       <c r="BJ24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="BK24" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="BL24" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="BM24" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="25" spans="1:65">
@@ -6547,16 +6562,16 @@
         <v>58805</v>
       </c>
       <c r="BJ25" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BK25" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="BL25" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="BM25" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26" spans="1:65">
@@ -6618,13 +6633,13 @@
         <v>2.12</v>
       </c>
       <c r="T26">
-        <v>3.4</v>
+        <v>8.4</v>
       </c>
       <c r="U26">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="V26">
-        <v>3.55</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="W26">
         <v>15</v>
@@ -6636,31 +6651,31 @@
         <v>30</v>
       </c>
       <c r="Z26">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AA26">
         <v>85</v>
       </c>
       <c r="AB26">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC26">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AD26">
-        <v>3.1</v>
+        <v>5.9</v>
       </c>
       <c r="AE26">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="AF26">
-        <v>3.8</v>
+        <v>11</v>
       </c>
       <c r="AG26">
         <v>980</v>
       </c>
       <c r="AH26">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AI26">
         <v>60</v>
@@ -6672,61 +6687,61 @@
         <v>16.5</v>
       </c>
       <c r="AL26">
-        <v>3.5</v>
+        <v>8.4</v>
       </c>
       <c r="AM26">
         <v>14</v>
       </c>
       <c r="AN26">
-        <v>3.85</v>
+        <v>14.5</v>
       </c>
       <c r="AO26">
         <v>980</v>
       </c>
       <c r="AP26">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="AQ26">
         <v>75</v>
       </c>
       <c r="AR26">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="AS26">
         <v>36</v>
       </c>
       <c r="AT26">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="AU26">
         <v>32</v>
       </c>
       <c r="AV26">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="AW26">
         <v>55</v>
       </c>
       <c r="AX26">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AY26">
         <v>160</v>
       </c>
       <c r="AZ26">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="BA26">
         <v>26</v>
       </c>
       <c r="BB26">
-        <v>2.92</v>
+        <v>4.1</v>
       </c>
       <c r="BC26">
         <v>65</v>
       </c>
       <c r="BD26">
-        <v>3.05</v>
+        <v>4.3</v>
       </c>
       <c r="BE26">
         <v>1000</v>
@@ -6744,16 +6759,16 @@
         <v>58805</v>
       </c>
       <c r="BJ26" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BK26" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="BL26" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="BM26" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="27" spans="1:65">
@@ -6782,7 +6797,7 @@
         <v>3.95</v>
       </c>
       <c r="I27">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="J27">
         <v>3.2</v>
@@ -6941,16 +6956,16 @@
         <v>58805</v>
       </c>
       <c r="BJ27" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="BK27" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="BL27" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="BM27" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="28" spans="1:65">
@@ -7033,7 +7048,7 @@
         <v>7.2</v>
       </c>
       <c r="AA28">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB28">
         <v>6.6</v>
@@ -7054,7 +7069,7 @@
         <v>980</v>
       </c>
       <c r="AH28">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AI28">
         <v>75</v>
@@ -7075,7 +7090,7 @@
         <v>20</v>
       </c>
       <c r="AO28">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AP28">
         <v>7.2</v>
@@ -7096,13 +7111,13 @@
         <v>34</v>
       </c>
       <c r="AV28">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AW28">
         <v>65</v>
       </c>
       <c r="AX28">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AY28">
         <v>1000</v>
@@ -7138,16 +7153,16 @@
         <v>58805</v>
       </c>
       <c r="BJ28" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="BK28" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="BL28" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="BM28" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="29" spans="1:65">
@@ -7170,7 +7185,7 @@
         <v>4.5</v>
       </c>
       <c r="G29">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="H29">
         <v>2.14</v>
@@ -7182,7 +7197,7 @@
         <v>2.9</v>
       </c>
       <c r="K29">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="L29">
         <v>1.4</v>
@@ -7335,16 +7350,16 @@
         <v>58805</v>
       </c>
       <c r="BJ29" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="BK29" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="BL29" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="BM29" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="30" spans="1:65">
@@ -7532,16 +7547,16 @@
         <v>58805</v>
       </c>
       <c r="BJ30" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="BK30" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="BL30" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="BM30" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="31" spans="1:65">
@@ -7693,7 +7708,7 @@
         <v>40</v>
       </c>
       <c r="AX31">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AY31">
         <v>75</v>
@@ -7708,10 +7723,10 @@
         <v>11.5</v>
       </c>
       <c r="BC31">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="BD31">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BE31">
         <v>1000</v>
@@ -7729,16 +7744,16 @@
         <v>58805</v>
       </c>
       <c r="BJ31" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BK31" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="BL31" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="BM31" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="32" spans="1:65">
@@ -7788,16 +7803,16 @@
         <v>2.48</v>
       </c>
       <c r="P32">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="Q32">
+        <v>2.1</v>
+      </c>
+      <c r="R32">
+        <v>1.92</v>
+      </c>
+      <c r="S32">
         <v>2.12</v>
-      </c>
-      <c r="R32">
-        <v>1.9</v>
-      </c>
-      <c r="S32">
-        <v>2.16</v>
       </c>
       <c r="T32">
         <v>8.800000000000001</v>
@@ -7926,16 +7941,16 @@
         <v>58805</v>
       </c>
       <c r="BJ32" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="BK32" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="BL32" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="BM32" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="33" spans="1:65">
@@ -8105,7 +8120,7 @@
         <v>100</v>
       </c>
       <c r="BD33">
-        <v>3.3</v>
+        <v>5.7</v>
       </c>
       <c r="BE33">
         <v>1000</v>
@@ -8123,16 +8138,16 @@
         <v>58805</v>
       </c>
       <c r="BJ33" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BK33" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="BL33" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="BM33" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="34" spans="1:65">
@@ -8320,16 +8335,16 @@
         <v>58805</v>
       </c>
       <c r="BJ34" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="BK34" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="BL34" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="BM34" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="35" spans="1:65">
@@ -8349,163 +8364,163 @@
         <v>175</v>
       </c>
       <c r="F35">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G35">
         <v>2.18</v>
       </c>
       <c r="H35">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I35">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J35">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K35">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L35">
-        <v>2.58</v>
+        <v>2.8</v>
       </c>
       <c r="M35">
-        <v>2.7</v>
+        <v>2.86</v>
       </c>
       <c r="N35">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="O35">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V35">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="X35">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA35">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC35">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AE35">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AF35">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG35">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH35">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI35">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AJ35">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AK35">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AL35">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM35">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AN35">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AO35">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AP35">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AQ35">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AR35">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AS35">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AT35">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AU35">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AV35">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AW35">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AX35">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AY35">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AZ35">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="BA35">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="BB35">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BC35">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="BD35">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BE35">
-        <v>0</v>
-      </c>
-      <c r="BF35">
-        <v>33199074</v>
+        <v>370</v>
+      </c>
+      <c r="BF35" t="s">
+        <v>222</v>
       </c>
       <c r="BG35">
         <v>48461</v>
@@ -8516,17 +8531,17 @@
       <c r="BI35">
         <v>58805</v>
       </c>
-      <c r="BJ35">
-        <v>1.227722148</v>
-      </c>
-      <c r="BK35">
-        <v>1.227722158</v>
-      </c>
-      <c r="BL35">
-        <v>0</v>
-      </c>
-      <c r="BM35">
-        <v>0</v>
+      <c r="BJ35" t="s">
+        <v>269</v>
+      </c>
+      <c r="BK35" t="s">
+        <v>316</v>
+      </c>
+      <c r="BL35" t="s">
+        <v>363</v>
+      </c>
+      <c r="BM35" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="36" spans="1:65">
@@ -8564,46 +8579,46 @@
         <v>5.1</v>
       </c>
       <c r="L36">
+        <v>2.74</v>
+      </c>
+      <c r="M36">
         <v>2.8</v>
       </c>
-      <c r="M36">
-        <v>2.88</v>
-      </c>
       <c r="N36">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="O36">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="P36">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Q36">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="R36">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="S36">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="T36">
+        <v>25</v>
+      </c>
+      <c r="U36">
+        <v>28</v>
+      </c>
+      <c r="V36">
         <v>26</v>
       </c>
-      <c r="U36">
-        <v>29</v>
-      </c>
-      <c r="V36">
-        <v>29</v>
-      </c>
       <c r="W36">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X36">
         <v>48</v>
       </c>
       <c r="Y36">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Z36">
         <v>120</v>
@@ -8612,10 +8627,10 @@
         <v>160</v>
       </c>
       <c r="AB36">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC36">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD36">
         <v>11</v>
@@ -8642,13 +8657,13 @@
         <v>11.5</v>
       </c>
       <c r="AL36">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AM36">
         <v>9.800000000000001</v>
       </c>
       <c r="AN36">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO36">
         <v>18.5</v>
@@ -8669,13 +8684,13 @@
         <v>12.5</v>
       </c>
       <c r="AU36">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AV36">
         <v>23</v>
       </c>
       <c r="AW36">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AX36">
         <v>65</v>
@@ -8684,10 +8699,10 @@
         <v>75</v>
       </c>
       <c r="AZ36">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="BA36">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="BB36">
         <v>46</v>
@@ -8696,13 +8711,13 @@
         <v>55</v>
       </c>
       <c r="BD36">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="BE36">
         <v>1000</v>
       </c>
       <c r="BF36" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BG36">
         <v>1096</v>
@@ -8714,16 +8729,16 @@
         <v>58805</v>
       </c>
       <c r="BJ36" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="BK36" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="BL36" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="BM36" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="37" spans="1:65">
@@ -8746,10 +8761,10 @@
         <v>3.8</v>
       </c>
       <c r="G37">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H37">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -8791,91 +8806,91 @@
         <v>980</v>
       </c>
       <c r="V37">
-        <v>2.36</v>
+        <v>1.03</v>
       </c>
       <c r="W37">
         <v>980</v>
       </c>
       <c r="X37">
-        <v>3</v>
+        <v>1.03</v>
       </c>
       <c r="Y37">
         <v>1000</v>
       </c>
       <c r="Z37">
-        <v>3.2</v>
+        <v>1.03</v>
       </c>
       <c r="AA37">
         <v>1000</v>
       </c>
       <c r="AB37">
-        <v>2.6</v>
+        <v>1.03</v>
       </c>
       <c r="AC37">
         <v>980</v>
       </c>
       <c r="AD37">
-        <v>2.72</v>
+        <v>1.03</v>
       </c>
       <c r="AE37">
         <v>980</v>
       </c>
       <c r="AF37">
-        <v>3.6</v>
+        <v>1.03</v>
       </c>
       <c r="AG37">
         <v>980</v>
       </c>
       <c r="AH37">
-        <v>8.199999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="AI37">
         <v>1000</v>
       </c>
       <c r="AJ37">
-        <v>2.92</v>
+        <v>1.03</v>
       </c>
       <c r="AK37">
         <v>1000</v>
       </c>
       <c r="AL37">
+        <v>2.96</v>
+      </c>
+      <c r="AM37">
+        <v>980</v>
+      </c>
+      <c r="AN37">
         <v>1.03</v>
       </c>
-      <c r="AM37">
-        <v>980</v>
-      </c>
-      <c r="AN37">
-        <v>9</v>
-      </c>
       <c r="AO37">
         <v>980</v>
       </c>
       <c r="AP37">
-        <v>9.6</v>
+        <v>1.03</v>
       </c>
       <c r="AQ37">
         <v>1000</v>
       </c>
       <c r="AR37">
-        <v>3.5</v>
+        <v>1.03</v>
       </c>
       <c r="AS37">
         <v>1000</v>
       </c>
       <c r="AT37">
-        <v>4.7</v>
+        <v>1.03</v>
       </c>
       <c r="AU37">
         <v>1000</v>
       </c>
       <c r="AV37">
-        <v>6.6</v>
+        <v>1.03</v>
       </c>
       <c r="AW37">
         <v>1000</v>
       </c>
       <c r="AX37">
-        <v>16.5</v>
+        <v>1.03</v>
       </c>
       <c r="AY37">
         <v>1000</v>
@@ -8899,7 +8914,7 @@
         <v>1000</v>
       </c>
       <c r="BF37" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BG37">
         <v>5271439</v>
@@ -8911,16 +8926,16 @@
         <v>58805</v>
       </c>
       <c r="BJ37" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="BK37" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="BL37" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="BM37" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="38" spans="1:65">
@@ -8943,7 +8958,7 @@
         <v>4.6</v>
       </c>
       <c r="G38">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -8955,7 +8970,7 @@
         <v>3.25</v>
       </c>
       <c r="K38">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L38">
         <v>1.64</v>
@@ -9000,7 +9015,7 @@
         <v>11</v>
       </c>
       <c r="Z38">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA38">
         <v>24</v>
@@ -9084,7 +9099,7 @@
         <v>980</v>
       </c>
       <c r="BB38">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="BC38">
         <v>980</v>
@@ -9096,7 +9111,7 @@
         <v>1000</v>
       </c>
       <c r="BF38" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="BG38">
         <v>3738659</v>
@@ -9108,16 +9123,16 @@
         <v>58805</v>
       </c>
       <c r="BJ38" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BK38" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="BL38" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="BM38" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="39" spans="1:65">
@@ -9137,7 +9152,7 @@
         <v>179</v>
       </c>
       <c r="F39">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G39">
         <v>2.18</v>
@@ -9293,7 +9308,7 @@
         <v>1000</v>
       </c>
       <c r="BF39" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="BG39">
         <v>194509</v>
@@ -9305,16 +9320,16 @@
         <v>58805</v>
       </c>
       <c r="BJ39" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="BK39" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="BL39" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="BM39" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="40" spans="1:65">
@@ -9490,7 +9505,7 @@
         <v>1000</v>
       </c>
       <c r="BF40" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="BG40">
         <v>6168045</v>
@@ -9502,16 +9517,16 @@
         <v>58805</v>
       </c>
       <c r="BJ40" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="BK40" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="BL40" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="BM40" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="41" spans="1:65">
@@ -9687,7 +9702,7 @@
         <v>1000</v>
       </c>
       <c r="BF41" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="BG41">
         <v>361329</v>
@@ -9699,16 +9714,16 @@
         <v>58805</v>
       </c>
       <c r="BJ41" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="BK41" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="BL41" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="BM41" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="42" spans="1:65">
@@ -9770,7 +9785,7 @@
         <v>1.89</v>
       </c>
       <c r="T42">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="U42">
         <v>10.5</v>
@@ -9884,7 +9899,7 @@
         <v>1000</v>
       </c>
       <c r="BF42" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="BG42">
         <v>5789820</v>
@@ -9896,16 +9911,16 @@
         <v>58805</v>
       </c>
       <c r="BJ42" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="BK42" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="BL42" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="BM42" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="43" spans="1:65">
@@ -9937,7 +9952,7 @@
         <v>9</v>
       </c>
       <c r="J43">
-        <v>1.82</v>
+        <v>2.7</v>
       </c>
       <c r="K43">
         <v>3.85</v>
@@ -10081,7 +10096,7 @@
         <v>1000</v>
       </c>
       <c r="BF43" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="BG43">
         <v>12104874</v>
@@ -10093,16 +10108,16 @@
         <v>58805</v>
       </c>
       <c r="BJ43" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="BK43" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="BL43" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="BM43" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="44" spans="1:65">
@@ -10122,19 +10137,19 @@
         <v>184</v>
       </c>
       <c r="F44">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="G44">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="H44">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="I44">
         <v>10</v>
       </c>
       <c r="J44">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="K44">
         <v>6.6</v>
@@ -10248,7 +10263,7 @@
         <v>26</v>
       </c>
       <c r="AV44">
-        <v>2.36</v>
+        <v>21</v>
       </c>
       <c r="AW44">
         <v>80</v>
@@ -10278,7 +10293,7 @@
         <v>1000</v>
       </c>
       <c r="BF44" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="BG44">
         <v>9610998</v>
@@ -10290,16 +10305,16 @@
         <v>58805</v>
       </c>
       <c r="BJ44" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="BK44" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="BL44" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="BM44" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="45" spans="1:65">
@@ -10475,7 +10490,7 @@
         <v>1000</v>
       </c>
       <c r="BF45" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="BG45">
         <v>330239</v>
@@ -10487,16 +10502,16 @@
         <v>58805</v>
       </c>
       <c r="BJ45" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BK45" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="BL45" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="BM45" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="46" spans="1:65">
@@ -10516,34 +10531,34 @@
         <v>186</v>
       </c>
       <c r="F46">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="G46">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H46">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="I46">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="J46">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="K46">
-        <v>7.4</v>
+        <v>5.3</v>
       </c>
       <c r="L46">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M46">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="N46">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="O46">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="P46">
         <v>1.12</v>
@@ -10672,7 +10687,7 @@
         <v>1000</v>
       </c>
       <c r="BF46" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="BG46">
         <v>453739</v>
@@ -10684,16 +10699,16 @@
         <v>58805</v>
       </c>
       <c r="BJ46" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="BK46" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="BL46" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="BM46" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="47" spans="1:65">
@@ -10716,13 +10731,13 @@
         <v>2.08</v>
       </c>
       <c r="G47">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="H47">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I47">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="J47">
         <v>3.25</v>
@@ -10761,7 +10776,7 @@
         <v>13</v>
       </c>
       <c r="V47">
-        <v>9.4</v>
+        <v>2.68</v>
       </c>
       <c r="W47">
         <v>15.5</v>
@@ -10773,22 +10788,22 @@
         <v>980</v>
       </c>
       <c r="Z47">
-        <v>4.2</v>
+        <v>3.15</v>
       </c>
       <c r="AA47">
         <v>1000</v>
       </c>
       <c r="AB47">
-        <v>6.2</v>
+        <v>3.25</v>
       </c>
       <c r="AC47">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD47">
-        <v>5.9</v>
+        <v>2.3</v>
       </c>
       <c r="AE47">
-        <v>9.4</v>
+        <v>980</v>
       </c>
       <c r="AF47">
         <v>12.5</v>
@@ -10797,13 +10812,13 @@
         <v>980</v>
       </c>
       <c r="AH47">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="AI47">
         <v>980</v>
       </c>
       <c r="AJ47">
-        <v>9</v>
+        <v>2.68</v>
       </c>
       <c r="AK47">
         <v>15</v>
@@ -10821,7 +10836,7 @@
         <v>980</v>
       </c>
       <c r="AP47">
-        <v>4.2</v>
+        <v>3.15</v>
       </c>
       <c r="AQ47">
         <v>980</v>
@@ -10839,37 +10854,37 @@
         <v>980</v>
       </c>
       <c r="AV47">
-        <v>4.1</v>
+        <v>3.05</v>
       </c>
       <c r="AW47">
         <v>980</v>
       </c>
       <c r="AX47">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="AY47">
         <v>980</v>
       </c>
       <c r="AZ47">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="BA47">
         <v>980</v>
       </c>
       <c r="BB47">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="BC47">
         <v>980</v>
       </c>
       <c r="BD47">
-        <v>4.4</v>
+        <v>3.25</v>
       </c>
       <c r="BE47">
         <v>1000</v>
       </c>
       <c r="BF47" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BG47">
         <v>22018255</v>
@@ -10881,16 +10896,16 @@
         <v>58805</v>
       </c>
       <c r="BJ47" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="BK47" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="BL47" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="BM47" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="48" spans="1:65">
@@ -10970,19 +10985,19 @@
         <v>1000</v>
       </c>
       <c r="Z48">
+        <v>3.75</v>
+      </c>
+      <c r="AA48">
+        <v>1000</v>
+      </c>
+      <c r="AB48">
         <v>1.03</v>
       </c>
-      <c r="AA48">
-        <v>1000</v>
-      </c>
-      <c r="AB48">
-        <v>2.94</v>
-      </c>
       <c r="AC48">
         <v>980</v>
       </c>
       <c r="AD48">
-        <v>1.03</v>
+        <v>3.85</v>
       </c>
       <c r="AE48">
         <v>980</v>
@@ -10994,55 +11009,55 @@
         <v>980</v>
       </c>
       <c r="AH48">
+        <v>4.1</v>
+      </c>
+      <c r="AI48">
+        <v>1000</v>
+      </c>
+      <c r="AJ48">
+        <v>2.96</v>
+      </c>
+      <c r="AK48">
+        <v>1000</v>
+      </c>
+      <c r="AL48">
         <v>1.03</v>
       </c>
-      <c r="AI48">
-        <v>1000</v>
-      </c>
-      <c r="AJ48">
-        <v>1.03</v>
-      </c>
-      <c r="AK48">
-        <v>1000</v>
-      </c>
-      <c r="AL48">
-        <v>3.05</v>
-      </c>
       <c r="AM48">
         <v>980</v>
       </c>
       <c r="AN48">
-        <v>1.03</v>
+        <v>8</v>
       </c>
       <c r="AO48">
         <v>980</v>
       </c>
       <c r="AP48">
-        <v>1.03</v>
+        <v>9.4</v>
       </c>
       <c r="AQ48">
         <v>1000</v>
       </c>
       <c r="AR48">
-        <v>1.03</v>
+        <v>4.9</v>
       </c>
       <c r="AS48">
         <v>1000</v>
       </c>
       <c r="AT48">
-        <v>1.03</v>
+        <v>6.2</v>
       </c>
       <c r="AU48">
         <v>1000</v>
       </c>
       <c r="AV48">
-        <v>1.03</v>
+        <v>5.9</v>
       </c>
       <c r="AW48">
         <v>1000</v>
       </c>
       <c r="AX48">
-        <v>1.03</v>
+        <v>7.4</v>
       </c>
       <c r="AY48">
         <v>1000</v>
@@ -11066,7 +11081,7 @@
         <v>1000</v>
       </c>
       <c r="BF48" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BG48">
         <v>5615116</v>
@@ -11078,16 +11093,16 @@
         <v>58805</v>
       </c>
       <c r="BJ48" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="BK48" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="BL48" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="BM48" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-23.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="384">
   <si>
     <t>League</t>
   </si>
@@ -628,51 +628,6 @@
     <t>Univ Catolica (Ecu)</t>
   </si>
   <si>
-    <t>33206903</t>
-  </si>
-  <si>
-    <t>33209495</t>
-  </si>
-  <si>
-    <t>33214516</t>
-  </si>
-  <si>
-    <t>33209553</t>
-  </si>
-  <si>
-    <t>33208580</t>
-  </si>
-  <si>
-    <t>33214515</t>
-  </si>
-  <si>
-    <t>33210330</t>
-  </si>
-  <si>
-    <t>33210790</t>
-  </si>
-  <si>
-    <t>33209727</t>
-  </si>
-  <si>
-    <t>33200249</t>
-  </si>
-  <si>
-    <t>33205047</t>
-  </si>
-  <si>
-    <t>33209997</t>
-  </si>
-  <si>
-    <t>33210809</t>
-  </si>
-  <si>
-    <t>33207452</t>
-  </si>
-  <si>
-    <t>33214998</t>
-  </si>
-  <si>
     <t>33207654</t>
   </si>
   <si>
@@ -781,51 +736,6 @@
     <t>33195544</t>
   </si>
   <si>
-    <t>1.227845991</t>
-  </si>
-  <si>
-    <t>1.227884013</t>
-  </si>
-  <si>
-    <t>1.227994728</t>
-  </si>
-  <si>
-    <t>1.227884706</t>
-  </si>
-  <si>
-    <t>1.227879658</t>
-  </si>
-  <si>
-    <t>1.227977239</t>
-  </si>
-  <si>
-    <t>1.227905056</t>
-  </si>
-  <si>
-    <t>1.227914268</t>
-  </si>
-  <si>
-    <t>1.227894646</t>
-  </si>
-  <si>
-    <t>1.227738203</t>
-  </si>
-  <si>
-    <t>1.227826337</t>
-  </si>
-  <si>
-    <t>1.227896956</t>
-  </si>
-  <si>
-    <t>1.227927001</t>
-  </si>
-  <si>
-    <t>1.227855213</t>
-  </si>
-  <si>
-    <t>1.227994908</t>
-  </si>
-  <si>
     <t>1.227855512</t>
   </si>
   <si>
@@ -934,51 +844,6 @@
     <t>1.227670550</t>
   </si>
   <si>
-    <t>1.227846036</t>
-  </si>
-  <si>
-    <t>1.227884058</t>
-  </si>
-  <si>
-    <t>1.227994731</t>
-  </si>
-  <si>
-    <t>1.227884751</t>
-  </si>
-  <si>
-    <t>1.227879704</t>
-  </si>
-  <si>
-    <t>1.227977284</t>
-  </si>
-  <si>
-    <t>1.227905101</t>
-  </si>
-  <si>
-    <t>1.227914313</t>
-  </si>
-  <si>
-    <t>1.227894691</t>
-  </si>
-  <si>
-    <t>1.227738250</t>
-  </si>
-  <si>
-    <t>1.227826382</t>
-  </si>
-  <si>
-    <t>1.227897001</t>
-  </si>
-  <si>
-    <t>1.227927046</t>
-  </si>
-  <si>
-    <t>1.227855258</t>
-  </si>
-  <si>
-    <t>1.227994911</t>
-  </si>
-  <si>
     <t>1.227855557</t>
   </si>
   <si>
@@ -1087,51 +952,6 @@
     <t>1.227670534</t>
   </si>
   <si>
-    <t>1.227846075</t>
-  </si>
-  <si>
-    <t>1.227884097</t>
-  </si>
-  <si>
-    <t>1.227994775</t>
-  </si>
-  <si>
-    <t>1.227884790</t>
-  </si>
-  <si>
-    <t>1.227879743</t>
-  </si>
-  <si>
-    <t>1.227977323</t>
-  </si>
-  <si>
-    <t>1.227905140</t>
-  </si>
-  <si>
-    <t>1.227914352</t>
-  </si>
-  <si>
-    <t>1.227894730</t>
-  </si>
-  <si>
-    <t>1.227738290</t>
-  </si>
-  <si>
-    <t>1.227826421</t>
-  </si>
-  <si>
-    <t>1.227897040</t>
-  </si>
-  <si>
-    <t>1.227927085</t>
-  </si>
-  <si>
-    <t>1.227855297</t>
-  </si>
-  <si>
-    <t>1.227994955</t>
-  </si>
-  <si>
     <t>1.227855596</t>
   </si>
   <si>
@@ -1238,51 +1058,6 @@
   </si>
   <si>
     <t>1.227670549</t>
-  </si>
-  <si>
-    <t>1.227846000</t>
-  </si>
-  <si>
-    <t>1.227884022</t>
-  </si>
-  <si>
-    <t>1.227994776</t>
-  </si>
-  <si>
-    <t>1.227884715</t>
-  </si>
-  <si>
-    <t>1.227879667</t>
-  </si>
-  <si>
-    <t>1.227977248</t>
-  </si>
-  <si>
-    <t>1.227905065</t>
-  </si>
-  <si>
-    <t>1.227914277</t>
-  </si>
-  <si>
-    <t>1.227894655</t>
-  </si>
-  <si>
-    <t>1.227738212</t>
-  </si>
-  <si>
-    <t>1.227826346</t>
-  </si>
-  <si>
-    <t>1.227896965</t>
-  </si>
-  <si>
-    <t>1.227927010</t>
-  </si>
-  <si>
-    <t>1.227855222</t>
-  </si>
-  <si>
-    <t>1.227994956</t>
   </si>
   <si>
     <t>1.227855521</t>
@@ -2123,8 +1898,8 @@
       <c r="BE2">
         <v>1000</v>
       </c>
-      <c r="BF2" t="s">
-        <v>204</v>
+      <c r="BF2">
+        <v>33206903</v>
       </c>
       <c r="BG2">
         <v>8838645</v>
@@ -2135,17 +1910,17 @@
       <c r="BI2">
         <v>58805</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>255</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>306</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>357</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>408</v>
+      <c r="BJ2">
+        <v>1.227845991</v>
+      </c>
+      <c r="BK2">
+        <v>1.227846036</v>
+      </c>
+      <c r="BL2">
+        <v>1.227846075</v>
+      </c>
+      <c r="BM2">
+        <v>1.227846</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -2320,8 +2095,8 @@
       <c r="BE3">
         <v>1000</v>
       </c>
-      <c r="BF3" t="s">
-        <v>205</v>
+      <c r="BF3">
+        <v>33209495</v>
       </c>
       <c r="BG3">
         <v>5170871</v>
@@ -2332,17 +2107,17 @@
       <c r="BI3">
         <v>58805</v>
       </c>
-      <c r="BJ3" t="s">
-        <v>256</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>307</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>358</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>409</v>
+      <c r="BJ3">
+        <v>1.227884013</v>
+      </c>
+      <c r="BK3">
+        <v>1.227884058</v>
+      </c>
+      <c r="BL3">
+        <v>1.227884097</v>
+      </c>
+      <c r="BM3">
+        <v>1.227884022</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -2517,8 +2292,8 @@
       <c r="BE4">
         <v>1000</v>
       </c>
-      <c r="BF4" t="s">
-        <v>206</v>
+      <c r="BF4">
+        <v>33214516</v>
       </c>
       <c r="BG4">
         <v>20716213</v>
@@ -2529,17 +2304,17 @@
       <c r="BI4">
         <v>58805</v>
       </c>
-      <c r="BJ4" t="s">
-        <v>257</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>308</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>359</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>410</v>
+      <c r="BJ4">
+        <v>1.227994728</v>
+      </c>
+      <c r="BK4">
+        <v>1.227994731</v>
+      </c>
+      <c r="BL4">
+        <v>1.227994775</v>
+      </c>
+      <c r="BM4">
+        <v>1.227994776</v>
       </c>
     </row>
     <row r="5" spans="1:65">
@@ -2714,8 +2489,8 @@
       <c r="BE5">
         <v>1000</v>
       </c>
-      <c r="BF5" t="s">
-        <v>207</v>
+      <c r="BF5">
+        <v>33209553</v>
       </c>
       <c r="BG5">
         <v>4135278</v>
@@ -2726,17 +2501,17 @@
       <c r="BI5">
         <v>58805</v>
       </c>
-      <c r="BJ5" t="s">
-        <v>258</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>309</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>360</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>411</v>
+      <c r="BJ5">
+        <v>1.227884706</v>
+      </c>
+      <c r="BK5">
+        <v>1.227884751</v>
+      </c>
+      <c r="BL5">
+        <v>1.22788479</v>
+      </c>
+      <c r="BM5">
+        <v>1.227884715</v>
       </c>
     </row>
     <row r="6" spans="1:65">
@@ -2911,8 +2686,8 @@
       <c r="BE6">
         <v>1000</v>
       </c>
-      <c r="BF6" t="s">
-        <v>208</v>
+      <c r="BF6">
+        <v>33208580</v>
       </c>
       <c r="BG6">
         <v>2486936</v>
@@ -2923,17 +2698,17 @@
       <c r="BI6">
         <v>58805</v>
       </c>
-      <c r="BJ6" t="s">
-        <v>259</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>310</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>361</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>412</v>
+      <c r="BJ6">
+        <v>1.227879658</v>
+      </c>
+      <c r="BK6">
+        <v>1.227879704</v>
+      </c>
+      <c r="BL6">
+        <v>1.227879743</v>
+      </c>
+      <c r="BM6">
+        <v>1.227879667</v>
       </c>
     </row>
     <row r="7" spans="1:65">
@@ -3108,8 +2883,8 @@
       <c r="BE7">
         <v>1000</v>
       </c>
-      <c r="BF7" t="s">
-        <v>209</v>
+      <c r="BF7">
+        <v>33214515</v>
       </c>
       <c r="BG7">
         <v>15020693</v>
@@ -3120,17 +2895,17 @@
       <c r="BI7">
         <v>58805</v>
       </c>
-      <c r="BJ7" t="s">
-        <v>260</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>311</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>362</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>413</v>
+      <c r="BJ7">
+        <v>1.227977239</v>
+      </c>
+      <c r="BK7">
+        <v>1.227977284</v>
+      </c>
+      <c r="BL7">
+        <v>1.227977323</v>
+      </c>
+      <c r="BM7">
+        <v>1.227977248</v>
       </c>
     </row>
     <row r="8" spans="1:65">
@@ -3305,8 +3080,8 @@
       <c r="BE8">
         <v>1000</v>
       </c>
-      <c r="BF8" t="s">
-        <v>210</v>
+      <c r="BF8">
+        <v>33210330</v>
       </c>
       <c r="BG8">
         <v>8522727</v>
@@ -3317,17 +3092,17 @@
       <c r="BI8">
         <v>58805</v>
       </c>
-      <c r="BJ8" t="s">
-        <v>261</v>
-      </c>
-      <c r="BK8" t="s">
-        <v>312</v>
-      </c>
-      <c r="BL8" t="s">
-        <v>363</v>
-      </c>
-      <c r="BM8" t="s">
-        <v>414</v>
+      <c r="BJ8">
+        <v>1.227905056</v>
+      </c>
+      <c r="BK8">
+        <v>1.227905101</v>
+      </c>
+      <c r="BL8">
+        <v>1.22790514</v>
+      </c>
+      <c r="BM8">
+        <v>1.227905065</v>
       </c>
     </row>
     <row r="9" spans="1:65">
@@ -3502,8 +3277,8 @@
       <c r="BE9">
         <v>1000</v>
       </c>
-      <c r="BF9" t="s">
-        <v>211</v>
+      <c r="BF9">
+        <v>33210790</v>
       </c>
       <c r="BG9">
         <v>3258153</v>
@@ -3514,17 +3289,17 @@
       <c r="BI9">
         <v>58805</v>
       </c>
-      <c r="BJ9" t="s">
-        <v>262</v>
-      </c>
-      <c r="BK9" t="s">
-        <v>313</v>
-      </c>
-      <c r="BL9" t="s">
-        <v>364</v>
-      </c>
-      <c r="BM9" t="s">
-        <v>415</v>
+      <c r="BJ9">
+        <v>1.227914268</v>
+      </c>
+      <c r="BK9">
+        <v>1.227914313</v>
+      </c>
+      <c r="BL9">
+        <v>1.227914352</v>
+      </c>
+      <c r="BM9">
+        <v>1.227914277</v>
       </c>
     </row>
     <row r="10" spans="1:65">
@@ -3699,8 +3474,8 @@
       <c r="BE10">
         <v>1000</v>
       </c>
-      <c r="BF10" t="s">
-        <v>212</v>
+      <c r="BF10">
+        <v>33209727</v>
       </c>
       <c r="BG10">
         <v>3465177</v>
@@ -3711,17 +3486,17 @@
       <c r="BI10">
         <v>58805</v>
       </c>
-      <c r="BJ10" t="s">
-        <v>263</v>
-      </c>
-      <c r="BK10" t="s">
-        <v>314</v>
-      </c>
-      <c r="BL10" t="s">
-        <v>365</v>
-      </c>
-      <c r="BM10" t="s">
-        <v>416</v>
+      <c r="BJ10">
+        <v>1.227894646</v>
+      </c>
+      <c r="BK10">
+        <v>1.227894691</v>
+      </c>
+      <c r="BL10">
+        <v>1.22789473</v>
+      </c>
+      <c r="BM10">
+        <v>1.227894655</v>
       </c>
     </row>
     <row r="11" spans="1:65">
@@ -3896,8 +3671,8 @@
       <c r="BE11">
         <v>1000</v>
       </c>
-      <c r="BF11" t="s">
-        <v>213</v>
+      <c r="BF11">
+        <v>33200249</v>
       </c>
       <c r="BG11">
         <v>784612</v>
@@ -3908,17 +3683,17 @@
       <c r="BI11">
         <v>58805</v>
       </c>
-      <c r="BJ11" t="s">
-        <v>264</v>
-      </c>
-      <c r="BK11" t="s">
-        <v>315</v>
-      </c>
-      <c r="BL11" t="s">
-        <v>366</v>
-      </c>
-      <c r="BM11" t="s">
-        <v>417</v>
+      <c r="BJ11">
+        <v>1.227738203</v>
+      </c>
+      <c r="BK11">
+        <v>1.22773825</v>
+      </c>
+      <c r="BL11">
+        <v>1.22773829</v>
+      </c>
+      <c r="BM11">
+        <v>1.227738212</v>
       </c>
     </row>
     <row r="12" spans="1:65">
@@ -4290,8 +4065,8 @@
       <c r="BE13">
         <v>1000</v>
       </c>
-      <c r="BF13" t="s">
-        <v>214</v>
+      <c r="BF13">
+        <v>33205047</v>
       </c>
       <c r="BG13">
         <v>10539864</v>
@@ -4302,17 +4077,17 @@
       <c r="BI13">
         <v>58805</v>
       </c>
-      <c r="BJ13" t="s">
-        <v>265</v>
-      </c>
-      <c r="BK13" t="s">
-        <v>316</v>
-      </c>
-      <c r="BL13" t="s">
-        <v>367</v>
-      </c>
-      <c r="BM13" t="s">
-        <v>418</v>
+      <c r="BJ13">
+        <v>1.227826337</v>
+      </c>
+      <c r="BK13">
+        <v>1.227826382</v>
+      </c>
+      <c r="BL13">
+        <v>1.227826421</v>
+      </c>
+      <c r="BM13">
+        <v>1.227826346</v>
       </c>
     </row>
     <row r="14" spans="1:65">
@@ -4487,8 +4262,8 @@
       <c r="BE14">
         <v>1000</v>
       </c>
-      <c r="BF14" t="s">
-        <v>215</v>
+      <c r="BF14">
+        <v>33209997</v>
       </c>
       <c r="BG14">
         <v>65779</v>
@@ -4499,17 +4274,17 @@
       <c r="BI14">
         <v>58805</v>
       </c>
-      <c r="BJ14" t="s">
-        <v>266</v>
-      </c>
-      <c r="BK14" t="s">
-        <v>317</v>
-      </c>
-      <c r="BL14" t="s">
-        <v>368</v>
-      </c>
-      <c r="BM14" t="s">
-        <v>419</v>
+      <c r="BJ14">
+        <v>1.227896956</v>
+      </c>
+      <c r="BK14">
+        <v>1.227897001</v>
+      </c>
+      <c r="BL14">
+        <v>1.22789704</v>
+      </c>
+      <c r="BM14">
+        <v>1.227896965</v>
       </c>
     </row>
     <row r="15" spans="1:65">
@@ -4684,8 +4459,8 @@
       <c r="BE15">
         <v>1000</v>
       </c>
-      <c r="BF15" t="s">
-        <v>216</v>
+      <c r="BF15">
+        <v>33210809</v>
       </c>
       <c r="BG15">
         <v>6772440</v>
@@ -4696,17 +4471,17 @@
       <c r="BI15">
         <v>58805</v>
       </c>
-      <c r="BJ15" t="s">
-        <v>267</v>
-      </c>
-      <c r="BK15" t="s">
-        <v>318</v>
-      </c>
-      <c r="BL15" t="s">
-        <v>369</v>
-      </c>
-      <c r="BM15" t="s">
-        <v>420</v>
+      <c r="BJ15">
+        <v>1.227927001</v>
+      </c>
+      <c r="BK15">
+        <v>1.227927046</v>
+      </c>
+      <c r="BL15">
+        <v>1.227927085</v>
+      </c>
+      <c r="BM15">
+        <v>1.22792701</v>
       </c>
     </row>
     <row r="16" spans="1:65">
@@ -4881,8 +4656,8 @@
       <c r="BE16">
         <v>1000</v>
       </c>
-      <c r="BF16" t="s">
-        <v>217</v>
+      <c r="BF16">
+        <v>33207452</v>
       </c>
       <c r="BG16">
         <v>457840</v>
@@ -4893,17 +4668,17 @@
       <c r="BI16">
         <v>58805</v>
       </c>
-      <c r="BJ16" t="s">
-        <v>268</v>
-      </c>
-      <c r="BK16" t="s">
-        <v>319</v>
-      </c>
-      <c r="BL16" t="s">
-        <v>370</v>
-      </c>
-      <c r="BM16" t="s">
-        <v>421</v>
+      <c r="BJ16">
+        <v>1.227855213</v>
+      </c>
+      <c r="BK16">
+        <v>1.227855258</v>
+      </c>
+      <c r="BL16">
+        <v>1.227855297</v>
+      </c>
+      <c r="BM16">
+        <v>1.227855222</v>
       </c>
     </row>
     <row r="17" spans="1:65">
@@ -5078,8 +4853,8 @@
       <c r="BE17">
         <v>1000</v>
       </c>
-      <c r="BF17" t="s">
-        <v>218</v>
+      <c r="BF17">
+        <v>33214998</v>
       </c>
       <c r="BG17">
         <v>4918030</v>
@@ -5090,17 +4865,17 @@
       <c r="BI17">
         <v>58805</v>
       </c>
-      <c r="BJ17" t="s">
-        <v>269</v>
-      </c>
-      <c r="BK17" t="s">
-        <v>320</v>
-      </c>
-      <c r="BL17" t="s">
-        <v>371</v>
-      </c>
-      <c r="BM17" t="s">
-        <v>422</v>
+      <c r="BJ17">
+        <v>1.227994908</v>
+      </c>
+      <c r="BK17">
+        <v>1.227994911</v>
+      </c>
+      <c r="BL17">
+        <v>1.227994955</v>
+      </c>
+      <c r="BM17">
+        <v>1.227994956</v>
       </c>
     </row>
     <row r="18" spans="1:65">
@@ -5123,13 +4898,13 @@
         <v>3.35</v>
       </c>
       <c r="G18">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H18">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="I18">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="J18">
         <v>4.1</v>
@@ -5138,145 +4913,145 @@
         <v>4.5</v>
       </c>
       <c r="L18">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="M18">
-        <v>2.94</v>
+        <v>2.8</v>
       </c>
       <c r="N18">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="O18">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P18">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="Q18">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="R18">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="S18">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T18">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="U18">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="V18">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="W18">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="X18">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y18">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z18">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="AA18">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AB18">
         <v>17.5</v>
       </c>
       <c r="AC18">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AD18">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE18">
         <v>11.5</v>
       </c>
       <c r="AF18">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AG18">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH18">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI18">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AJ18">
+        <v>6.6</v>
+      </c>
+      <c r="AK18">
+        <v>32</v>
+      </c>
+      <c r="AL18">
+        <v>13</v>
+      </c>
+      <c r="AM18">
+        <v>16.5</v>
+      </c>
+      <c r="AN18">
+        <v>14</v>
+      </c>
+      <c r="AO18">
+        <v>17.5</v>
+      </c>
+      <c r="AP18">
         <v>20</v>
       </c>
-      <c r="AK18">
-        <v>980</v>
-      </c>
-      <c r="AL18">
-        <v>12.5</v>
-      </c>
-      <c r="AM18">
-        <v>980</v>
-      </c>
-      <c r="AN18">
-        <v>11</v>
-      </c>
-      <c r="AO18">
-        <v>980</v>
-      </c>
-      <c r="AP18">
-        <v>6</v>
-      </c>
       <c r="AQ18">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AR18">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AS18">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT18">
-        <v>20</v>
+        <v>6.8</v>
       </c>
       <c r="AU18">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AV18">
-        <v>20</v>
+        <v>6.6</v>
       </c>
       <c r="AW18">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AX18">
-        <v>20</v>
+        <v>6.8</v>
       </c>
       <c r="AY18">
         <v>980</v>
       </c>
       <c r="AZ18">
-        <v>2.26</v>
+        <v>5.7</v>
       </c>
       <c r="BA18">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="BB18">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="BC18">
-        <v>55</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BD18">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE18">
         <v>980</v>
       </c>
       <c r="BF18" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="BG18">
         <v>17108156</v>
@@ -5288,16 +5063,16 @@
         <v>58805</v>
       </c>
       <c r="BJ18" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="BK18" t="s">
-        <v>321</v>
+        <v>276</v>
       </c>
       <c r="BL18" t="s">
-        <v>372</v>
+        <v>312</v>
       </c>
       <c r="BM18" t="s">
-        <v>423</v>
+        <v>348</v>
       </c>
     </row>
     <row r="19" spans="1:65">
@@ -5317,163 +5092,163 @@
         <v>169</v>
       </c>
       <c r="F19">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="G19">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H19">
-        <v>2.86</v>
+        <v>2.98</v>
       </c>
       <c r="I19">
         <v>3.1</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="K19">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="L19">
+        <v>1.48</v>
+      </c>
+      <c r="M19">
         <v>1.51</v>
       </c>
-      <c r="M19">
-        <v>1.64</v>
-      </c>
       <c r="N19">
-        <v>2.56</v>
+        <v>2.98</v>
       </c>
       <c r="O19">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="P19">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="Q19">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="R19">
+        <v>1.72</v>
+      </c>
+      <c r="S19">
         <v>1.79</v>
       </c>
-      <c r="S19">
-        <v>1.89</v>
-      </c>
       <c r="T19">
+        <v>7</v>
+      </c>
+      <c r="U19">
         <v>7.4</v>
       </c>
-      <c r="U19">
-        <v>8.199999999999999</v>
-      </c>
       <c r="V19">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="W19">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X19">
         <v>15.5</v>
       </c>
       <c r="Y19">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="Z19">
-        <v>9.4</v>
+        <v>46</v>
       </c>
       <c r="AA19">
         <v>55</v>
       </c>
       <c r="AB19">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AC19">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD19">
         <v>6.4</v>
       </c>
       <c r="AE19">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AF19">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG19">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH19">
-        <v>9.199999999999999</v>
+        <v>42</v>
       </c>
       <c r="AI19">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ19">
         <v>15.5</v>
       </c>
       <c r="AK19">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL19">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AM19">
         <v>14.5</v>
       </c>
       <c r="AN19">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AO19">
         <v>26</v>
       </c>
       <c r="AP19">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AQ19">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AR19">
-        <v>9.4</v>
+        <v>46</v>
       </c>
       <c r="AS19">
         <v>55</v>
       </c>
       <c r="AT19">
-        <v>9.199999999999999</v>
+        <v>42</v>
       </c>
       <c r="AU19">
         <v>48</v>
       </c>
       <c r="AV19">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AW19">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AX19">
-        <v>11</v>
+        <v>19.5</v>
       </c>
       <c r="AY19">
-        <v>980</v>
+        <v>230</v>
       </c>
       <c r="AZ19">
-        <v>9.4</v>
+        <v>16</v>
       </c>
       <c r="BA19">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="BB19">
-        <v>9.4</v>
+        <v>16</v>
       </c>
       <c r="BC19">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="BD19">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BE19">
         <v>1000</v>
       </c>
       <c r="BF19" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="BG19">
         <v>9481404</v>
@@ -5485,16 +5260,16 @@
         <v>58805</v>
       </c>
       <c r="BJ19" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="BK19" t="s">
-        <v>322</v>
+        <v>277</v>
       </c>
       <c r="BL19" t="s">
-        <v>373</v>
+        <v>313</v>
       </c>
       <c r="BM19" t="s">
-        <v>424</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:65">
@@ -5514,163 +5289,163 @@
         <v>170</v>
       </c>
       <c r="F20">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="G20">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H20">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="I20">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="J20">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K20">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L20">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="M20">
+        <v>2.54</v>
+      </c>
+      <c r="N20">
+        <v>1.66</v>
+      </c>
+      <c r="O20">
+        <v>1.7</v>
+      </c>
+      <c r="P20">
+        <v>1.58</v>
+      </c>
+      <c r="Q20">
+        <v>1.64</v>
+      </c>
+      <c r="R20">
         <v>2.58</v>
       </c>
-      <c r="N20">
-        <v>1.64</v>
-      </c>
-      <c r="O20">
-        <v>1.79</v>
-      </c>
-      <c r="P20">
-        <v>1.59</v>
-      </c>
-      <c r="Q20">
-        <v>1.68</v>
-      </c>
-      <c r="R20">
-        <v>2.48</v>
-      </c>
       <c r="S20">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="T20">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="U20">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V20">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="W20">
         <v>16</v>
       </c>
       <c r="X20">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="Y20">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z20">
-        <v>6.4</v>
+        <v>36</v>
       </c>
       <c r="AA20">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AB20">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC20">
         <v>15</v>
       </c>
       <c r="AD20">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="AE20">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AF20">
         <v>11.5</v>
       </c>
       <c r="AG20">
+        <v>13</v>
+      </c>
+      <c r="AH20">
+        <v>25</v>
+      </c>
+      <c r="AI20">
+        <v>27</v>
+      </c>
+      <c r="AJ20">
+        <v>17</v>
+      </c>
+      <c r="AK20">
+        <v>19</v>
+      </c>
+      <c r="AL20">
+        <v>11</v>
+      </c>
+      <c r="AM20">
+        <v>12</v>
+      </c>
+      <c r="AN20">
+        <v>14</v>
+      </c>
+      <c r="AO20">
+        <v>15.5</v>
+      </c>
+      <c r="AP20">
+        <v>29</v>
+      </c>
+      <c r="AQ20">
+        <v>34</v>
+      </c>
+      <c r="AR20">
+        <v>32</v>
+      </c>
+      <c r="AS20">
+        <v>38</v>
+      </c>
+      <c r="AT20">
+        <v>22</v>
+      </c>
+      <c r="AU20">
+        <v>24</v>
+      </c>
+      <c r="AV20">
+        <v>27</v>
+      </c>
+      <c r="AW20">
+        <v>32</v>
+      </c>
+      <c r="AX20">
+        <v>44</v>
+      </c>
+      <c r="AY20">
+        <v>65</v>
+      </c>
+      <c r="AZ20">
         <v>13.5</v>
       </c>
-      <c r="AH20">
-        <v>6</v>
-      </c>
-      <c r="AI20">
-        <v>34</v>
-      </c>
-      <c r="AJ20">
+      <c r="BA20">
         <v>15</v>
       </c>
-      <c r="AK20">
-        <v>21</v>
-      </c>
-      <c r="AL20">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AM20">
-        <v>12.5</v>
-      </c>
-      <c r="AN20">
-        <v>13.5</v>
-      </c>
-      <c r="AO20">
-        <v>17</v>
-      </c>
-      <c r="AP20">
-        <v>6.2</v>
-      </c>
-      <c r="AQ20">
-        <v>42</v>
-      </c>
-      <c r="AR20">
-        <v>6.2</v>
-      </c>
-      <c r="AS20">
-        <v>42</v>
-      </c>
-      <c r="AT20">
-        <v>19</v>
-      </c>
-      <c r="AU20">
-        <v>26</v>
-      </c>
-      <c r="AV20">
-        <v>6.2</v>
-      </c>
-      <c r="AW20">
-        <v>38</v>
-      </c>
-      <c r="AX20">
-        <v>28</v>
-      </c>
-      <c r="AY20">
-        <v>160</v>
-      </c>
-      <c r="AZ20">
-        <v>5</v>
-      </c>
-      <c r="BA20">
-        <v>16</v>
-      </c>
       <c r="BB20">
-        <v>5.4</v>
+        <v>16.5</v>
       </c>
       <c r="BC20">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="BD20">
-        <v>7.2</v>
+        <v>100</v>
       </c>
       <c r="BE20">
         <v>980</v>
       </c>
       <c r="BF20" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="BG20">
         <v>51406</v>
@@ -5682,16 +5457,16 @@
         <v>58805</v>
       </c>
       <c r="BJ20" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="BK20" t="s">
-        <v>323</v>
+        <v>278</v>
       </c>
       <c r="BL20" t="s">
-        <v>374</v>
+        <v>314</v>
       </c>
       <c r="BM20" t="s">
-        <v>425</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:65">
@@ -5711,163 +5486,163 @@
         <v>171</v>
       </c>
       <c r="F21">
-        <v>2.44</v>
+        <v>2.62</v>
       </c>
       <c r="G21">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="H21">
-        <v>2.96</v>
+        <v>2.76</v>
       </c>
       <c r="I21">
-        <v>3.15</v>
+        <v>2.84</v>
       </c>
       <c r="J21">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K21">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L21">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="M21">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="N21">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="O21">
-        <v>1.97</v>
+        <v>1.79</v>
       </c>
       <c r="P21">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="Q21">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="R21">
-        <v>2.26</v>
+        <v>2.48</v>
       </c>
       <c r="S21">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T21">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="U21">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="V21">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="W21">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="X21">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="Y21">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="Z21">
-        <v>4.3</v>
+        <v>38</v>
       </c>
       <c r="AA21">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AB21">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AC21">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD21">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AE21">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AF21">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AG21">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="AH21">
         <v>24</v>
       </c>
       <c r="AI21">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AJ21">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="AK21">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AL21">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AM21">
+        <v>12</v>
+      </c>
+      <c r="AN21">
         <v>14.5</v>
       </c>
-      <c r="AN21">
-        <v>12.5</v>
-      </c>
       <c r="AO21">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AP21">
-        <v>4.2</v>
+        <v>30</v>
       </c>
       <c r="AQ21">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AR21">
-        <v>4.1</v>
+        <v>34</v>
       </c>
       <c r="AS21">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AT21">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="AU21">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AV21">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AW21">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AX21">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AY21">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AZ21">
-        <v>3.8</v>
+        <v>15.5</v>
       </c>
       <c r="BA21">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="BB21">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="BC21">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="BD21">
-        <v>4.6</v>
+        <v>18.5</v>
       </c>
       <c r="BE21">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BF21" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="BG21">
         <v>571279</v>
@@ -5879,16 +5654,16 @@
         <v>58805</v>
       </c>
       <c r="BJ21" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="BK21" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
       <c r="BL21" t="s">
-        <v>375</v>
+        <v>315</v>
       </c>
       <c r="BM21" t="s">
-        <v>426</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:65">
@@ -5908,163 +5683,163 @@
         <v>172</v>
       </c>
       <c r="F22">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>1.98</v>
+      </c>
+      <c r="I22">
+        <v>2.02</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22">
         <v>4.2</v>
       </c>
-      <c r="H22">
-        <v>1.94</v>
-      </c>
-      <c r="I22">
-        <v>2</v>
-      </c>
-      <c r="J22">
-        <v>3.8</v>
-      </c>
-      <c r="K22">
-        <v>4.1</v>
-      </c>
       <c r="L22">
-        <v>2.26</v>
+        <v>2.6</v>
       </c>
       <c r="M22">
-        <v>2.44</v>
+        <v>2.7</v>
       </c>
       <c r="N22">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="O22">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="P22">
-        <v>1.66</v>
+        <v>1.55</v>
       </c>
       <c r="Q22">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="R22">
-        <v>2.32</v>
+        <v>2.68</v>
       </c>
       <c r="S22">
-        <v>2.52</v>
+        <v>2.8</v>
       </c>
       <c r="T22">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="U22">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V22">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="W22">
         <v>14.5</v>
       </c>
       <c r="X22">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Y22">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z22">
+        <v>22</v>
+      </c>
+      <c r="AA22">
+        <v>25</v>
+      </c>
+      <c r="AB22">
         <v>20</v>
       </c>
-      <c r="AA22">
-        <v>28</v>
-      </c>
-      <c r="AB22">
+      <c r="AC22">
+        <v>22</v>
+      </c>
+      <c r="AD22">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE22">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AF22">
+        <v>10</v>
+      </c>
+      <c r="AG22">
+        <v>10.5</v>
+      </c>
+      <c r="AH22">
         <v>16</v>
       </c>
-      <c r="AC22">
-        <v>23</v>
-      </c>
-      <c r="AD22">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AE22">
-        <v>11.5</v>
-      </c>
-      <c r="AF22">
-        <v>9.6</v>
-      </c>
-      <c r="AG22">
-        <v>11</v>
-      </c>
-      <c r="AH22">
-        <v>16.5</v>
-      </c>
       <c r="AI22">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AJ22">
-        <v>4.7</v>
+        <v>29</v>
       </c>
       <c r="AK22">
         <v>32</v>
       </c>
       <c r="AL22">
+        <v>14.5</v>
+      </c>
+      <c r="AM22">
+        <v>16</v>
+      </c>
+      <c r="AN22">
         <v>14</v>
       </c>
-      <c r="AM22">
-        <v>19.5</v>
-      </c>
-      <c r="AN22">
-        <v>15</v>
-      </c>
       <c r="AO22">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AP22">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AQ22">
+        <v>26</v>
+      </c>
+      <c r="AR22">
+        <v>50</v>
+      </c>
+      <c r="AS22">
+        <v>70</v>
+      </c>
+      <c r="AT22">
         <v>32</v>
       </c>
-      <c r="AR22">
-        <v>5.2</v>
-      </c>
-      <c r="AS22">
-        <v>95</v>
-      </c>
-      <c r="AT22">
-        <v>5</v>
-      </c>
       <c r="AU22">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AV22">
-        <v>5.1</v>
+        <v>34</v>
       </c>
       <c r="AW22">
+        <v>40</v>
+      </c>
+      <c r="AX22">
+        <v>46</v>
+      </c>
+      <c r="AY22">
         <v>60</v>
       </c>
-      <c r="AX22">
+      <c r="AZ22">
+        <v>18</v>
+      </c>
+      <c r="BA22">
         <v>26</v>
       </c>
-      <c r="AY22">
-        <v>95</v>
-      </c>
-      <c r="AZ22">
-        <v>4.9</v>
-      </c>
-      <c r="BA22">
-        <v>44</v>
-      </c>
       <c r="BB22">
-        <v>3.65</v>
+        <v>8.4</v>
       </c>
       <c r="BC22">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="BD22">
-        <v>5.5</v>
+        <v>19</v>
       </c>
       <c r="BE22">
-        <v>980</v>
+        <v>850</v>
       </c>
       <c r="BF22" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="BG22">
         <v>189832</v>
@@ -6076,16 +5851,16 @@
         <v>58805</v>
       </c>
       <c r="BJ22" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="BK22" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="BL22" t="s">
-        <v>376</v>
+        <v>316</v>
       </c>
       <c r="BM22" t="s">
-        <v>427</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:65">
@@ -6105,163 +5880,163 @@
         <v>173</v>
       </c>
       <c r="F23">
-        <v>1.88</v>
+        <v>4.8</v>
       </c>
       <c r="G23">
-        <v>10</v>
+        <v>5.4</v>
       </c>
       <c r="H23">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="I23">
-        <v>2.08</v>
+        <v>1.86</v>
       </c>
       <c r="J23">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K23">
-        <v>6.6</v>
+        <v>4.3</v>
       </c>
       <c r="L23">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="M23">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="N23">
-        <v>1.62</v>
+        <v>1.84</v>
       </c>
       <c r="O23">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="P23">
-        <v>1.39</v>
+        <v>1.84</v>
       </c>
       <c r="Q23">
-        <v>2.14</v>
+        <v>1.96</v>
       </c>
       <c r="R23">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="S23">
+        <v>2.2</v>
+      </c>
+      <c r="T23">
         <v>13.5</v>
       </c>
-      <c r="T23">
-        <v>10</v>
-      </c>
       <c r="U23">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="V23">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="W23">
+        <v>9.6</v>
+      </c>
+      <c r="X23">
         <v>9.4</v>
       </c>
-      <c r="W23">
-        <v>980</v>
-      </c>
-      <c r="X23">
-        <v>1.3</v>
-      </c>
       <c r="Y23">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z23">
-        <v>1.23</v>
+        <v>5.2</v>
       </c>
       <c r="AA23">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AB23">
-        <v>1.24</v>
+        <v>5.1</v>
       </c>
       <c r="AC23">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AD23">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE23">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AF23">
-        <v>1.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG23">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AH23">
-        <v>2.12</v>
+        <v>14.5</v>
       </c>
       <c r="AI23">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AJ23">
-        <v>1.65</v>
+        <v>5.6</v>
       </c>
       <c r="AK23">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL23">
-        <v>2.36</v>
+        <v>17</v>
       </c>
       <c r="AM23">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AN23">
-        <v>14.5</v>
+        <v>5.1</v>
       </c>
       <c r="AO23">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AP23">
-        <v>1.57</v>
+        <v>5.5</v>
       </c>
       <c r="AQ23">
         <v>980</v>
       </c>
       <c r="AR23">
-        <v>1.65</v>
+        <v>6</v>
       </c>
       <c r="AS23">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT23">
-        <v>1.65</v>
+        <v>5.9</v>
       </c>
       <c r="AU23">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV23">
-        <v>1.65</v>
+        <v>5.9</v>
       </c>
       <c r="AW23">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX23">
-        <v>2.36</v>
+        <v>6</v>
       </c>
       <c r="AY23">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ23">
-        <v>1.55</v>
+        <v>5.8</v>
       </c>
       <c r="BA23">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB23">
-        <v>1.55</v>
+        <v>4</v>
       </c>
       <c r="BC23">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="BD23">
-        <v>1.3</v>
+        <v>6.4</v>
       </c>
       <c r="BE23">
         <v>1000</v>
       </c>
       <c r="BF23" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="BG23">
         <v>5767794</v>
@@ -6273,16 +6048,16 @@
         <v>58805</v>
       </c>
       <c r="BJ23" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="BK23" t="s">
-        <v>326</v>
+        <v>281</v>
       </c>
       <c r="BL23" t="s">
-        <v>377</v>
+        <v>317</v>
       </c>
       <c r="BM23" t="s">
-        <v>428</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:65">
@@ -6302,31 +6077,31 @@
         <v>174</v>
       </c>
       <c r="F24">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="H24">
-        <v>2.64</v>
+        <v>3.7</v>
       </c>
       <c r="I24">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="J24">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="K24">
-        <v>200</v>
+        <v>7.2</v>
       </c>
       <c r="L24">
         <v>1.27</v>
       </c>
       <c r="M24">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="N24">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="O24">
         <v>4.6</v>
@@ -6341,7 +6116,7 @@
         <v>1.12</v>
       </c>
       <c r="S24">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="T24">
         <v>1.49</v>
@@ -6458,7 +6233,7 @@
         <v>1000</v>
       </c>
       <c r="BF24" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="BG24">
         <v>180585</v>
@@ -6470,16 +6245,16 @@
         <v>58805</v>
       </c>
       <c r="BJ24" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="BK24" t="s">
-        <v>327</v>
+        <v>282</v>
       </c>
       <c r="BL24" t="s">
-        <v>378</v>
+        <v>318</v>
       </c>
       <c r="BM24" t="s">
-        <v>429</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:65">
@@ -6499,163 +6274,163 @@
         <v>175</v>
       </c>
       <c r="F25">
+        <v>1.77</v>
+      </c>
+      <c r="G25">
         <v>1.79</v>
       </c>
-      <c r="G25">
-        <v>1.82</v>
-      </c>
       <c r="H25">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="I25">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J25">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K25">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L25">
+        <v>2.04</v>
+      </c>
+      <c r="M25">
+        <v>2.12</v>
+      </c>
+      <c r="N25">
         <v>1.9</v>
       </c>
-      <c r="M25">
-        <v>2.14</v>
-      </c>
-      <c r="N25">
-        <v>1.89</v>
-      </c>
       <c r="O25">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="P25">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="Q25">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="R25">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="S25">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="T25">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U25">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="V25">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="W25">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="X25">
-        <v>7.2</v>
+        <v>36</v>
       </c>
       <c r="Y25">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z25">
-        <v>7.2</v>
+        <v>16.5</v>
       </c>
       <c r="AA25">
         <v>980</v>
       </c>
       <c r="AB25">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC25">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD25">
         <v>7.8</v>
       </c>
       <c r="AE25">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AF25">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG25">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH25">
-        <v>6.8</v>
+        <v>46</v>
       </c>
       <c r="AI25">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AJ25">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AK25">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AL25">
         <v>9.4</v>
       </c>
       <c r="AM25">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AN25">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AO25">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP25">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="AQ25">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AR25">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AS25">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AT25">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AU25">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AV25">
+        <v>30</v>
+      </c>
+      <c r="AW25">
+        <v>36</v>
+      </c>
+      <c r="AX25">
         <v>28</v>
       </c>
-      <c r="AW25">
-        <v>40</v>
-      </c>
-      <c r="AX25">
-        <v>7.6</v>
-      </c>
       <c r="AY25">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AZ25">
-        <v>4.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BA25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB25">
-        <v>6.8</v>
+        <v>44</v>
       </c>
       <c r="BC25">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="BD25">
-        <v>7.6</v>
+        <v>18</v>
       </c>
       <c r="BE25">
         <v>1000</v>
       </c>
       <c r="BF25" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="BG25">
         <v>10501</v>
@@ -6667,16 +6442,16 @@
         <v>58805</v>
       </c>
       <c r="BJ25" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="BK25" t="s">
-        <v>328</v>
+        <v>283</v>
       </c>
       <c r="BL25" t="s">
-        <v>379</v>
+        <v>319</v>
       </c>
       <c r="BM25" t="s">
-        <v>430</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:65">
@@ -6696,163 +6471,163 @@
         <v>176</v>
       </c>
       <c r="F26">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="G26">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="I26">
+        <v>2.12</v>
+      </c>
+      <c r="J26">
+        <v>3.55</v>
+      </c>
+      <c r="K26">
+        <v>3.65</v>
+      </c>
+      <c r="L26">
+        <v>1.95</v>
+      </c>
+      <c r="M26">
+        <v>2.02</v>
+      </c>
+      <c r="N26">
+        <v>1.99</v>
+      </c>
+      <c r="O26">
+        <v>2.06</v>
+      </c>
+      <c r="P26">
+        <v>1.86</v>
+      </c>
+      <c r="Q26">
+        <v>1.93</v>
+      </c>
+      <c r="R26">
         <v>2.08</v>
       </c>
-      <c r="J26">
-        <v>3.35</v>
-      </c>
-      <c r="K26">
-        <v>3.55</v>
-      </c>
-      <c r="L26">
-        <v>1.72</v>
-      </c>
-      <c r="M26">
-        <v>1.8</v>
-      </c>
-      <c r="N26">
-        <v>2.26</v>
-      </c>
-      <c r="O26">
-        <v>2.4</v>
-      </c>
-      <c r="P26">
-        <v>2.02</v>
-      </c>
-      <c r="Q26">
-        <v>2.12</v>
-      </c>
-      <c r="R26">
-        <v>1.89</v>
-      </c>
       <c r="S26">
-        <v>1.98</v>
+        <v>2.18</v>
       </c>
       <c r="T26">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="U26">
+        <v>980</v>
+      </c>
+      <c r="V26">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="W26">
+        <v>9.6</v>
+      </c>
+      <c r="X26">
         <v>11.5</v>
       </c>
-      <c r="V26">
-        <v>7.4</v>
-      </c>
-      <c r="W26">
-        <v>8.4</v>
-      </c>
-      <c r="X26">
-        <v>10</v>
-      </c>
       <c r="Y26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z26">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AA26">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AB26">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AC26">
         <v>14</v>
       </c>
       <c r="AD26">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AE26">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AF26">
         <v>9.6</v>
       </c>
       <c r="AG26">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH26">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AI26">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AJ26">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AK26">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AL26">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AM26">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AN26">
         <v>17</v>
       </c>
       <c r="AO26">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AP26">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ26">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AR26">
-        <v>8.800000000000001</v>
+        <v>55</v>
       </c>
       <c r="AS26">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AT26">
-        <v>8.4</v>
+        <v>42</v>
       </c>
       <c r="AU26">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="AV26">
-        <v>8.6</v>
+        <v>48</v>
       </c>
       <c r="AW26">
+        <v>60</v>
+      </c>
+      <c r="AX26">
         <v>85</v>
       </c>
-      <c r="AX26">
-        <v>26</v>
-      </c>
       <c r="AY26">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AZ26">
-        <v>8.4</v>
+        <v>16</v>
       </c>
       <c r="BA26">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="BB26">
-        <v>6.4</v>
+        <v>14.5</v>
       </c>
       <c r="BC26">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="BD26">
-        <v>9.6</v>
+        <v>18</v>
       </c>
       <c r="BE26">
         <v>1000</v>
       </c>
       <c r="BF26" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="BG26">
         <v>269792</v>
@@ -6864,16 +6639,16 @@
         <v>58805</v>
       </c>
       <c r="BJ26" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="BK26" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="BL26" t="s">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="BM26" t="s">
-        <v>431</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:65">
@@ -6893,163 +6668,163 @@
         <v>177</v>
       </c>
       <c r="F27">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="G27">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="H27">
         <v>6.2</v>
       </c>
       <c r="I27">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K27">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L27">
-        <v>1.91</v>
+        <v>2.12</v>
       </c>
       <c r="M27">
-        <v>1.99</v>
+        <v>2.16</v>
       </c>
       <c r="N27">
+        <v>1.86</v>
+      </c>
+      <c r="O27">
+        <v>1.9</v>
+      </c>
+      <c r="P27">
+        <v>1.92</v>
+      </c>
+      <c r="Q27">
+        <v>1.98</v>
+      </c>
+      <c r="R27">
         <v>2.02</v>
       </c>
-      <c r="O27">
+      <c r="S27">
         <v>2.1</v>
       </c>
-      <c r="P27">
-        <v>2.02</v>
-      </c>
-      <c r="Q27">
-        <v>2.24</v>
-      </c>
-      <c r="R27">
-        <v>1.81</v>
-      </c>
-      <c r="S27">
-        <v>1.99</v>
-      </c>
       <c r="T27">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="U27">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="V27">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="W27">
         <v>22</v>
       </c>
       <c r="X27">
-        <v>7.2</v>
+        <v>46</v>
       </c>
       <c r="Y27">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Z27">
-        <v>7.8</v>
+        <v>16</v>
       </c>
       <c r="AA27">
-        <v>980</v>
+        <v>180</v>
       </c>
       <c r="AB27">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="AC27">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD27">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AE27">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AF27">
         <v>21</v>
       </c>
       <c r="AG27">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AH27">
-        <v>7.6</v>
+        <v>48</v>
       </c>
       <c r="AI27">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AJ27">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK27">
+        <v>9.6</v>
+      </c>
+      <c r="AL27">
         <v>9.4</v>
       </c>
-      <c r="AL27">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AM27">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AN27">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AO27">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AP27">
-        <v>7.6</v>
+        <v>55</v>
       </c>
       <c r="AQ27">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="AR27">
         <v>13.5</v>
       </c>
       <c r="AS27">
+        <v>15</v>
+      </c>
+      <c r="AT27">
+        <v>14.5</v>
+      </c>
+      <c r="AU27">
         <v>16.5</v>
       </c>
-      <c r="AT27">
-        <v>15.5</v>
-      </c>
-      <c r="AU27">
-        <v>20</v>
-      </c>
       <c r="AV27">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="AW27">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AX27">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="AY27">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AZ27">
-        <v>4.7</v>
+        <v>8</v>
       </c>
       <c r="BA27">
-        <v>11</v>
+        <v>8.6</v>
       </c>
       <c r="BB27">
-        <v>7.6</v>
+        <v>75</v>
       </c>
       <c r="BC27">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="BD27">
-        <v>8.199999999999999</v>
+        <v>17.5</v>
       </c>
       <c r="BE27">
         <v>1000</v>
       </c>
       <c r="BF27" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="BG27">
         <v>44800</v>
@@ -7061,16 +6836,16 @@
         <v>58805</v>
       </c>
       <c r="BJ27" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="BK27" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
       <c r="BL27" t="s">
-        <v>381</v>
+        <v>321</v>
       </c>
       <c r="BM27" t="s">
-        <v>432</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="1:65">
@@ -7090,163 +6865,163 @@
         <v>178</v>
       </c>
       <c r="F28">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="G28">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H28">
-        <v>2.98</v>
+        <v>3.35</v>
       </c>
       <c r="I28">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J28">
         <v>3.3</v>
       </c>
       <c r="K28">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L28">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="M28">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="N28">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="O28">
         <v>2.24</v>
       </c>
       <c r="P28">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="Q28">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R28">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="S28">
-        <v>2.26</v>
+        <v>2.14</v>
       </c>
       <c r="T28">
+        <v>10</v>
+      </c>
+      <c r="U28">
+        <v>11.5</v>
+      </c>
+      <c r="V28">
         <v>11</v>
-      </c>
-      <c r="U28">
-        <v>12.5</v>
-      </c>
-      <c r="V28">
-        <v>10</v>
       </c>
       <c r="W28">
         <v>12</v>
       </c>
       <c r="X28">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="Y28">
         <v>22</v>
       </c>
       <c r="Z28">
-        <v>9.199999999999999</v>
+        <v>40</v>
       </c>
       <c r="AA28">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB28">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC28">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD28">
         <v>6.8</v>
       </c>
       <c r="AE28">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AF28">
+        <v>13</v>
+      </c>
+      <c r="AG28">
+        <v>14.5</v>
+      </c>
+      <c r="AH28">
+        <v>36</v>
+      </c>
+      <c r="AI28">
+        <v>40</v>
+      </c>
+      <c r="AJ28">
+        <v>13</v>
+      </c>
+      <c r="AK28">
+        <v>14.5</v>
+      </c>
+      <c r="AL28">
+        <v>10.5</v>
+      </c>
+      <c r="AM28">
         <v>11.5</v>
       </c>
-      <c r="AG28">
-        <v>13.5</v>
-      </c>
-      <c r="AH28">
-        <v>26</v>
-      </c>
-      <c r="AI28">
-        <v>38</v>
-      </c>
-      <c r="AJ28">
-        <v>15</v>
-      </c>
-      <c r="AK28">
-        <v>18</v>
-      </c>
-      <c r="AL28">
-        <v>11</v>
-      </c>
-      <c r="AM28">
-        <v>12.5</v>
-      </c>
       <c r="AN28">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AO28">
+        <v>19</v>
+      </c>
+      <c r="AP28">
+        <v>50</v>
+      </c>
+      <c r="AQ28">
+        <v>55</v>
+      </c>
+      <c r="AR28">
+        <v>30</v>
+      </c>
+      <c r="AS28">
+        <v>34</v>
+      </c>
+      <c r="AT28">
+        <v>25</v>
+      </c>
+      <c r="AU28">
+        <v>28</v>
+      </c>
+      <c r="AV28">
+        <v>40</v>
+      </c>
+      <c r="AW28">
+        <v>46</v>
+      </c>
+      <c r="AX28">
+        <v>85</v>
+      </c>
+      <c r="AY28">
+        <v>120</v>
+      </c>
+      <c r="AZ28">
         <v>20</v>
       </c>
-      <c r="AP28">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AQ28">
-        <v>980</v>
-      </c>
-      <c r="AR28">
-        <v>8.6</v>
-      </c>
-      <c r="AS28">
-        <v>40</v>
-      </c>
-      <c r="AT28">
+      <c r="BA28">
         <v>24</v>
       </c>
-      <c r="AU28">
-        <v>32</v>
-      </c>
-      <c r="AV28">
-        <v>9</v>
-      </c>
-      <c r="AW28">
-        <v>980</v>
-      </c>
-      <c r="AX28">
-        <v>26</v>
-      </c>
-      <c r="AY28">
-        <v>980</v>
-      </c>
-      <c r="AZ28">
-        <v>7.6</v>
-      </c>
-      <c r="BA28">
-        <v>25</v>
-      </c>
       <c r="BB28">
-        <v>8.199999999999999</v>
+        <v>34</v>
       </c>
       <c r="BC28">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="BD28">
-        <v>11</v>
+        <v>19.5</v>
       </c>
       <c r="BE28">
         <v>1000</v>
       </c>
       <c r="BF28" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="BG28">
         <v>1029663</v>
@@ -7258,16 +7033,16 @@
         <v>58805</v>
       </c>
       <c r="BJ28" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="BK28" t="s">
-        <v>331</v>
+        <v>286</v>
       </c>
       <c r="BL28" t="s">
-        <v>382</v>
+        <v>322</v>
       </c>
       <c r="BM28" t="s">
-        <v>433</v>
+        <v>358</v>
       </c>
     </row>
     <row r="29" spans="1:65">
@@ -7287,163 +7062,163 @@
         <v>179</v>
       </c>
       <c r="F29">
-        <v>2.42</v>
+        <v>2.64</v>
       </c>
       <c r="G29">
-        <v>2.58</v>
+        <v>2.72</v>
       </c>
       <c r="H29">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="I29">
-        <v>3.3</v>
+        <v>2.94</v>
       </c>
       <c r="J29">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K29">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L29">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="M29">
         <v>2.06</v>
       </c>
       <c r="N29">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="O29">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="P29">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="Q29">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="R29">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="S29">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="T29">
+        <v>12</v>
+      </c>
+      <c r="U29">
+        <v>14</v>
+      </c>
+      <c r="V29">
         <v>11.5</v>
       </c>
-      <c r="U29">
-        <v>13.5</v>
-      </c>
-      <c r="V29">
-        <v>11</v>
-      </c>
       <c r="W29">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="X29">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y29">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Z29">
-        <v>8.800000000000001</v>
+        <v>38</v>
       </c>
       <c r="AA29">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AB29">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AC29">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD29">
         <v>7.2</v>
       </c>
       <c r="AE29">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AF29">
+        <v>11.5</v>
+      </c>
+      <c r="AG29">
         <v>12.5</v>
       </c>
-      <c r="AG29">
-        <v>14</v>
-      </c>
       <c r="AH29">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI29">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AJ29">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK29">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL29">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AM29">
         <v>12</v>
       </c>
       <c r="AN29">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO29">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AP29">
-        <v>8.6</v>
+        <v>38</v>
       </c>
       <c r="AQ29">
+        <v>44</v>
+      </c>
+      <c r="AR29">
+        <v>32</v>
+      </c>
+      <c r="AS29">
+        <v>40</v>
+      </c>
+      <c r="AT29">
+        <v>24</v>
+      </c>
+      <c r="AU29">
+        <v>28</v>
+      </c>
+      <c r="AV29">
+        <v>34</v>
+      </c>
+      <c r="AW29">
+        <v>40</v>
+      </c>
+      <c r="AX29">
         <v>60</v>
       </c>
-      <c r="AR29">
-        <v>27</v>
-      </c>
-      <c r="AS29">
-        <v>42</v>
-      </c>
-      <c r="AT29">
-        <v>20</v>
-      </c>
-      <c r="AU29">
-        <v>34</v>
-      </c>
-      <c r="AV29">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AW29">
-        <v>50</v>
-      </c>
-      <c r="AX29">
+      <c r="AY29">
+        <v>90</v>
+      </c>
+      <c r="AZ29">
+        <v>18.5</v>
+      </c>
+      <c r="BA29">
+        <v>24</v>
+      </c>
+      <c r="BB29">
+        <v>22</v>
+      </c>
+      <c r="BC29">
         <v>26</v>
       </c>
-      <c r="AY29">
-        <v>980</v>
-      </c>
-      <c r="AZ29">
-        <v>6.8</v>
-      </c>
-      <c r="BA29">
-        <v>980</v>
-      </c>
-      <c r="BB29">
-        <v>7.8</v>
-      </c>
-      <c r="BC29">
-        <v>980</v>
-      </c>
       <c r="BD29">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="BE29">
         <v>1000</v>
       </c>
       <c r="BF29" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="BG29">
         <v>4864974</v>
@@ -7455,16 +7230,16 @@
         <v>58805</v>
       </c>
       <c r="BJ29" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="BK29" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
       <c r="BL29" t="s">
-        <v>383</v>
+        <v>323</v>
       </c>
       <c r="BM29" t="s">
-        <v>434</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:65">
@@ -7484,163 +7259,163 @@
         <v>180</v>
       </c>
       <c r="F30">
-        <v>2.12</v>
+        <v>2.44</v>
       </c>
       <c r="G30">
-        <v>2.22</v>
+        <v>2.54</v>
       </c>
       <c r="H30">
-        <v>3.95</v>
+        <v>3.15</v>
       </c>
       <c r="I30">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="J30">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="K30">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L30">
-        <v>1.71</v>
+        <v>1.94</v>
       </c>
       <c r="M30">
-        <v>1.79</v>
+        <v>1.99</v>
       </c>
       <c r="N30">
-        <v>2.28</v>
+        <v>2.02</v>
       </c>
       <c r="O30">
-        <v>2.42</v>
+        <v>2.08</v>
       </c>
       <c r="P30">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="Q30">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="R30">
-        <v>1.92</v>
+        <v>2.18</v>
       </c>
       <c r="S30">
-        <v>2.02</v>
+        <v>2.26</v>
       </c>
       <c r="T30">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U30">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="V30">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="W30">
         <v>13</v>
       </c>
       <c r="X30">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y30">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="Z30">
-        <v>9.6</v>
+        <v>38</v>
       </c>
       <c r="AA30">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AB30">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC30">
+        <v>11</v>
+      </c>
+      <c r="AD30">
         <v>7.2</v>
-      </c>
-      <c r="AC30">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD30">
-        <v>7</v>
       </c>
       <c r="AE30">
         <v>7.8</v>
       </c>
       <c r="AF30">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AG30">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="AH30">
-        <v>9.6</v>
+        <v>26</v>
       </c>
       <c r="AI30">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AJ30">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AK30">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL30">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AM30">
         <v>11.5</v>
       </c>
       <c r="AN30">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AO30">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AP30">
-        <v>9.6</v>
+        <v>42</v>
       </c>
       <c r="AQ30">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AR30">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AS30">
         <v>34</v>
       </c>
       <c r="AT30">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AU30">
+        <v>27</v>
+      </c>
+      <c r="AV30">
+        <v>34</v>
+      </c>
+      <c r="AW30">
+        <v>40</v>
+      </c>
+      <c r="AX30">
+        <v>65</v>
+      </c>
+      <c r="AY30">
+        <v>95</v>
+      </c>
+      <c r="AZ30">
+        <v>19</v>
+      </c>
+      <c r="BA30">
+        <v>21</v>
+      </c>
+      <c r="BB30">
+        <v>24</v>
+      </c>
+      <c r="BC30">
         <v>32</v>
       </c>
-      <c r="AV30">
-        <v>9.4</v>
-      </c>
-      <c r="AW30">
-        <v>60</v>
-      </c>
-      <c r="AX30">
-        <v>10</v>
-      </c>
-      <c r="AY30">
-        <v>980</v>
-      </c>
-      <c r="AZ30">
-        <v>7.2</v>
-      </c>
-      <c r="BA30">
-        <v>22</v>
-      </c>
-      <c r="BB30">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="BC30">
-        <v>80</v>
-      </c>
       <c r="BD30">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="BE30">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="BF30" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="BG30">
         <v>310510</v>
@@ -7652,16 +7427,16 @@
         <v>58805</v>
       </c>
       <c r="BJ30" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="BK30" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="BL30" t="s">
-        <v>384</v>
+        <v>324</v>
       </c>
       <c r="BM30" t="s">
-        <v>435</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:65">
@@ -7681,163 +7456,163 @@
         <v>181</v>
       </c>
       <c r="F31">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="G31">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I31">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J31">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K31">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L31">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="M31">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="N31">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="O31">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="P31">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="Q31">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R31">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="S31">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="T31">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="U31">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="V31">
         <v>10.5</v>
       </c>
       <c r="W31">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X31">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Y31">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Z31">
-        <v>9.199999999999999</v>
+        <v>14.5</v>
       </c>
       <c r="AA31">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AB31">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AC31">
         <v>7.8</v>
       </c>
       <c r="AD31">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AE31">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AF31">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AG31">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AH31">
-        <v>8.800000000000001</v>
+        <v>46</v>
       </c>
       <c r="AI31">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AJ31">
+        <v>11</v>
+      </c>
+      <c r="AK31">
+        <v>12</v>
+      </c>
+      <c r="AL31">
         <v>10.5</v>
-      </c>
-      <c r="AK31">
-        <v>13</v>
-      </c>
-      <c r="AL31">
-        <v>10</v>
       </c>
       <c r="AM31">
         <v>12</v>
       </c>
       <c r="AN31">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO31">
+        <v>23</v>
+      </c>
+      <c r="AP31">
+        <v>44</v>
+      </c>
+      <c r="AQ31">
+        <v>85</v>
+      </c>
+      <c r="AR31">
         <v>25</v>
       </c>
-      <c r="AP31">
-        <v>9</v>
-      </c>
-      <c r="AQ31">
-        <v>980</v>
-      </c>
-      <c r="AR31">
-        <v>22</v>
-      </c>
       <c r="AS31">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AT31">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AU31">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AV31">
-        <v>8.6</v>
+        <v>42</v>
       </c>
       <c r="AW31">
         <v>60</v>
       </c>
       <c r="AX31">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="AY31">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="AZ31">
-        <v>7.2</v>
+        <v>19.5</v>
       </c>
       <c r="BA31">
         <v>25</v>
       </c>
       <c r="BB31">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BC31">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="BD31">
-        <v>10</v>
+        <v>17.5</v>
       </c>
       <c r="BE31">
         <v>1000</v>
       </c>
       <c r="BF31" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="BG31">
         <v>44791</v>
@@ -7849,16 +7624,16 @@
         <v>58805</v>
       </c>
       <c r="BJ31" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="BK31" t="s">
-        <v>334</v>
+        <v>289</v>
       </c>
       <c r="BL31" t="s">
-        <v>385</v>
+        <v>325</v>
       </c>
       <c r="BM31" t="s">
-        <v>436</v>
+        <v>361</v>
       </c>
     </row>
     <row r="32" spans="1:65">
@@ -7878,163 +7653,163 @@
         <v>182</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="G32">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="H32">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="I32">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="J32">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="K32">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="L32">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="M32">
-        <v>2.46</v>
+        <v>2.7</v>
       </c>
       <c r="N32">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="O32">
-        <v>1.77</v>
+        <v>1.62</v>
       </c>
       <c r="P32">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Q32">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="R32">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="S32">
-        <v>2.62</v>
+        <v>2.76</v>
       </c>
       <c r="T32">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="U32">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="V32">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="W32">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="X32">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y32">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z32">
         <v>27</v>
       </c>
       <c r="AA32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB32">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AC32">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AD32">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE32">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AF32">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG32">
         <v>11.5</v>
       </c>
       <c r="AH32">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AI32">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ32">
         <v>20</v>
       </c>
       <c r="AK32">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL32">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AM32">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AN32">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO32">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AP32">
+        <v>25</v>
+      </c>
+      <c r="AQ32">
         <v>28</v>
       </c>
-      <c r="AQ32">
-        <v>50</v>
-      </c>
       <c r="AR32">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AS32">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AT32">
         <v>25</v>
       </c>
       <c r="AU32">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AV32">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AW32">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AX32">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AY32">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AZ32">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="BA32">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="BB32">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="BC32">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="BD32">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="BE32">
         <v>980</v>
       </c>
       <c r="BF32" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="BG32">
         <v>18559</v>
@@ -8046,16 +7821,16 @@
         <v>58805</v>
       </c>
       <c r="BJ32" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="BK32" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="BL32" t="s">
-        <v>386</v>
+        <v>326</v>
       </c>
       <c r="BM32" t="s">
-        <v>437</v>
+        <v>362</v>
       </c>
     </row>
     <row r="33" spans="1:65">
@@ -8075,163 +7850,163 @@
         <v>183</v>
       </c>
       <c r="F33">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
       <c r="G33">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="H33">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="I33">
-        <v>2.12</v>
+        <v>1.99</v>
       </c>
       <c r="J33">
         <v>3</v>
       </c>
       <c r="K33">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L33">
+        <v>1.37</v>
+      </c>
+      <c r="M33">
         <v>1.4</v>
       </c>
-      <c r="M33">
-        <v>1.48</v>
-      </c>
       <c r="N33">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="O33">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P33">
-        <v>2.56</v>
+        <v>2.8</v>
       </c>
       <c r="Q33">
-        <v>2.76</v>
+        <v>2.98</v>
       </c>
       <c r="R33">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="S33">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="T33">
+        <v>5.6</v>
+      </c>
+      <c r="U33">
         <v>6.2</v>
       </c>
-      <c r="U33">
-        <v>7</v>
-      </c>
       <c r="V33">
+        <v>4.8</v>
+      </c>
+      <c r="W33">
         <v>5.3</v>
       </c>
-      <c r="W33">
-        <v>5.8</v>
-      </c>
       <c r="X33">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="Y33">
+        <v>9.4</v>
+      </c>
+      <c r="Z33">
+        <v>22</v>
+      </c>
+      <c r="AA33">
+        <v>25</v>
+      </c>
+      <c r="AB33">
         <v>10.5</v>
       </c>
-      <c r="Z33">
-        <v>23</v>
-      </c>
-      <c r="AA33">
-        <v>27</v>
-      </c>
-      <c r="AB33">
-        <v>10</v>
-      </c>
       <c r="AC33">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD33">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AE33">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AF33">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG33">
         <v>13</v>
       </c>
       <c r="AH33">
+        <v>32</v>
+      </c>
+      <c r="AI33">
+        <v>38</v>
+      </c>
+      <c r="AJ33">
+        <v>36</v>
+      </c>
+      <c r="AK33">
+        <v>42</v>
+      </c>
+      <c r="AL33">
+        <v>26</v>
+      </c>
+      <c r="AM33">
         <v>29</v>
       </c>
-      <c r="AI33">
+      <c r="AN33">
         <v>36</v>
       </c>
-      <c r="AJ33">
-        <v>29</v>
-      </c>
-      <c r="AK33">
-        <v>36</v>
-      </c>
-      <c r="AL33">
+      <c r="AO33">
+        <v>42</v>
+      </c>
+      <c r="AP33">
+        <v>17.5</v>
+      </c>
+      <c r="AQ33">
+        <v>110</v>
+      </c>
+      <c r="AR33">
+        <v>18</v>
+      </c>
+      <c r="AS33">
+        <v>290</v>
+      </c>
+      <c r="AT33">
+        <v>18.5</v>
+      </c>
+      <c r="AU33">
+        <v>170</v>
+      </c>
+      <c r="AV33">
+        <v>19</v>
+      </c>
+      <c r="AW33">
+        <v>240</v>
+      </c>
+      <c r="AX33">
         <v>21</v>
       </c>
-      <c r="AM33">
-        <v>25</v>
-      </c>
-      <c r="AN33">
-        <v>29</v>
-      </c>
-      <c r="AO33">
-        <v>38</v>
-      </c>
-      <c r="AP33">
-        <v>14</v>
-      </c>
-      <c r="AQ33">
-        <v>95</v>
-      </c>
-      <c r="AR33">
-        <v>15.5</v>
-      </c>
-      <c r="AS33">
-        <v>170</v>
-      </c>
-      <c r="AT33">
-        <v>15</v>
-      </c>
-      <c r="AU33">
-        <v>130</v>
-      </c>
-      <c r="AV33">
-        <v>15.5</v>
-      </c>
-      <c r="AW33">
-        <v>980</v>
-      </c>
-      <c r="AX33">
-        <v>16</v>
-      </c>
       <c r="AY33">
-        <v>370</v>
+        <v>480</v>
       </c>
       <c r="AZ33">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="BA33">
-        <v>310</v>
+        <v>400</v>
       </c>
       <c r="BB33">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="BC33">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="BD33">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BE33">
         <v>1000</v>
       </c>
       <c r="BF33" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="BG33">
         <v>669343</v>
@@ -8243,16 +8018,16 @@
         <v>58805</v>
       </c>
       <c r="BJ33" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="BK33" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="BL33" t="s">
-        <v>387</v>
+        <v>327</v>
       </c>
       <c r="BM33" t="s">
-        <v>438</v>
+        <v>363</v>
       </c>
     </row>
     <row r="34" spans="1:65">
@@ -8275,7 +8050,7 @@
         <v>2.26</v>
       </c>
       <c r="G34">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H34">
         <v>3.85</v>
@@ -8284,151 +8059,151 @@
         <v>4.1</v>
       </c>
       <c r="J34">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K34">
         <v>3.25</v>
       </c>
       <c r="L34">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="M34">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="N34">
+        <v>2.54</v>
+      </c>
+      <c r="O34">
         <v>2.68</v>
       </c>
-      <c r="O34">
-        <v>2.92</v>
-      </c>
       <c r="P34">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q34">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="R34">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="S34">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="T34">
+        <v>8.4</v>
+      </c>
+      <c r="U34">
+        <v>9.4</v>
+      </c>
+      <c r="V34">
+        <v>10</v>
+      </c>
+      <c r="W34">
+        <v>11.5</v>
+      </c>
+      <c r="X34">
+        <v>23</v>
+      </c>
+      <c r="Y34">
+        <v>27</v>
+      </c>
+      <c r="Z34">
+        <v>50</v>
+      </c>
+      <c r="AA34">
+        <v>85</v>
+      </c>
+      <c r="AB34">
+        <v>7</v>
+      </c>
+      <c r="AC34">
         <v>7.8</v>
       </c>
-      <c r="U34">
-        <v>9.6</v>
-      </c>
-      <c r="V34">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="W34">
-        <v>12.5</v>
-      </c>
-      <c r="X34">
-        <v>21</v>
-      </c>
-      <c r="Y34">
-        <v>30</v>
-      </c>
-      <c r="Z34">
-        <v>6.4</v>
-      </c>
-      <c r="AA34">
-        <v>980</v>
-      </c>
-      <c r="AB34">
+      <c r="AD34">
         <v>6.8</v>
       </c>
-      <c r="AC34">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD34">
-        <v>6.4</v>
-      </c>
       <c r="AE34">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AF34">
         <v>15</v>
       </c>
       <c r="AG34">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AH34">
-        <v>6.4</v>
+        <v>50</v>
       </c>
       <c r="AI34">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AJ34">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK34">
+        <v>12.5</v>
+      </c>
+      <c r="AL34">
+        <v>10.5</v>
+      </c>
+      <c r="AM34">
+        <v>12</v>
+      </c>
+      <c r="AN34">
+        <v>21</v>
+      </c>
+      <c r="AO34">
+        <v>23</v>
+      </c>
+      <c r="AP34">
+        <v>60</v>
+      </c>
+      <c r="AQ34">
+        <v>85</v>
+      </c>
+      <c r="AR34">
+        <v>26</v>
+      </c>
+      <c r="AS34">
+        <v>30</v>
+      </c>
+      <c r="AT34">
+        <v>26</v>
+      </c>
+      <c r="AU34">
+        <v>29</v>
+      </c>
+      <c r="AV34">
+        <v>48</v>
+      </c>
+      <c r="AW34">
+        <v>60</v>
+      </c>
+      <c r="AX34">
+        <v>26</v>
+      </c>
+      <c r="AY34">
+        <v>980</v>
+      </c>
+      <c r="AZ34">
+        <v>24</v>
+      </c>
+      <c r="BA34">
+        <v>28</v>
+      </c>
+      <c r="BB34">
         <v>14</v>
       </c>
-      <c r="AL34">
-        <v>10</v>
-      </c>
-      <c r="AM34">
-        <v>13</v>
-      </c>
-      <c r="AN34">
-        <v>20</v>
-      </c>
-      <c r="AO34">
-        <v>26</v>
-      </c>
-      <c r="AP34">
-        <v>6.4</v>
-      </c>
-      <c r="AQ34">
-        <v>980</v>
-      </c>
-      <c r="AR34">
-        <v>24</v>
-      </c>
-      <c r="AS34">
-        <v>34</v>
-      </c>
-      <c r="AT34">
-        <v>24</v>
-      </c>
-      <c r="AU34">
-        <v>34</v>
-      </c>
-      <c r="AV34">
-        <v>6.2</v>
-      </c>
-      <c r="AW34">
-        <v>980</v>
-      </c>
-      <c r="AX34">
-        <v>7.2</v>
-      </c>
-      <c r="AY34">
-        <v>980</v>
-      </c>
-      <c r="AZ34">
-        <v>5.7</v>
-      </c>
-      <c r="BA34">
-        <v>32</v>
-      </c>
-      <c r="BB34">
-        <v>6.4</v>
-      </c>
       <c r="BC34">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="BD34">
-        <v>6.8</v>
+        <v>17.5</v>
       </c>
       <c r="BE34">
         <v>1000</v>
       </c>
       <c r="BF34" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="BG34">
         <v>10572628</v>
@@ -8440,16 +8215,16 @@
         <v>58805</v>
       </c>
       <c r="BJ34" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="BK34" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
       <c r="BL34" t="s">
-        <v>388</v>
+        <v>328</v>
       </c>
       <c r="BM34" t="s">
-        <v>439</v>
+        <v>364</v>
       </c>
     </row>
     <row r="35" spans="1:65">
@@ -8469,55 +8244,55 @@
         <v>185</v>
       </c>
       <c r="F35">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="G35">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="H35">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="I35">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="J35">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K35">
         <v>3.8</v>
       </c>
       <c r="L35">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="M35">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="N35">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="O35">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="P35">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="Q35">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="R35">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S35">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="T35">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U35">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="V35">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="W35">
         <v>12</v>
@@ -8526,19 +8301,19 @@
         <v>13.5</v>
       </c>
       <c r="Y35">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z35">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AA35">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AB35">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC35">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AD35">
         <v>7.8</v>
@@ -8553,79 +8328,79 @@
         <v>11</v>
       </c>
       <c r="AH35">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI35">
+        <v>21</v>
+      </c>
+      <c r="AJ35">
         <v>23</v>
       </c>
-      <c r="AJ35">
-        <v>21</v>
-      </c>
       <c r="AK35">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL35">
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="AM35">
         <v>14.5</v>
       </c>
       <c r="AN35">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AO35">
         <v>17</v>
       </c>
       <c r="AP35">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AQ35">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AR35">
-        <v>15.5</v>
+        <v>55</v>
       </c>
       <c r="AS35">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AT35">
-        <v>12.5</v>
+        <v>29</v>
       </c>
       <c r="AU35">
+        <v>46</v>
+      </c>
+      <c r="AV35">
         <v>36</v>
-      </c>
-      <c r="AV35">
-        <v>38</v>
       </c>
       <c r="AW35">
         <v>44</v>
       </c>
       <c r="AX35">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="AY35">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AZ35">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="BA35">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="BB35">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="BC35">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="BD35">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BE35">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BF35" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="BG35">
         <v>148734</v>
@@ -8637,16 +8412,16 @@
         <v>58805</v>
       </c>
       <c r="BJ35" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="BK35" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="BL35" t="s">
-        <v>389</v>
+        <v>329</v>
       </c>
       <c r="BM35" t="s">
-        <v>440</v>
+        <v>365</v>
       </c>
     </row>
     <row r="36" spans="1:65">
@@ -8666,79 +8441,79 @@
         <v>186</v>
       </c>
       <c r="F36">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="G36">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H36">
-        <v>2.72</v>
+        <v>2.58</v>
       </c>
       <c r="I36">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="J36">
+        <v>3.2</v>
+      </c>
+      <c r="K36">
         <v>3.3</v>
       </c>
-      <c r="K36">
-        <v>3.35</v>
-      </c>
       <c r="L36">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="M36">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="N36">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O36">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="P36">
+        <v>1.96</v>
+      </c>
+      <c r="Q36">
+        <v>2.08</v>
+      </c>
+      <c r="R36">
         <v>1.93</v>
       </c>
-      <c r="Q36">
+      <c r="S36">
         <v>2.04</v>
       </c>
-      <c r="R36">
-        <v>1.98</v>
-      </c>
-      <c r="S36">
-        <v>2.08</v>
-      </c>
       <c r="T36">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="U36">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="V36">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="W36">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X36">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y36">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Z36">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA36">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AB36">
         <v>9.6</v>
       </c>
       <c r="AC36">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="AD36">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AE36">
         <v>7.6</v>
@@ -8750,79 +8525,79 @@
         <v>12.5</v>
       </c>
       <c r="AH36">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI36">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ36">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AK36">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL36">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM36">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AN36">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO36">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP36">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AQ36">
         <v>55</v>
       </c>
       <c r="AR36">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AS36">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AT36">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AU36">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AV36">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AW36">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AX36">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="AY36">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AZ36">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="BA36">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="BB36">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="BC36">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BD36">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="BE36">
         <v>1000</v>
       </c>
       <c r="BF36" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="BG36">
         <v>256400</v>
@@ -8834,16 +8609,16 @@
         <v>58805</v>
       </c>
       <c r="BJ36" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="BK36" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="BL36" t="s">
-        <v>390</v>
+        <v>330</v>
       </c>
       <c r="BM36" t="s">
-        <v>441</v>
+        <v>366</v>
       </c>
     </row>
     <row r="37" spans="1:65">
@@ -8863,16 +8638,16 @@
         <v>187</v>
       </c>
       <c r="F37">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G37">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="H37">
+        <v>3.2</v>
+      </c>
+      <c r="I37">
         <v>3.25</v>
-      </c>
-      <c r="I37">
-        <v>3.3</v>
       </c>
       <c r="J37">
         <v>3.45</v>
@@ -8881,7 +8656,7 @@
         <v>3.5</v>
       </c>
       <c r="L37">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="M37">
         <v>1.93</v>
@@ -8890,22 +8665,22 @@
         <v>2.08</v>
       </c>
       <c r="O37">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="P37">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="Q37">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="R37">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="S37">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="T37">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U37">
         <v>12.5</v>
@@ -8929,16 +8704,16 @@
         <v>60</v>
       </c>
       <c r="AB37">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC37">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD37">
         <v>7</v>
       </c>
       <c r="AE37">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AF37">
         <v>12.5</v>
@@ -8947,13 +8722,13 @@
         <v>14</v>
       </c>
       <c r="AH37">
-        <v>12.5</v>
+        <v>32</v>
       </c>
       <c r="AI37">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AJ37">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AK37">
         <v>15</v>
@@ -8962,19 +8737,19 @@
         <v>10.5</v>
       </c>
       <c r="AM37">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AN37">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO37">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AP37">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="AQ37">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AR37">
         <v>30</v>
@@ -8983,43 +8758,43 @@
         <v>36</v>
       </c>
       <c r="AT37">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="AU37">
         <v>36</v>
       </c>
       <c r="AV37">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="AW37">
         <v>980</v>
       </c>
       <c r="AX37">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="AY37">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AZ37">
         <v>20</v>
       </c>
       <c r="BA37">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="BB37">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="BC37">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="BD37">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="BE37">
         <v>1000</v>
       </c>
       <c r="BF37" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="BG37">
         <v>62647</v>
@@ -9031,16 +8806,16 @@
         <v>58805</v>
       </c>
       <c r="BJ37" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="BK37" t="s">
-        <v>340</v>
+        <v>295</v>
       </c>
       <c r="BL37" t="s">
-        <v>391</v>
+        <v>331</v>
       </c>
       <c r="BM37" t="s">
-        <v>442</v>
+        <v>367</v>
       </c>
     </row>
     <row r="38" spans="1:65">
@@ -9060,163 +8835,163 @@
         <v>188</v>
       </c>
       <c r="F38">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="G38">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="H38">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="I38">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="J38">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K38">
         <v>3.3</v>
       </c>
       <c r="L38">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="M38">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="N38">
-        <v>2.56</v>
+        <v>2.44</v>
       </c>
       <c r="O38">
-        <v>2.74</v>
+        <v>2.54</v>
       </c>
       <c r="P38">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="Q38">
-        <v>2.26</v>
+        <v>2.14</v>
       </c>
       <c r="R38">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="S38">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="T38">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="U38">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="V38">
         <v>10</v>
       </c>
       <c r="W38">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="X38">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y38">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="Z38">
-        <v>5.8</v>
+        <v>50</v>
       </c>
       <c r="AA38">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AB38">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC38">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD38">
         <v>6.6</v>
       </c>
       <c r="AE38">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AF38">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG38">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AH38">
-        <v>5.6</v>
+        <v>46</v>
       </c>
       <c r="AI38">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AJ38">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK38">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL38">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AM38">
+        <v>12</v>
+      </c>
+      <c r="AN38">
+        <v>20</v>
+      </c>
+      <c r="AO38">
+        <v>22</v>
+      </c>
+      <c r="AP38">
+        <v>50</v>
+      </c>
+      <c r="AQ38">
+        <v>75</v>
+      </c>
+      <c r="AR38">
+        <v>29</v>
+      </c>
+      <c r="AS38">
+        <v>34</v>
+      </c>
+      <c r="AT38">
+        <v>27</v>
+      </c>
+      <c r="AU38">
+        <v>30</v>
+      </c>
+      <c r="AV38">
+        <v>48</v>
+      </c>
+      <c r="AW38">
+        <v>55</v>
+      </c>
+      <c r="AX38">
+        <v>100</v>
+      </c>
+      <c r="AY38">
+        <v>170</v>
+      </c>
+      <c r="AZ38">
+        <v>25</v>
+      </c>
+      <c r="BA38">
+        <v>28</v>
+      </c>
+      <c r="BB38">
         <v>14.5</v>
       </c>
-      <c r="AN38">
-        <v>17</v>
-      </c>
-      <c r="AO38">
-        <v>29</v>
-      </c>
-      <c r="AP38">
-        <v>5.8</v>
-      </c>
-      <c r="AQ38">
-        <v>980</v>
-      </c>
-      <c r="AR38">
-        <v>22</v>
-      </c>
-      <c r="AS38">
-        <v>38</v>
-      </c>
-      <c r="AT38">
-        <v>6.2</v>
-      </c>
-      <c r="AU38">
-        <v>38</v>
-      </c>
-      <c r="AV38">
-        <v>5.6</v>
-      </c>
-      <c r="AW38">
-        <v>75</v>
-      </c>
-      <c r="AX38">
-        <v>6.8</v>
-      </c>
-      <c r="AY38">
-        <v>980</v>
-      </c>
-      <c r="AZ38">
-        <v>5.2</v>
-      </c>
-      <c r="BA38">
-        <v>36</v>
-      </c>
-      <c r="BB38">
-        <v>5.8</v>
-      </c>
       <c r="BC38">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="BD38">
-        <v>6.2</v>
+        <v>19</v>
       </c>
       <c r="BE38">
         <v>1000</v>
       </c>
       <c r="BF38" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="BG38">
         <v>44801</v>
@@ -9228,16 +9003,16 @@
         <v>58805</v>
       </c>
       <c r="BJ38" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="BK38" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="BL38" t="s">
-        <v>392</v>
+        <v>332</v>
       </c>
       <c r="BM38" t="s">
-        <v>443</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="1:65">
@@ -9263,52 +9038,52 @@
         <v>2.18</v>
       </c>
       <c r="H39">
+        <v>3.4</v>
+      </c>
+      <c r="I39">
         <v>3.45</v>
       </c>
-      <c r="I39">
-        <v>3.5</v>
-      </c>
       <c r="J39">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K39">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L39">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="M39">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="N39">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="O39">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="P39">
+        <v>1.48</v>
+      </c>
+      <c r="Q39">
         <v>1.5</v>
       </c>
-      <c r="Q39">
-        <v>1.55</v>
-      </c>
       <c r="R39">
-        <v>2.82</v>
+        <v>2.98</v>
       </c>
       <c r="S39">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T39">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="U39">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="V39">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W39">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X39">
         <v>28</v>
@@ -9317,40 +9092,40 @@
         <v>30</v>
       </c>
       <c r="Z39">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AA39">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB39">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AC39">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AD39">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AE39">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AF39">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG39">
         <v>15</v>
       </c>
       <c r="AH39">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI39">
         <v>30</v>
       </c>
       <c r="AJ39">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AK39">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AL39">
         <v>10.5</v>
@@ -9359,61 +9134,61 @@
         <v>11</v>
       </c>
       <c r="AN39">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO39">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AP39">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AQ39">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AR39">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS39">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT39">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AU39">
         <v>18</v>
       </c>
       <c r="AV39">
+        <v>21</v>
+      </c>
+      <c r="AW39">
         <v>23</v>
-      </c>
-      <c r="AW39">
-        <v>24</v>
       </c>
       <c r="AX39">
         <v>44</v>
       </c>
       <c r="AY39">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AZ39">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BA39">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="BB39">
         <v>17.5</v>
       </c>
       <c r="BC39">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="BD39">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="BE39">
-        <v>850</v>
+        <v>250</v>
       </c>
       <c r="BF39" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="BG39">
         <v>48461</v>
@@ -9425,16 +9200,16 @@
         <v>58805</v>
       </c>
       <c r="BJ39" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="BK39" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="BL39" t="s">
-        <v>393</v>
+        <v>333</v>
       </c>
       <c r="BM39" t="s">
-        <v>444</v>
+        <v>369</v>
       </c>
     </row>
     <row r="40" spans="1:65">
@@ -9454,46 +9229,46 @@
         <v>190</v>
       </c>
       <c r="F40">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="G40">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="H40">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="I40">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="J40">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K40">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L40">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="M40">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
       <c r="N40">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="O40">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="P40">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="Q40">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R40">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="S40">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="T40">
         <v>26</v>
@@ -9508,70 +9283,70 @@
         <v>32</v>
       </c>
       <c r="X40">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Y40">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Z40">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AA40">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="AB40">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC40">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD40">
         <v>11</v>
       </c>
       <c r="AE40">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AF40">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG40">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH40">
+        <v>85</v>
+      </c>
+      <c r="AI40">
+        <v>90</v>
+      </c>
+      <c r="AJ40">
+        <v>9.4</v>
+      </c>
+      <c r="AK40">
+        <v>9.6</v>
+      </c>
+      <c r="AL40">
+        <v>9.4</v>
+      </c>
+      <c r="AM40">
+        <v>9.6</v>
+      </c>
+      <c r="AN40">
+        <v>20</v>
+      </c>
+      <c r="AO40">
+        <v>21</v>
+      </c>
+      <c r="AP40">
         <v>70</v>
       </c>
-      <c r="AI40">
+      <c r="AQ40">
         <v>80</v>
       </c>
-      <c r="AJ40">
-        <v>10</v>
-      </c>
-      <c r="AK40">
-        <v>10.5</v>
-      </c>
-      <c r="AL40">
-        <v>9.6</v>
-      </c>
-      <c r="AM40">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AN40">
-        <v>19.5</v>
-      </c>
-      <c r="AO40">
-        <v>20</v>
-      </c>
-      <c r="AP40">
-        <v>50</v>
-      </c>
-      <c r="AQ40">
-        <v>60</v>
-      </c>
       <c r="AR40">
+        <v>13</v>
+      </c>
+      <c r="AS40">
         <v>13.5</v>
-      </c>
-      <c r="AS40">
-        <v>14.5</v>
       </c>
       <c r="AT40">
         <v>12.5</v>
@@ -9580,37 +9355,37 @@
         <v>13</v>
       </c>
       <c r="AV40">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AW40">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AX40">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AY40">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AZ40">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="BA40">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="BB40">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="BC40">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="BD40">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="BE40">
-        <v>490</v>
+        <v>550</v>
       </c>
       <c r="BF40" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="BG40">
         <v>1096</v>
@@ -9622,16 +9397,16 @@
         <v>58805</v>
       </c>
       <c r="BJ40" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="BK40" t="s">
-        <v>343</v>
+        <v>298</v>
       </c>
       <c r="BL40" t="s">
-        <v>394</v>
+        <v>334</v>
       </c>
       <c r="BM40" t="s">
-        <v>445</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41" spans="1:65">
@@ -9651,163 +9426,163 @@
         <v>191</v>
       </c>
       <c r="F41">
-        <v>1.56</v>
+        <v>2.02</v>
       </c>
       <c r="G41">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H41">
-        <v>2.94</v>
+        <v>4</v>
       </c>
       <c r="I41">
-        <v>870</v>
+        <v>4.7</v>
       </c>
       <c r="J41">
         <v>3.2</v>
       </c>
       <c r="K41">
-        <v>190</v>
+        <v>3.6</v>
       </c>
       <c r="L41">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="M41">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="N41">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="O41">
-        <v>2.54</v>
+        <v>2.4</v>
       </c>
       <c r="P41">
-        <v>1.53</v>
+        <v>1.99</v>
       </c>
       <c r="Q41">
-        <v>2.48</v>
+        <v>2.1</v>
       </c>
       <c r="R41">
-        <v>1.68</v>
+        <v>1.91</v>
       </c>
       <c r="S41">
-        <v>2.9</v>
+        <v>2.02</v>
       </c>
       <c r="T41">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="U41">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="V41">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="W41">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="X41">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="Y41">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="Z41">
-        <v>3.65</v>
+        <v>11</v>
       </c>
       <c r="AA41">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="AB41">
-        <v>5.7</v>
+        <v>7.2</v>
       </c>
       <c r="AC41">
         <v>8.6</v>
       </c>
       <c r="AD41">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AE41">
-        <v>9.4</v>
+        <v>7.8</v>
       </c>
       <c r="AF41">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG41">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AH41">
-        <v>3.6</v>
+        <v>50</v>
       </c>
       <c r="AI41">
-        <v>180</v>
+        <v>980</v>
       </c>
       <c r="AJ41">
-        <v>2.88</v>
+        <v>10</v>
       </c>
       <c r="AK41">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL41">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AM41">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AN41">
         <v>18.5</v>
       </c>
       <c r="AO41">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AP41">
-        <v>3.6</v>
+        <v>40</v>
       </c>
       <c r="AQ41">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="AR41">
-        <v>3.25</v>
+        <v>21</v>
       </c>
       <c r="AS41">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT41">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AU41">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AV41">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AW41">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AX41">
-        <v>3.65</v>
+        <v>11.5</v>
       </c>
       <c r="AY41">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="AZ41">
-        <v>3.15</v>
+        <v>15</v>
       </c>
       <c r="BA41">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB41">
-        <v>3.65</v>
+        <v>11.5</v>
       </c>
       <c r="BC41">
-        <v>320</v>
+        <v>90</v>
       </c>
       <c r="BD41">
-        <v>3.65</v>
+        <v>12.5</v>
       </c>
       <c r="BE41">
         <v>1000</v>
       </c>
       <c r="BF41" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="BG41">
         <v>10778457</v>
@@ -9819,16 +9594,16 @@
         <v>58805</v>
       </c>
       <c r="BJ41" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="BK41" t="s">
-        <v>344</v>
+        <v>299</v>
       </c>
       <c r="BL41" t="s">
-        <v>395</v>
+        <v>335</v>
       </c>
       <c r="BM41" t="s">
-        <v>446</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42" spans="1:65">
@@ -9851,160 +9626,160 @@
         <v>4.5</v>
       </c>
       <c r="G42">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="H42">
-        <v>1.81</v>
+        <v>1.98</v>
       </c>
       <c r="I42">
         <v>1.99</v>
       </c>
       <c r="J42">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="K42">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L42">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="M42">
-        <v>1.91</v>
+        <v>1.79</v>
       </c>
       <c r="N42">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="O42">
-        <v>2.46</v>
+        <v>2.34</v>
       </c>
       <c r="P42">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="Q42">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="R42">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="S42">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="T42">
-        <v>4.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U42">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="V42">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="W42">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="X42">
-        <v>4.1</v>
+        <v>9.6</v>
       </c>
       <c r="Y42">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="Z42">
-        <v>5.1</v>
+        <v>20</v>
       </c>
       <c r="AA42">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AB42">
-        <v>4.7</v>
+        <v>12.5</v>
       </c>
       <c r="AC42">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AD42">
         <v>7.2</v>
       </c>
       <c r="AE42">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AF42">
-        <v>4</v>
+        <v>9.6</v>
       </c>
       <c r="AG42">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH42">
-        <v>5.2</v>
+        <v>20</v>
       </c>
       <c r="AI42">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AJ42">
-        <v>5.6</v>
+        <v>29</v>
       </c>
       <c r="AK42">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AL42">
-        <v>5.1</v>
+        <v>17</v>
       </c>
       <c r="AM42">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AN42">
-        <v>5.2</v>
+        <v>20</v>
       </c>
       <c r="AO42">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AP42">
-        <v>5.8</v>
+        <v>40</v>
       </c>
       <c r="AQ42">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AR42">
-        <v>6</v>
+        <v>17.5</v>
       </c>
       <c r="AS42">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AT42">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AU42">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AV42">
-        <v>6</v>
+        <v>16.5</v>
       </c>
       <c r="AW42">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AX42">
-        <v>6.2</v>
+        <v>26</v>
       </c>
       <c r="AY42">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AZ42">
-        <v>3.65</v>
+        <v>17</v>
       </c>
       <c r="BA42">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="BB42">
-        <v>4.8</v>
+        <v>15</v>
       </c>
       <c r="BC42">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="BD42">
-        <v>6.4</v>
+        <v>21</v>
       </c>
       <c r="BE42">
         <v>1000</v>
       </c>
       <c r="BF42" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="BG42">
         <v>5271439</v>
@@ -10016,16 +9791,16 @@
         <v>58805</v>
       </c>
       <c r="BJ42" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="BK42" t="s">
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="BL42" t="s">
-        <v>396</v>
+        <v>336</v>
       </c>
       <c r="BM42" t="s">
-        <v>447</v>
+        <v>372</v>
       </c>
     </row>
     <row r="43" spans="1:65">
@@ -10045,88 +9820,88 @@
         <v>193</v>
       </c>
       <c r="F43">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="G43">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="H43">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="I43">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="J43">
+        <v>3.3</v>
+      </c>
+      <c r="K43">
         <v>3.35</v>
-      </c>
-      <c r="K43">
-        <v>3.5</v>
       </c>
       <c r="L43">
         <v>1.63</v>
       </c>
       <c r="M43">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="N43">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="O43">
         <v>2.6</v>
       </c>
       <c r="P43">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="Q43">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="R43">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="S43">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="T43">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="U43">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="V43">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="W43">
         <v>7.4</v>
       </c>
       <c r="X43">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y43">
         <v>11</v>
       </c>
       <c r="Z43">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AA43">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB43">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC43">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD43">
         <v>7</v>
       </c>
       <c r="AE43">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AF43">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG43">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH43">
         <v>22</v>
@@ -10135,22 +9910,22 @@
         <v>26</v>
       </c>
       <c r="AJ43">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AK43">
         <v>36</v>
       </c>
       <c r="AL43">
-        <v>18</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM43">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN43">
         <v>22</v>
       </c>
       <c r="AO43">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AP43">
         <v>42</v>
@@ -10159,49 +9934,49 @@
         <v>55</v>
       </c>
       <c r="AR43">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AS43">
-        <v>140</v>
+        <v>980</v>
       </c>
       <c r="AT43">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AU43">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AV43">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AW43">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AX43">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="AY43">
-        <v>980</v>
+        <v>180</v>
       </c>
       <c r="AZ43">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA43">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="BB43">
+        <v>10</v>
+      </c>
+      <c r="BC43">
+        <v>23</v>
+      </c>
+      <c r="BD43">
         <v>16.5</v>
       </c>
-      <c r="BC43">
-        <v>21</v>
-      </c>
-      <c r="BD43">
-        <v>13.5</v>
-      </c>
       <c r="BE43">
         <v>1000</v>
       </c>
       <c r="BF43" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="BG43">
         <v>3738659</v>
@@ -10213,16 +9988,16 @@
         <v>58805</v>
       </c>
       <c r="BJ43" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="BK43" t="s">
-        <v>346</v>
+        <v>301</v>
       </c>
       <c r="BL43" t="s">
-        <v>397</v>
+        <v>337</v>
       </c>
       <c r="BM43" t="s">
-        <v>448</v>
+        <v>373</v>
       </c>
     </row>
     <row r="44" spans="1:65">
@@ -10245,28 +10020,28 @@
         <v>2.1</v>
       </c>
       <c r="G44">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H44">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="I44">
         <v>4.3</v>
       </c>
       <c r="J44">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K44">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L44">
         <v>1.65</v>
       </c>
       <c r="M44">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="N44">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="O44">
         <v>2.54</v>
@@ -10275,61 +10050,61 @@
         <v>2.06</v>
       </c>
       <c r="Q44">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R44">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S44">
         <v>1.94</v>
       </c>
       <c r="T44">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="U44">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="V44">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W44">
         <v>12</v>
       </c>
       <c r="X44">
-        <v>6.2</v>
+        <v>24</v>
       </c>
       <c r="Y44">
         <v>28</v>
       </c>
       <c r="Z44">
-        <v>7.4</v>
+        <v>16.5</v>
       </c>
       <c r="AA44">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AB44">
         <v>7</v>
       </c>
       <c r="AC44">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD44">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AE44">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AF44">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG44">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH44">
-        <v>7.2</v>
+        <v>44</v>
       </c>
       <c r="AI44">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ44">
         <v>10.5</v>
@@ -10341,64 +10116,64 @@
         <v>10</v>
       </c>
       <c r="AM44">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AN44">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO44">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AP44">
-        <v>7.4</v>
+        <v>16</v>
       </c>
       <c r="AQ44">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AR44">
+        <v>23</v>
+      </c>
+      <c r="AS44">
+        <v>26</v>
+      </c>
+      <c r="AT44">
+        <v>24</v>
+      </c>
+      <c r="AU44">
+        <v>27</v>
+      </c>
+      <c r="AV44">
+        <v>44</v>
+      </c>
+      <c r="AW44">
+        <v>55</v>
+      </c>
+      <c r="AX44">
+        <v>18</v>
+      </c>
+      <c r="AY44">
+        <v>170</v>
+      </c>
+      <c r="AZ44">
         <v>20</v>
-      </c>
-      <c r="AS44">
-        <v>980</v>
-      </c>
-      <c r="AT44">
-        <v>23</v>
-      </c>
-      <c r="AU44">
-        <v>34</v>
-      </c>
-      <c r="AV44">
-        <v>7</v>
-      </c>
-      <c r="AW44">
-        <v>980</v>
-      </c>
-      <c r="AX44">
-        <v>7.8</v>
-      </c>
-      <c r="AY44">
-        <v>980</v>
-      </c>
-      <c r="AZ44">
-        <v>6</v>
       </c>
       <c r="BA44">
         <v>23</v>
       </c>
       <c r="BB44">
-        <v>4.7</v>
+        <v>15</v>
       </c>
       <c r="BC44">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="BD44">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="BE44">
         <v>1000</v>
       </c>
       <c r="BF44" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="BG44">
         <v>194509</v>
@@ -10410,16 +10185,16 @@
         <v>58805</v>
       </c>
       <c r="BJ44" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="BK44" t="s">
-        <v>347</v>
+        <v>302</v>
       </c>
       <c r="BL44" t="s">
-        <v>398</v>
+        <v>338</v>
       </c>
       <c r="BM44" t="s">
-        <v>449</v>
+        <v>374</v>
       </c>
     </row>
     <row r="45" spans="1:65">
@@ -10439,163 +10214,163 @@
         <v>195</v>
       </c>
       <c r="F45">
-        <v>2.32</v>
+        <v>2.82</v>
       </c>
       <c r="G45">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="H45">
-        <v>2.48</v>
+        <v>2.9</v>
       </c>
       <c r="I45">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="J45">
-        <v>2.8</v>
+        <v>2.98</v>
       </c>
       <c r="K45">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="L45">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="M45">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="N45">
-        <v>2.24</v>
+        <v>2.52</v>
       </c>
       <c r="O45">
-        <v>4.5</v>
+        <v>2.92</v>
       </c>
       <c r="P45">
-        <v>1.64</v>
+        <v>2.06</v>
       </c>
       <c r="Q45">
+        <v>2.34</v>
+      </c>
+      <c r="R45">
+        <v>1.75</v>
+      </c>
+      <c r="S45">
+        <v>1.93</v>
+      </c>
+      <c r="T45">
+        <v>7.6</v>
+      </c>
+      <c r="U45">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="V45">
+        <v>8</v>
+      </c>
+      <c r="W45">
+        <v>9.6</v>
+      </c>
+      <c r="X45">
+        <v>14.5</v>
+      </c>
+      <c r="Y45">
+        <v>19.5</v>
+      </c>
+      <c r="Z45">
+        <v>7.2</v>
+      </c>
+      <c r="AA45">
+        <v>980</v>
+      </c>
+      <c r="AB45">
+        <v>7.8</v>
+      </c>
+      <c r="AC45">
         <v>9.4</v>
       </c>
-      <c r="R45">
-        <v>1.47</v>
-      </c>
-      <c r="S45">
-        <v>9.4</v>
-      </c>
-      <c r="T45">
-        <v>1.49</v>
-      </c>
-      <c r="U45">
-        <v>1000</v>
-      </c>
-      <c r="V45">
-        <v>1.09</v>
-      </c>
-      <c r="W45">
-        <v>1000</v>
-      </c>
-      <c r="X45">
-        <v>1.09</v>
-      </c>
-      <c r="Y45">
-        <v>1000</v>
-      </c>
-      <c r="Z45">
-        <v>1.09</v>
-      </c>
-      <c r="AA45">
-        <v>1000</v>
-      </c>
-      <c r="AB45">
-        <v>1.09</v>
-      </c>
-      <c r="AC45">
-        <v>1000</v>
-      </c>
       <c r="AD45">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="AE45">
-        <v>980</v>
+        <v>7.4</v>
       </c>
       <c r="AF45">
-        <v>1.09</v>
+        <v>11.5</v>
       </c>
       <c r="AG45">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH45">
-        <v>1.09</v>
+        <v>7</v>
       </c>
       <c r="AI45">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ45">
-        <v>1.09</v>
+        <v>14.5</v>
       </c>
       <c r="AK45">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AL45">
-        <v>1.09</v>
+        <v>11</v>
       </c>
       <c r="AM45">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AN45">
-        <v>1.09</v>
+        <v>18</v>
       </c>
       <c r="AO45">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP45">
-        <v>1.09</v>
+        <v>7.4</v>
       </c>
       <c r="AQ45">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR45">
-        <v>1.09</v>
+        <v>7.2</v>
       </c>
       <c r="AS45">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT45">
-        <v>1.09</v>
+        <v>7</v>
       </c>
       <c r="AU45">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV45">
-        <v>1.09</v>
+        <v>7.4</v>
       </c>
       <c r="AW45">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX45">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="AY45">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ45">
-        <v>1.09</v>
+        <v>7</v>
       </c>
       <c r="BA45">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB45">
-        <v>1.09</v>
+        <v>7.2</v>
       </c>
       <c r="BC45">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD45">
-        <v>1.09</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE45">
         <v>1000</v>
       </c>
       <c r="BF45" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="BG45">
         <v>6168045</v>
@@ -10607,16 +10382,16 @@
         <v>58805</v>
       </c>
       <c r="BJ45" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="BK45" t="s">
-        <v>348</v>
+        <v>303</v>
       </c>
       <c r="BL45" t="s">
-        <v>399</v>
+        <v>339</v>
       </c>
       <c r="BM45" t="s">
-        <v>450</v>
+        <v>375</v>
       </c>
     </row>
     <row r="46" spans="1:65">
@@ -10636,67 +10411,67 @@
         <v>196</v>
       </c>
       <c r="F46">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="G46">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H46">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="I46">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="J46">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="K46">
         <v>5.2</v>
       </c>
       <c r="L46">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="M46">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="N46">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="O46">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="P46">
         <v>2.32</v>
       </c>
       <c r="Q46">
-        <v>2.64</v>
+        <v>2.44</v>
       </c>
       <c r="R46">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="S46">
         <v>1.76</v>
       </c>
       <c r="T46">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="U46">
+        <v>14.5</v>
+      </c>
+      <c r="V46">
+        <v>23</v>
+      </c>
+      <c r="W46">
+        <v>27</v>
+      </c>
+      <c r="X46">
+        <v>50</v>
+      </c>
+      <c r="Y46">
+        <v>130</v>
+      </c>
+      <c r="Z46">
         <v>15.5</v>
-      </c>
-      <c r="V46">
-        <v>6</v>
-      </c>
-      <c r="W46">
-        <v>30</v>
-      </c>
-      <c r="X46">
-        <v>7</v>
-      </c>
-      <c r="Y46">
-        <v>980</v>
-      </c>
-      <c r="Z46">
-        <v>7.4</v>
       </c>
       <c r="AA46">
         <v>980</v>
@@ -10708,91 +10483,91 @@
         <v>7</v>
       </c>
       <c r="AD46">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AE46">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AF46">
-        <v>6.4</v>
+        <v>32</v>
       </c>
       <c r="AG46">
+        <v>40</v>
+      </c>
+      <c r="AH46">
         <v>46</v>
       </c>
-      <c r="AH46">
-        <v>7.2</v>
-      </c>
       <c r="AI46">
-        <v>980</v>
+        <v>220</v>
       </c>
       <c r="AJ46">
         <v>6.6</v>
       </c>
       <c r="AK46">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AL46">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AM46">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AN46">
-        <v>6.2</v>
+        <v>29</v>
       </c>
       <c r="AO46">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AP46">
-        <v>7.2</v>
+        <v>46</v>
       </c>
       <c r="AQ46">
         <v>980</v>
       </c>
       <c r="AR46">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AS46">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AT46">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AU46">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AV46">
-        <v>6.6</v>
+        <v>42</v>
       </c>
       <c r="AW46">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AX46">
-        <v>7.2</v>
+        <v>15</v>
       </c>
       <c r="AY46">
-        <v>980</v>
+        <v>380</v>
       </c>
       <c r="AZ46">
-        <v>4</v>
+        <v>7.6</v>
       </c>
       <c r="BA46">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BB46">
-        <v>7.4</v>
+        <v>15.5</v>
       </c>
       <c r="BC46">
         <v>980</v>
       </c>
       <c r="BD46">
-        <v>7.4</v>
+        <v>16</v>
       </c>
       <c r="BE46">
         <v>1000</v>
       </c>
       <c r="BF46" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="BG46">
         <v>361329</v>
@@ -10804,16 +10579,16 @@
         <v>58805</v>
       </c>
       <c r="BJ46" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="BK46" t="s">
-        <v>349</v>
+        <v>304</v>
       </c>
       <c r="BL46" t="s">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="BM46" t="s">
-        <v>451</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47" spans="1:65">
@@ -10833,70 +10608,70 @@
         <v>197</v>
       </c>
       <c r="F47">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="G47">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H47">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I47">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J47">
         <v>3.1</v>
       </c>
       <c r="K47">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L47">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M47">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="N47">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="O47">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="P47">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q47">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R47">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="S47">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="T47">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="U47">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="V47">
         <v>6.8</v>
       </c>
       <c r="W47">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="X47">
         <v>12</v>
       </c>
       <c r="Y47">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z47">
-        <v>5.8</v>
+        <v>25</v>
       </c>
       <c r="AA47">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AB47">
         <v>9.199999999999999</v>
@@ -10908,88 +10683,88 @@
         <v>6.4</v>
       </c>
       <c r="AE47">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AF47">
         <v>11</v>
       </c>
       <c r="AG47">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AH47">
-        <v>5.8</v>
+        <v>25</v>
       </c>
       <c r="AI47">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ47">
         <v>20</v>
       </c>
       <c r="AK47">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AL47">
         <v>14.5</v>
       </c>
       <c r="AM47">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AN47">
         <v>21</v>
       </c>
       <c r="AO47">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AP47">
-        <v>6.2</v>
+        <v>12.5</v>
       </c>
       <c r="AQ47">
+        <v>85</v>
+      </c>
+      <c r="AR47">
+        <v>12.5</v>
+      </c>
+      <c r="AS47">
         <v>80</v>
       </c>
-      <c r="AR47">
-        <v>6.2</v>
-      </c>
-      <c r="AS47">
-        <v>95</v>
-      </c>
       <c r="AT47">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AU47">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AV47">
-        <v>6.2</v>
+        <v>12.5</v>
       </c>
       <c r="AW47">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AX47">
-        <v>6.4</v>
+        <v>14</v>
       </c>
       <c r="AY47">
         <v>980</v>
       </c>
       <c r="AZ47">
-        <v>6.2</v>
+        <v>23</v>
       </c>
       <c r="BA47">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="BB47">
-        <v>5.8</v>
+        <v>16.5</v>
       </c>
       <c r="BC47">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="BD47">
-        <v>6.6</v>
+        <v>14.5</v>
       </c>
       <c r="BE47">
         <v>1000</v>
       </c>
       <c r="BF47" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="BG47">
         <v>5789820</v>
@@ -11001,16 +10776,16 @@
         <v>58805</v>
       </c>
       <c r="BJ47" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="BK47" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
       <c r="BL47" t="s">
-        <v>401</v>
+        <v>341</v>
       </c>
       <c r="BM47" t="s">
-        <v>452</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48" spans="1:65">
@@ -11030,100 +10805,100 @@
         <v>198</v>
       </c>
       <c r="F48">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="G48">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="H48">
         <v>3.9</v>
       </c>
       <c r="I48">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="J48">
         <v>3.3</v>
       </c>
       <c r="K48">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L48">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="M48">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="N48">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="O48">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="P48">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="Q48">
+        <v>2.06</v>
+      </c>
+      <c r="R48">
+        <v>1.96</v>
+      </c>
+      <c r="S48">
         <v>2.1</v>
       </c>
-      <c r="R48">
-        <v>1.91</v>
-      </c>
-      <c r="S48">
-        <v>2.14</v>
-      </c>
       <c r="T48">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="U48">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="V48">
         <v>11.5</v>
       </c>
       <c r="W48">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="X48">
         <v>23</v>
       </c>
       <c r="Y48">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z48">
-        <v>9.6</v>
+        <v>13</v>
       </c>
       <c r="AA48">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB48">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC48">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD48">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AE48">
         <v>7.8</v>
       </c>
       <c r="AF48">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG48">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH48">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="AI48">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ48">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK48">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AL48">
         <v>10</v>
@@ -11132,61 +10907,61 @@
         <v>11</v>
       </c>
       <c r="AN48">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO48">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AP48">
+        <v>12.5</v>
+      </c>
+      <c r="AQ48">
+        <v>70</v>
+      </c>
+      <c r="AR48">
+        <v>24</v>
+      </c>
+      <c r="AS48">
+        <v>28</v>
+      </c>
+      <c r="AT48">
+        <v>22</v>
+      </c>
+      <c r="AU48">
+        <v>26</v>
+      </c>
+      <c r="AV48">
+        <v>38</v>
+      </c>
+      <c r="AW48">
+        <v>46</v>
+      </c>
+      <c r="AX48">
+        <v>13.5</v>
+      </c>
+      <c r="AY48">
+        <v>130</v>
+      </c>
+      <c r="AZ48">
         <v>9.4</v>
       </c>
-      <c r="AQ48">
-        <v>980</v>
-      </c>
-      <c r="AR48">
-        <v>23</v>
-      </c>
-      <c r="AS48">
-        <v>980</v>
-      </c>
-      <c r="AT48">
-        <v>21</v>
-      </c>
-      <c r="AU48">
-        <v>980</v>
-      </c>
-      <c r="AV48">
-        <v>36</v>
-      </c>
-      <c r="AW48">
-        <v>48</v>
-      </c>
-      <c r="AX48">
-        <v>9.6</v>
-      </c>
-      <c r="AY48">
-        <v>980</v>
-      </c>
-      <c r="AZ48">
-        <v>13.5</v>
-      </c>
       <c r="BA48">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="BB48">
-        <v>8.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="BC48">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="BD48">
-        <v>4.5</v>
+        <v>30</v>
       </c>
       <c r="BE48">
         <v>1000</v>
       </c>
       <c r="BF48" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="BG48">
         <v>12104874</v>
@@ -11198,16 +10973,16 @@
         <v>58805</v>
       </c>
       <c r="BJ48" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="BK48" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
       <c r="BL48" t="s">
-        <v>402</v>
+        <v>342</v>
       </c>
       <c r="BM48" t="s">
-        <v>453</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49" spans="1:65">
@@ -11227,13 +11002,13 @@
         <v>199</v>
       </c>
       <c r="F49">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="G49">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="H49">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I49">
         <v>8</v>
@@ -11242,22 +11017,22 @@
         <v>4.6</v>
       </c>
       <c r="K49">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L49">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="M49">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="N49">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="O49">
+        <v>1.85</v>
+      </c>
+      <c r="P49">
         <v>1.91</v>
-      </c>
-      <c r="P49">
-        <v>1.92</v>
       </c>
       <c r="Q49">
         <v>2.04</v>
@@ -11269,58 +11044,58 @@
         <v>2.1</v>
       </c>
       <c r="T49">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U49">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="V49">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="W49">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="X49">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="Y49">
         <v>65</v>
       </c>
       <c r="Z49">
-        <v>12</v>
+        <v>5.7</v>
       </c>
       <c r="AA49">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AB49">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC49">
-        <v>9</v>
+        <v>980</v>
       </c>
       <c r="AD49">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AE49">
         <v>11</v>
       </c>
       <c r="AF49">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG49">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AH49">
-        <v>11.5</v>
+        <v>5.5</v>
       </c>
       <c r="AI49">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AJ49">
         <v>8.199999999999999</v>
       </c>
       <c r="AK49">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AL49">
         <v>9.199999999999999</v>
@@ -11329,19 +11104,19 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AN49">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AO49">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AP49">
-        <v>11.5</v>
+        <v>5.5</v>
       </c>
       <c r="AQ49">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AR49">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AS49">
         <v>14</v>
@@ -11350,40 +11125,40 @@
         <v>14</v>
       </c>
       <c r="AU49">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AV49">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AW49">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AX49">
-        <v>14</v>
+        <v>5.6</v>
       </c>
       <c r="AY49">
-        <v>270</v>
+        <v>130</v>
       </c>
       <c r="AZ49">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="BA49">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="BB49">
-        <v>11.5</v>
+        <v>5.6</v>
       </c>
       <c r="BC49">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="BD49">
-        <v>5.5</v>
+        <v>36</v>
       </c>
       <c r="BE49">
         <v>1000</v>
       </c>
       <c r="BF49" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="BG49">
         <v>9610998</v>
@@ -11395,16 +11170,16 @@
         <v>58805</v>
       </c>
       <c r="BJ49" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="BK49" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
       <c r="BL49" t="s">
-        <v>403</v>
+        <v>343</v>
       </c>
       <c r="BM49" t="s">
-        <v>454</v>
+        <v>379</v>
       </c>
     </row>
     <row r="50" spans="1:65">
@@ -11424,67 +11199,67 @@
         <v>200</v>
       </c>
       <c r="F50">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="G50">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="H50">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="I50">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="J50">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="K50">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L50">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="M50">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="N50">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="O50">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="P50">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="Q50">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="R50">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="S50">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="T50">
         <v>11</v>
       </c>
       <c r="U50">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="V50">
         <v>15.5</v>
       </c>
       <c r="W50">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="X50">
-        <v>8.4</v>
+        <v>24</v>
       </c>
       <c r="Y50">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="Z50">
-        <v>9.199999999999999</v>
+        <v>44</v>
       </c>
       <c r="AA50">
         <v>980</v>
@@ -11493,94 +11268,94 @@
         <v>6.6</v>
       </c>
       <c r="AC50">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD50">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AE50">
+        <v>9</v>
+      </c>
+      <c r="AF50">
+        <v>21</v>
+      </c>
+      <c r="AG50">
+        <v>25</v>
+      </c>
+      <c r="AH50">
+        <v>36</v>
+      </c>
+      <c r="AI50">
+        <v>100</v>
+      </c>
+      <c r="AJ50">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AK50">
         <v>9.4</v>
       </c>
-      <c r="AF50">
-        <v>22</v>
-      </c>
-      <c r="AG50">
-        <v>29</v>
-      </c>
-      <c r="AH50">
-        <v>9</v>
-      </c>
-      <c r="AI50">
-        <v>980</v>
-      </c>
-      <c r="AJ50">
-        <v>7.6</v>
-      </c>
-      <c r="AK50">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AL50">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AM50">
         <v>10.5</v>
       </c>
       <c r="AN50">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AO50">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AP50">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="AQ50">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AR50">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AS50">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AT50">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AU50">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV50">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="AW50">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AX50">
-        <v>9.199999999999999</v>
+        <v>46</v>
       </c>
       <c r="AY50">
         <v>980</v>
       </c>
       <c r="AZ50">
-        <v>5.3</v>
+        <v>9.6</v>
       </c>
       <c r="BA50">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="BB50">
-        <v>9.199999999999999</v>
+        <v>42</v>
       </c>
       <c r="BC50">
-        <v>980</v>
+        <v>270</v>
       </c>
       <c r="BD50">
-        <v>9.6</v>
+        <v>14</v>
       </c>
       <c r="BE50">
         <v>1000</v>
       </c>
       <c r="BF50" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="BG50">
         <v>330239</v>
@@ -11592,16 +11367,16 @@
         <v>58805</v>
       </c>
       <c r="BJ50" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="BK50" t="s">
-        <v>353</v>
+        <v>308</v>
       </c>
       <c r="BL50" t="s">
-        <v>404</v>
+        <v>344</v>
       </c>
       <c r="BM50" t="s">
-        <v>455</v>
+        <v>380</v>
       </c>
     </row>
     <row r="51" spans="1:65">
@@ -11621,34 +11396,34 @@
         <v>201</v>
       </c>
       <c r="F51">
-        <v>2.42</v>
+        <v>2.74</v>
       </c>
       <c r="G51">
+        <v>2.9</v>
+      </c>
+      <c r="H51">
+        <v>2.96</v>
+      </c>
+      <c r="I51">
+        <v>3.15</v>
+      </c>
+      <c r="J51">
+        <v>3.1</v>
+      </c>
+      <c r="K51">
+        <v>3.25</v>
+      </c>
+      <c r="L51">
+        <v>1.65</v>
+      </c>
+      <c r="M51">
+        <v>1.67</v>
+      </c>
+      <c r="N51">
+        <v>2.5</v>
+      </c>
+      <c r="O51">
         <v>2.54</v>
-      </c>
-      <c r="H51">
-        <v>3.3</v>
-      </c>
-      <c r="I51">
-        <v>3.55</v>
-      </c>
-      <c r="J51">
-        <v>3.15</v>
-      </c>
-      <c r="K51">
-        <v>3.4</v>
-      </c>
-      <c r="L51">
-        <v>1.67</v>
-      </c>
-      <c r="M51">
-        <v>1.77</v>
-      </c>
-      <c r="N51">
-        <v>2.3</v>
-      </c>
-      <c r="O51">
-        <v>2.5</v>
       </c>
       <c r="P51">
         <v>1.98</v>
@@ -11657,127 +11432,127 @@
         <v>2.1</v>
       </c>
       <c r="R51">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="S51">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T51">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="U51">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="V51">
         <v>9</v>
       </c>
-      <c r="U51">
-        <v>980</v>
-      </c>
-      <c r="V51">
-        <v>9.6</v>
-      </c>
       <c r="W51">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X51">
-        <v>3.95</v>
+        <v>16.5</v>
       </c>
       <c r="Y51">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="Z51">
-        <v>2.24</v>
+        <v>44</v>
       </c>
       <c r="AA51">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AB51">
-        <v>4.7</v>
+        <v>8.4</v>
       </c>
       <c r="AC51">
-        <v>980</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD51">
         <v>6.6</v>
       </c>
       <c r="AE51">
-        <v>980</v>
+        <v>7</v>
       </c>
       <c r="AF51">
+        <v>12.5</v>
+      </c>
+      <c r="AG51">
+        <v>14</v>
+      </c>
+      <c r="AH51">
+        <v>36</v>
+      </c>
+      <c r="AI51">
+        <v>46</v>
+      </c>
+      <c r="AJ51">
+        <v>14</v>
+      </c>
+      <c r="AK51">
+        <v>16.5</v>
+      </c>
+      <c r="AL51">
+        <v>11.5</v>
+      </c>
+      <c r="AM51">
         <v>13</v>
       </c>
-      <c r="AG51">
-        <v>980</v>
-      </c>
-      <c r="AH51">
-        <v>2.22</v>
-      </c>
-      <c r="AI51">
-        <v>980</v>
-      </c>
-      <c r="AJ51">
+      <c r="AN51">
+        <v>19.5</v>
+      </c>
+      <c r="AO51">
+        <v>21</v>
+      </c>
+      <c r="AP51">
+        <v>46</v>
+      </c>
+      <c r="AQ51">
+        <v>980</v>
+      </c>
+      <c r="AR51">
+        <v>34</v>
+      </c>
+      <c r="AS51">
+        <v>42</v>
+      </c>
+      <c r="AT51">
+        <v>30</v>
+      </c>
+      <c r="AU51">
+        <v>38</v>
+      </c>
+      <c r="AV51">
+        <v>44</v>
+      </c>
+      <c r="AW51">
+        <v>60</v>
+      </c>
+      <c r="AX51">
+        <v>16.5</v>
+      </c>
+      <c r="AY51">
+        <v>150</v>
+      </c>
+      <c r="AZ51">
+        <v>18.5</v>
+      </c>
+      <c r="BA51">
+        <v>38</v>
+      </c>
+      <c r="BB51">
         <v>13</v>
       </c>
-      <c r="AK51">
-        <v>980</v>
-      </c>
-      <c r="AL51">
-        <v>3.45</v>
-      </c>
-      <c r="AM51">
-        <v>12.5</v>
-      </c>
-      <c r="AN51">
+      <c r="BC51">
+        <v>44</v>
+      </c>
+      <c r="BD51">
         <v>17</v>
       </c>
-      <c r="AO51">
-        <v>980</v>
-      </c>
-      <c r="AP51">
-        <v>2.82</v>
-      </c>
-      <c r="AQ51">
-        <v>980</v>
-      </c>
-      <c r="AR51">
-        <v>2.2</v>
-      </c>
-      <c r="AS51">
-        <v>980</v>
-      </c>
-      <c r="AT51">
-        <v>2.18</v>
-      </c>
-      <c r="AU51">
-        <v>980</v>
-      </c>
-      <c r="AV51">
-        <v>2.24</v>
-      </c>
-      <c r="AW51">
-        <v>980</v>
-      </c>
-      <c r="AX51">
-        <v>2.28</v>
-      </c>
-      <c r="AY51">
-        <v>1000</v>
-      </c>
-      <c r="AZ51">
-        <v>2.16</v>
-      </c>
-      <c r="BA51">
-        <v>980</v>
-      </c>
-      <c r="BB51">
-        <v>1.84</v>
-      </c>
-      <c r="BC51">
-        <v>980</v>
-      </c>
-      <c r="BD51">
-        <v>1.9</v>
-      </c>
       <c r="BE51">
         <v>1000</v>
       </c>
       <c r="BF51" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="BG51">
         <v>453739</v>
@@ -11789,16 +11564,16 @@
         <v>58805</v>
       </c>
       <c r="BJ51" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="BK51" t="s">
-        <v>354</v>
+        <v>309</v>
       </c>
       <c r="BL51" t="s">
-        <v>405</v>
+        <v>345</v>
       </c>
       <c r="BM51" t="s">
-        <v>456</v>
+        <v>381</v>
       </c>
     </row>
     <row r="52" spans="1:65">
@@ -11818,163 +11593,163 @@
         <v>202</v>
       </c>
       <c r="F52">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="G52">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="H52">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I52">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="J52">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K52">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L52">
         <v>1.69</v>
       </c>
       <c r="M52">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="N52">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="O52">
         <v>2.46</v>
       </c>
       <c r="P52">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q52">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="R52">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S52">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T52">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="U52">
+        <v>10.5</v>
+      </c>
+      <c r="V52">
+        <v>11</v>
+      </c>
+      <c r="W52">
         <v>12.5</v>
       </c>
-      <c r="V52">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="W52">
-        <v>15.5</v>
-      </c>
       <c r="X52">
-        <v>20</v>
+        <v>6.2</v>
       </c>
       <c r="Y52">
         <v>34</v>
       </c>
       <c r="Z52">
-        <v>4.2</v>
+        <v>7.2</v>
       </c>
       <c r="AA52">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AB52">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="AC52">
-        <v>9.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD52">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="AE52">
-        <v>9.4</v>
+        <v>7.8</v>
       </c>
       <c r="AF52">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG52">
         <v>21</v>
       </c>
       <c r="AH52">
-        <v>4.1</v>
+        <v>7</v>
       </c>
       <c r="AI52">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ52">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK52">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AL52">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="AM52">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AN52">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AO52">
         <v>27</v>
       </c>
       <c r="AP52">
-        <v>4.1</v>
+        <v>7.2</v>
       </c>
       <c r="AQ52">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AR52">
-        <v>19.5</v>
+        <v>6.2</v>
       </c>
       <c r="AS52">
         <v>34</v>
       </c>
       <c r="AT52">
-        <v>19</v>
+        <v>6.2</v>
       </c>
       <c r="AU52">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AV52">
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="AW52">
         <v>60</v>
       </c>
       <c r="AX52">
-        <v>4.2</v>
+        <v>7.4</v>
       </c>
       <c r="AY52">
-        <v>980</v>
+        <v>180</v>
       </c>
       <c r="AZ52">
-        <v>3.7</v>
+        <v>6</v>
       </c>
       <c r="BA52">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB52">
-        <v>4.1</v>
+        <v>7</v>
       </c>
       <c r="BC52">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="BD52">
-        <v>4.3</v>
+        <v>7.6</v>
       </c>
       <c r="BE52">
         <v>1000</v>
       </c>
       <c r="BF52" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="BG52">
         <v>22018255</v>
@@ -11986,16 +11761,16 @@
         <v>58805</v>
       </c>
       <c r="BJ52" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="BK52" t="s">
-        <v>355</v>
+        <v>310</v>
       </c>
       <c r="BL52" t="s">
-        <v>406</v>
+        <v>346</v>
       </c>
       <c r="BM52" t="s">
-        <v>457</v>
+        <v>382</v>
       </c>
     </row>
     <row r="53" spans="1:65">
@@ -12015,163 +11790,163 @@
         <v>203</v>
       </c>
       <c r="F53">
-        <v>2.5</v>
+        <v>3.15</v>
       </c>
       <c r="G53">
-        <v>4.9</v>
+        <v>3.4</v>
       </c>
       <c r="H53">
-        <v>2.1</v>
+        <v>2.44</v>
       </c>
       <c r="I53">
+        <v>2.58</v>
+      </c>
+      <c r="J53">
+        <v>3.25</v>
+      </c>
+      <c r="K53">
         <v>3.55</v>
       </c>
-      <c r="J53">
-        <v>3.15</v>
-      </c>
-      <c r="K53">
-        <v>8.199999999999999</v>
-      </c>
       <c r="L53">
-        <v>1.34</v>
+        <v>1.73</v>
       </c>
       <c r="M53">
+        <v>1.83</v>
+      </c>
+      <c r="N53">
+        <v>2.2</v>
+      </c>
+      <c r="O53">
+        <v>2.38</v>
+      </c>
+      <c r="P53">
+        <v>1.9</v>
+      </c>
+      <c r="Q53">
+        <v>2.04</v>
+      </c>
+      <c r="R53">
+        <v>1.97</v>
+      </c>
+      <c r="S53">
+        <v>2.12</v>
+      </c>
+      <c r="T53">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="U53">
+        <v>13.5</v>
+      </c>
+      <c r="V53">
+        <v>8.4</v>
+      </c>
+      <c r="W53">
+        <v>9.6</v>
+      </c>
+      <c r="X53">
+        <v>11</v>
+      </c>
+      <c r="Y53">
+        <v>980</v>
+      </c>
+      <c r="Z53">
+        <v>4.6</v>
+      </c>
+      <c r="AA53">
+        <v>980</v>
+      </c>
+      <c r="AB53">
+        <v>10</v>
+      </c>
+      <c r="AC53">
+        <v>13.5</v>
+      </c>
+      <c r="AD53">
+        <v>6.8</v>
+      </c>
+      <c r="AE53">
+        <v>980</v>
+      </c>
+      <c r="AF53">
+        <v>10.5</v>
+      </c>
+      <c r="AG53">
+        <v>15</v>
+      </c>
+      <c r="AH53">
+        <v>21</v>
+      </c>
+      <c r="AI53">
+        <v>980</v>
+      </c>
+      <c r="AJ53">
         <v>15.5</v>
       </c>
-      <c r="N53">
-        <v>1.07</v>
-      </c>
-      <c r="O53">
-        <v>3.95</v>
-      </c>
-      <c r="P53">
-        <v>1.12</v>
-      </c>
-      <c r="Q53">
-        <v>1000</v>
-      </c>
-      <c r="R53">
-        <v>1.12</v>
-      </c>
-      <c r="S53">
-        <v>1000</v>
-      </c>
-      <c r="T53">
-        <v>1.49</v>
-      </c>
-      <c r="U53">
-        <v>980</v>
-      </c>
-      <c r="V53">
-        <v>1.1</v>
-      </c>
-      <c r="W53">
-        <v>980</v>
-      </c>
-      <c r="X53">
-        <v>1.1</v>
-      </c>
-      <c r="Y53">
-        <v>1000</v>
-      </c>
-      <c r="Z53">
-        <v>1.1</v>
-      </c>
-      <c r="AA53">
-        <v>1000</v>
-      </c>
-      <c r="AB53">
-        <v>1.1</v>
-      </c>
-      <c r="AC53">
-        <v>980</v>
-      </c>
-      <c r="AD53">
-        <v>1.1</v>
-      </c>
-      <c r="AE53">
-        <v>980</v>
-      </c>
-      <c r="AF53">
-        <v>1.1</v>
-      </c>
-      <c r="AG53">
-        <v>980</v>
-      </c>
-      <c r="AH53">
-        <v>1.1</v>
-      </c>
-      <c r="AI53">
-        <v>1000</v>
-      </c>
-      <c r="AJ53">
-        <v>1.1</v>
-      </c>
       <c r="AK53">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL53">
-        <v>1.1</v>
+        <v>12.5</v>
       </c>
       <c r="AM53">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AN53">
-        <v>1.1</v>
+        <v>17.5</v>
       </c>
       <c r="AO53">
         <v>980</v>
       </c>
       <c r="AP53">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="AQ53">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR53">
-        <v>1.1</v>
+        <v>4.8</v>
       </c>
       <c r="AS53">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT53">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="AU53">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV53">
-        <v>1.1</v>
+        <v>4.8</v>
       </c>
       <c r="AW53">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX53">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="AY53">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ53">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="BA53">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB53">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="BC53">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD53">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
       <c r="BE53">
         <v>1000</v>
       </c>
       <c r="BF53" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="BG53">
         <v>5615116</v>
@@ -12183,16 +11958,16 @@
         <v>58805</v>
       </c>
       <c r="BJ53" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="BK53" t="s">
-        <v>356</v>
+        <v>311</v>
       </c>
       <c r="BL53" t="s">
-        <v>407</v>
+        <v>347</v>
       </c>
       <c r="BM53" t="s">
-        <v>458</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
